--- a/week3/challenge11/courses.xlsx
+++ b/week3/challenge11/courses.xlsx
@@ -12626,758 +12626,758 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="n">
-        <v>42290.7201388889</v>
+        <v>42221.3909722222</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>159</v>
       </c>
       <c r="C2" t="n">
-        <v>21558</v>
+        <v>990</v>
       </c>
       <c r="D2" t="n">
-        <v>73161</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="n">
-        <v>41851.6513888889</v>
+        <v>42286.98125</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C3" t="n">
-        <v>1989</v>
+        <v>1767</v>
       </c>
       <c r="D3" t="n">
-        <v>825</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="n">
-        <v>42260.4527777778</v>
+        <v>42086.6069444444</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="C4" t="n">
-        <v>855</v>
+        <v>585</v>
       </c>
       <c r="D4" t="n">
-        <v>954</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="n">
-        <v>42562.4222222222</v>
+        <v>42227.5291666667</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C5" t="n">
-        <v>390</v>
+        <v>702</v>
       </c>
       <c r="D5" t="n">
-        <v>3543</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="n">
-        <v>41850.55625</v>
+        <v>42255.7319444444</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="C6" t="n">
-        <v>231</v>
+        <v>1629</v>
       </c>
       <c r="D6" t="n">
-        <v>306</v>
+        <v>20541</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="n">
-        <v>41659.7631944444</v>
+        <v>42295.7</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
-        <v>6972</v>
+        <v>309</v>
       </c>
       <c r="D7" t="n">
-        <v>102273</v>
+        <v>50922</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="n">
-        <v>42390.7618055556</v>
+        <v>42204.7118055555</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>378</v>
       </c>
       <c r="C8" t="n">
-        <v>570</v>
+        <v>8421</v>
       </c>
       <c r="D8" t="n">
-        <v>6618</v>
+        <v>21327</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="n">
-        <v>42286.8270833333</v>
+        <v>42361.5534722222</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="C9" t="n">
-        <v>4920</v>
+        <v>891</v>
       </c>
       <c r="D9" t="n">
-        <v>7380</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="n">
-        <v>41837.7375</v>
+        <v>42557.4347222222</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>282</v>
       </c>
       <c r="C10" t="n">
-        <v>106950</v>
+        <v>2889</v>
       </c>
       <c r="D10" t="n">
-        <v>810180</v>
+        <v>19962</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="n">
-        <v>42449.7138888889</v>
+        <v>42556.6979166667</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="C11" t="n">
-        <v>837</v>
+        <v>1194</v>
       </c>
       <c r="D11" t="n">
-        <v>1965</v>
+        <v>9678</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="n">
-        <v>42072.6826388889</v>
+        <v>42545.9166666667</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>804</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
-        <v>4479</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="n">
-        <v>42323.4305555556</v>
+        <v>42366.7715277778</v>
       </c>
       <c r="B13" t="s">
-        <v>420</v>
+        <v>158</v>
       </c>
       <c r="C13" t="n">
-        <v>14850</v>
+        <v>984</v>
       </c>
       <c r="D13" t="n">
-        <v>52380</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="n">
-        <v>41632.6888888889</v>
+        <v>41652.625</v>
       </c>
       <c r="B14" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="C14" t="n">
-        <v>19110</v>
+        <v>31476</v>
       </c>
       <c r="D14" t="n">
-        <v>265473</v>
+        <v>978141</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="n">
-        <v>41711.4208333333</v>
+        <v>42238.60625</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c r="C15" t="n">
-        <v>4332</v>
+        <v>996</v>
       </c>
       <c r="D15" t="n">
-        <v>18765</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="n">
-        <v>42561.5805555556</v>
+        <v>42298.425</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="C16" t="n">
-        <v>57</v>
+        <v>2607</v>
       </c>
       <c r="D16" t="n">
-        <v>2754</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="n">
-        <v>42465.6055555556</v>
+        <v>41885.5409722222</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>63</v>
       </c>
       <c r="C17" t="n">
-        <v>3438</v>
+        <v>351</v>
       </c>
       <c r="D17" t="n">
-        <v>63216</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="n">
-        <v>42481.4388888889</v>
+        <v>42451.5166666667</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="C18" t="n">
-        <v>2469</v>
+        <v>3588</v>
       </c>
       <c r="D18" t="n">
-        <v>11454</v>
+        <v>23109</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="n">
-        <v>41632.6125</v>
+        <v>41745.4194444444</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="C19" t="n">
-        <v>19191</v>
+        <v>3798</v>
       </c>
       <c r="D19" t="n">
-        <v>336756</v>
+        <v>55311</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="n">
-        <v>41941.5638888889</v>
+        <v>41729.6840277778</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C20" t="n">
-        <v>474</v>
+        <v>1248</v>
       </c>
       <c r="D20" t="n">
-        <v>44823</v>
+        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="n">
-        <v>42235.4118055556</v>
+        <v>42555.7444444444</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C21" t="n">
-        <v>693</v>
+        <v>606</v>
       </c>
       <c r="D21" t="n">
-        <v>5502</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="n">
-        <v>41842.6034722222</v>
+        <v>41660.5430555556</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="C22" t="n">
-        <v>789</v>
+        <v>2133</v>
       </c>
       <c r="D22" t="n">
-        <v>306</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="n">
-        <v>41681.6277777778</v>
+        <v>42526.4423611111</v>
       </c>
       <c r="B23" t="s">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>6891</v>
+        <v>126</v>
       </c>
       <c r="D23" t="n">
-        <v>93945</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="n">
-        <v>42228.5256944444</v>
+        <v>41606.475</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C24" t="n">
-        <v>813</v>
+        <v>1203</v>
       </c>
       <c r="D24" t="n">
-        <v>993</v>
+        <v>13641</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="n">
-        <v>41679.7493055556</v>
+        <v>41717.40625</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="C25" t="n">
-        <v>561</v>
+        <v>4104</v>
       </c>
       <c r="D25" t="n">
-        <v>1440</v>
+        <v>26007</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="n">
-        <v>41943.3833333333</v>
+        <v>42390.7618055556</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C26" t="n">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="D26" t="n">
-        <v>5856</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="n">
-        <v>42077.5590277778</v>
+        <v>42577.6770833333</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>801</v>
+        <v>150</v>
       </c>
       <c r="D27" t="n">
-        <v>2301</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="n">
-        <v>41674.5930555556</v>
+        <v>42493.6229166667</v>
       </c>
       <c r="B28" t="s">
-        <v>369</v>
+        <v>114</v>
       </c>
       <c r="C28" t="n">
-        <v>7491</v>
+        <v>684</v>
       </c>
       <c r="D28" t="n">
-        <v>44625</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="n">
-        <v>42186.6368055556</v>
+        <v>41620.4118055556</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="C29" t="n">
-        <v>2295</v>
+        <v>1557</v>
       </c>
       <c r="D29" t="n">
-        <v>11496</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="n">
-        <v>41556.6826388889</v>
+        <v>42211.4583333334</v>
       </c>
       <c r="B30" t="s">
-        <v>446</v>
+        <v>194</v>
       </c>
       <c r="C30" t="n">
-        <v>22245</v>
+        <v>1356</v>
       </c>
       <c r="D30" t="n">
-        <v>384315</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="n">
-        <v>42295.6763888889</v>
+        <v>42541.5868055555</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="C31" t="n">
-        <v>1761</v>
+        <v>747</v>
       </c>
       <c r="D31" t="n">
-        <v>5289</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="n">
-        <v>42245.5423611111</v>
+        <v>41588.6694444444</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="C32" t="n">
-        <v>8415</v>
+        <v>12117</v>
       </c>
       <c r="D32" t="n">
-        <v>39081</v>
+        <v>33519</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="n">
-        <v>41479.5965277778</v>
+        <v>41850.5569444444</v>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>64</v>
       </c>
       <c r="C33" t="n">
-        <v>7416</v>
+        <v>354</v>
       </c>
       <c r="D33" t="n">
-        <v>136959</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="n">
-        <v>42216.89375</v>
+        <v>42534.5527777778</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="C34" t="n">
-        <v>13878</v>
+        <v>438</v>
       </c>
       <c r="D34" t="n">
-        <v>55344</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="n">
-        <v>41478.7388888889</v>
+        <v>42543.4347222222</v>
       </c>
       <c r="B35" t="s">
-        <v>455</v>
+        <v>227</v>
       </c>
       <c r="C35" t="n">
-        <v>25002</v>
+        <v>1857</v>
       </c>
       <c r="D35" t="n">
-        <v>497781</v>
+        <v>18147</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="n">
-        <v>42198.4</v>
+        <v>42259.4222222222</v>
       </c>
       <c r="B36" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="C36" t="n">
-        <v>2499</v>
+        <v>2070</v>
       </c>
       <c r="D36" t="n">
-        <v>8340</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="n">
-        <v>41577.5576388889</v>
+        <v>42286.7173611111</v>
       </c>
       <c r="B37" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="C37" t="n">
-        <v>12750</v>
+        <v>8649</v>
       </c>
       <c r="D37" t="n">
-        <v>158184</v>
+        <v>35454</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="n">
-        <v>41681.6840277778</v>
+        <v>41729.44375</v>
       </c>
       <c r="B38" t="s">
-        <v>447</v>
+        <v>264</v>
       </c>
       <c r="C38" t="n">
-        <v>22332</v>
+        <v>2604</v>
       </c>
       <c r="D38" t="n">
-        <v>41361</v>
+        <v>14961</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="n">
-        <v>42568.4805555556</v>
+        <v>41863.6993055556</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="C39" t="n">
-        <v>630</v>
+        <v>2454</v>
       </c>
       <c r="D39" t="n">
-        <v>9618</v>
+        <v>22764</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="n">
-        <v>42226.4020833333</v>
+        <v>42364.4236111111</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="C40" t="n">
-        <v>5415</v>
+        <v>3189</v>
       </c>
       <c r="D40" t="n">
-        <v>34425</v>
+        <v>10461</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="n">
-        <v>41760.8791666667</v>
+        <v>42332.5659722222</v>
       </c>
       <c r="B41" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="C41" t="n">
-        <v>12705</v>
+        <v>5463</v>
       </c>
       <c r="D41" t="n">
-        <v>52071</v>
+        <v>29904</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="n">
-        <v>41941.5631944444</v>
+        <v>41835.6236111111</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="C42" t="n">
-        <v>453</v>
+        <v>14352</v>
       </c>
       <c r="D42" t="n">
-        <v>62061</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="n">
-        <v>42009.4527777778</v>
+        <v>42259.4388888889</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C43" t="n">
-        <v>4413</v>
+        <v>2037</v>
       </c>
       <c r="D43" t="n">
-        <v>99480</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="n">
-        <v>41658.55</v>
+        <v>42549.4527777778</v>
       </c>
       <c r="B44" t="s">
-        <v>356</v>
+        <v>184</v>
       </c>
       <c r="C44" t="n">
-        <v>6504</v>
+        <v>1233</v>
       </c>
       <c r="D44" t="n">
-        <v>20958</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="n">
-        <v>42238.60625</v>
+        <v>42541.4701388889</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="C45" t="n">
-        <v>996</v>
+        <v>468</v>
       </c>
       <c r="D45" t="n">
-        <v>2916</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="n">
-        <v>42242.7479166667</v>
+        <v>42563.7298611111</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="C46" t="n">
-        <v>1125</v>
+        <v>297</v>
       </c>
       <c r="D46" t="n">
-        <v>16662</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="n">
-        <v>42191.6701388889</v>
+        <v>42255.6194444444</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="C47" t="n">
-        <v>1266</v>
+        <v>15831</v>
       </c>
       <c r="D47" t="n">
-        <v>8658</v>
+        <v>32895</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8" t="n">
-        <v>42330.8291666667</v>
+        <v>42571.6145833333</v>
       </c>
       <c r="B48" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="C48" t="n">
-        <v>3618</v>
+        <v>522</v>
       </c>
       <c r="D48" t="n">
-        <v>4707</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="n">
-        <v>42010.4722222222</v>
+        <v>42423.7180555556</v>
       </c>
       <c r="B49" t="s">
-        <v>451</v>
+        <v>92</v>
       </c>
       <c r="C49" t="n">
-        <v>22860</v>
+        <v>528</v>
       </c>
       <c r="D49" t="n">
-        <v>250029</v>
+        <v>9726</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8" t="n">
-        <v>41597.7659722222</v>
+        <v>42032.6895833333</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C50" t="n">
-        <v>2835</v>
+        <v>2466</v>
       </c>
       <c r="D50" t="n">
-        <v>23565</v>
+        <v>36177</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="n">
-        <v>42093.4770833333</v>
+        <v>42436.7305555556</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="C51" t="n">
-        <v>564</v>
+        <v>810</v>
       </c>
       <c r="D51" t="n">
-        <v>4302</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="n">
-        <v>41739.6152777778</v>
+        <v>41848.7479166667</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>335</v>
       </c>
       <c r="C52" t="n">
-        <v>387</v>
+        <v>5184</v>
       </c>
       <c r="D52" t="n">
-        <v>2322</v>
+        <v>62943</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="n">
-        <v>42248.6076388889</v>
+        <v>41844.4666666667</v>
       </c>
       <c r="B53" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="C53" t="n">
-        <v>2055</v>
+        <v>738</v>
       </c>
       <c r="D53" t="n">
-        <v>9342</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="n">
-        <v>42329.5729166667</v>
+        <v>41953.4819444444</v>
       </c>
       <c r="B54" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="C54" t="n">
-        <v>7116</v>
+        <v>3966</v>
       </c>
       <c r="D54" t="n">
-        <v>12798</v>
+        <v>31152</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8" t="n">
-        <v>41823.5618055556</v>
+        <v>41556.7097222222</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="C55" t="n">
-        <v>330</v>
+        <v>2817</v>
       </c>
       <c r="D55" t="n">
-        <v>72129</v>
+        <v>51273</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13396,1598 +13396,1598 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8" t="n">
-        <v>42086.6069444444</v>
+        <v>42569.4201388889</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>585</v>
+        <v>210</v>
       </c>
       <c r="D57" t="n">
-        <v>1989</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="8" t="n">
-        <v>42534.5472222222</v>
+        <v>41675.8284722222</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="C58" t="n">
-        <v>345</v>
+        <v>3084</v>
       </c>
       <c r="D58" t="n">
-        <v>5364</v>
+        <v>50178</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="8" t="n">
-        <v>42162.6791666667</v>
+        <v>41842.4784722222</v>
       </c>
       <c r="B59" t="s">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="C59" t="n">
-        <v>2802</v>
+        <v>372</v>
       </c>
       <c r="D59" t="n">
-        <v>19728</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="8" t="n">
-        <v>42486.4590277778</v>
+        <v>42562.4708333333</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C60" t="n">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="D60" t="n">
-        <v>564</v>
+        <v>720</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8" t="n">
-        <v>42226.4625</v>
+        <v>42160.0347222222</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="C61" t="n">
-        <v>4191</v>
+        <v>4923</v>
       </c>
       <c r="D61" t="n">
-        <v>5430</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="8" t="n">
-        <v>41680.5493055556</v>
+        <v>42501.6034722222</v>
       </c>
       <c r="B62" t="s">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c r="C62" t="n">
-        <v>4146</v>
+        <v>312</v>
       </c>
       <c r="D62" t="n">
-        <v>42267</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="8" t="n">
-        <v>41673.4048611111</v>
+        <v>41660.6284722222</v>
       </c>
       <c r="B63" t="s">
-        <v>408</v>
+        <v>334</v>
       </c>
       <c r="C63" t="n">
-        <v>13398</v>
+        <v>5154</v>
       </c>
       <c r="D63" t="n">
-        <v>70137</v>
+        <v>15486</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8" t="n">
-        <v>42193.6673611111</v>
+        <v>42343.7208333333</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>385</v>
       </c>
       <c r="C64" t="n">
-        <v>1383</v>
+        <v>8715</v>
       </c>
       <c r="D64" t="n">
-        <v>3729</v>
+        <v>25329</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8" t="n">
-        <v>42343.7208333333</v>
+        <v>42061.7729166667</v>
       </c>
       <c r="B65" t="s">
-        <v>385</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>8715</v>
+        <v>60</v>
       </c>
       <c r="D65" t="n">
-        <v>25329</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="8" t="n">
-        <v>42247.3986111111</v>
+        <v>42432.6541666667</v>
       </c>
       <c r="B66" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="C66" t="n">
-        <v>10233</v>
+        <v>14541</v>
       </c>
       <c r="D66" t="n">
-        <v>19179</v>
+        <v>301101</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8" t="n">
-        <v>41631.4722222222</v>
+        <v>41632.6145833333</v>
       </c>
       <c r="B67" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="C67" t="n">
-        <v>17337</v>
+        <v>58215</v>
       </c>
       <c r="D67" t="n">
-        <v>110742</v>
+        <v>645114</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="8" t="n">
-        <v>42235.6784722222</v>
+        <v>41632.6513888889</v>
       </c>
       <c r="B68" t="s">
-        <v>371</v>
+        <v>440</v>
       </c>
       <c r="C68" t="n">
-        <v>7767</v>
+        <v>19761</v>
       </c>
       <c r="D68" t="n">
-        <v>34530</v>
+        <v>442464</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="8" t="n">
-        <v>41835.7104166667</v>
+        <v>41618.6444444444</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="C69" t="n">
-        <v>291</v>
+        <v>1140</v>
       </c>
       <c r="D69" t="n">
-        <v>2592</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="8" t="n">
-        <v>42557.4347222222</v>
+        <v>42228.5256944444</v>
       </c>
       <c r="B70" t="s">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="C70" t="n">
-        <v>2889</v>
+        <v>813</v>
       </c>
       <c r="D70" t="n">
-        <v>19962</v>
+        <v>993</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="8" t="n">
-        <v>42423.7180555556</v>
+        <v>41407.4569444444</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>474</v>
       </c>
       <c r="C71" t="n">
-        <v>528</v>
+        <v>51879</v>
       </c>
       <c r="D71" t="n">
-        <v>9726</v>
+        <v>1189731</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="8" t="n">
-        <v>42266.4416666667</v>
+        <v>42441.8923611111</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>407</v>
       </c>
       <c r="C72" t="n">
-        <v>729</v>
+        <v>13116</v>
       </c>
       <c r="D72" t="n">
-        <v>2901</v>
+        <v>56670</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="8" t="n">
-        <v>42316.3881944444</v>
+        <v>42433.8708333333</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C73" t="n">
-        <v>807</v>
+        <v>1071</v>
       </c>
       <c r="D73" t="n">
-        <v>3126</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="8" t="n">
-        <v>42325.6638888889</v>
+        <v>42224.3534722222</v>
       </c>
       <c r="B74" t="s">
-        <v>397</v>
+        <v>190</v>
       </c>
       <c r="C74" t="n">
-        <v>10896</v>
+        <v>1266</v>
       </c>
       <c r="D74" t="n">
-        <v>18759</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="8" t="n">
-        <v>42465.6527777778</v>
+        <v>42565.6034722222</v>
       </c>
       <c r="B75" t="s">
-        <v>348</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>5685</v>
+        <v>42</v>
       </c>
       <c r="D75" t="n">
-        <v>49869</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="8" t="n">
-        <v>41738.5833333333</v>
+        <v>42583.4576388889</v>
       </c>
       <c r="B76" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="C76" t="n">
-        <v>7335</v>
+        <v>129</v>
       </c>
       <c r="D76" t="n">
-        <v>54891</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="8" t="n">
-        <v>41674.5743055556</v>
+        <v>42542.7618055556</v>
       </c>
       <c r="B77" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C77" t="n">
-        <v>4719</v>
+        <v>3765</v>
       </c>
       <c r="D77" t="n">
-        <v>50451</v>
+        <v>53013</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="8" t="n">
-        <v>41844.4666666667</v>
+        <v>42186.6479166667</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>389</v>
       </c>
       <c r="C78" t="n">
-        <v>738</v>
+        <v>9078</v>
       </c>
       <c r="D78" t="n">
-        <v>4584</v>
+        <v>36645</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="8" t="n">
-        <v>41556.7097222222</v>
+        <v>41767.6604166667</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="C79" t="n">
-        <v>3594</v>
+        <v>195</v>
       </c>
       <c r="D79" t="n">
-        <v>28536</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="8" t="n">
-        <v>42090.8888888889</v>
+        <v>41631.4722222222</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>432</v>
       </c>
       <c r="C80" t="n">
-        <v>681</v>
+        <v>17337</v>
       </c>
       <c r="D80" t="n">
-        <v>2682</v>
+        <v>110742</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="8" t="n">
-        <v>41632.6180555556</v>
+        <v>42322.8472222222</v>
       </c>
       <c r="B81" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="C81" t="n">
-        <v>3531</v>
+        <v>5874</v>
       </c>
       <c r="D81" t="n">
-        <v>29892</v>
+        <v>20697</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8" t="n">
-        <v>42556.6979166667</v>
+        <v>41816.4013888889</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>460</v>
       </c>
       <c r="C82" t="n">
-        <v>1194</v>
+        <v>28071</v>
       </c>
       <c r="D82" t="n">
-        <v>9678</v>
+        <v>464382</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="8" t="n">
-        <v>42221.4222222222</v>
+        <v>41885.4701388889</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="C83" t="n">
-        <v>1110</v>
+        <v>138</v>
       </c>
       <c r="D83" t="n">
-        <v>2271</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="8" t="n">
-        <v>41850.5569444444</v>
+        <v>42186.6409722222</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="C84" t="n">
-        <v>354</v>
+        <v>2544</v>
       </c>
       <c r="D84" t="n">
-        <v>909</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="8" t="n">
-        <v>42132.5055555556</v>
+        <v>42207.5229166667</v>
       </c>
       <c r="B85" t="s">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="C85" t="n">
-        <v>4296</v>
+        <v>1167</v>
       </c>
       <c r="D85" t="n">
-        <v>23430</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="8" t="n">
-        <v>42178.4180555556</v>
+        <v>42534.5472222222</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="C86" t="n">
-        <v>1383</v>
+        <v>345</v>
       </c>
       <c r="D86" t="n">
-        <v>5739</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="8" t="n">
-        <v>42484.5631944444</v>
+        <v>42087.5729166667</v>
       </c>
       <c r="B87" t="s">
-        <v>308</v>
+        <v>61</v>
       </c>
       <c r="C87" t="n">
-        <v>3828</v>
+        <v>339</v>
       </c>
       <c r="D87" t="n">
-        <v>31191</v>
+        <v>639</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="8" t="n">
-        <v>42569.4201388889</v>
+        <v>42171.4854166667</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>399</v>
       </c>
       <c r="C88" t="n">
-        <v>210</v>
+        <v>11895</v>
       </c>
       <c r="D88" t="n">
-        <v>1275</v>
+        <v>16743</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="8" t="n">
-        <v>42298.425</v>
+        <v>42023.6520833333</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="C89" t="n">
-        <v>2607</v>
+        <v>120</v>
       </c>
       <c r="D89" t="n">
-        <v>10260</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="8" t="n">
-        <v>42031.7340277778</v>
+        <v>41531.6444444444</v>
       </c>
       <c r="B90" t="s">
-        <v>373</v>
+        <v>465</v>
       </c>
       <c r="C90" t="n">
-        <v>8076</v>
+        <v>31920</v>
       </c>
       <c r="D90" t="n">
-        <v>31119</v>
+        <v>408936</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="8" t="n">
-        <v>41597.7722222222</v>
+        <v>41637.7541666667</v>
       </c>
       <c r="B91" t="s">
-        <v>486</v>
+        <v>292</v>
       </c>
       <c r="C91" t="n">
-        <v>459144</v>
+        <v>3438</v>
       </c>
       <c r="D91" t="n">
-        <v>2000568</v>
+        <v>21921</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="8" t="n">
-        <v>42087.5729166667</v>
+        <v>41556.7076388889</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>431</v>
       </c>
       <c r="C92" t="n">
-        <v>339</v>
+        <v>16869</v>
       </c>
       <c r="D92" t="n">
-        <v>639</v>
+        <v>296940</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="8" t="n">
-        <v>42247.3798611111</v>
+        <v>42368.4590277778</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="C93" t="n">
-        <v>2211</v>
+        <v>927</v>
       </c>
       <c r="D93" t="n">
-        <v>7845</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="8" t="n">
-        <v>42568.4284722222</v>
+        <v>42127.3048611111</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="C94" t="n">
-        <v>522</v>
+        <v>1377</v>
       </c>
       <c r="D94" t="n">
-        <v>4236</v>
+        <v>11535</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="8" t="n">
-        <v>42295.7</v>
+        <v>41556.7083333333</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>437</v>
       </c>
       <c r="C95" t="n">
-        <v>309</v>
+        <v>19050</v>
       </c>
       <c r="D95" t="n">
-        <v>50922</v>
+        <v>515934</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="8" t="n">
-        <v>42332.5659722222</v>
+        <v>41744.5743055556</v>
       </c>
       <c r="B96" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="C96" t="n">
-        <v>5463</v>
+        <v>2883</v>
       </c>
       <c r="D96" t="n">
-        <v>29904</v>
+        <v>29502</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="8" t="n">
-        <v>41592.7868055556</v>
+        <v>42350.6375</v>
       </c>
       <c r="B97" t="s">
-        <v>480</v>
+        <v>265</v>
       </c>
       <c r="C97" t="n">
-        <v>85434</v>
+        <v>2604</v>
       </c>
       <c r="D97" t="n">
-        <v>3720903</v>
+        <v>14154</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="8" t="n">
-        <v>42541.4701388889</v>
+        <v>41611.7673611111</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C98" t="n">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>5445</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="8" t="n">
-        <v>41851.6576388889</v>
+        <v>42420.6159722222</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>53</v>
       </c>
       <c r="C99" t="n">
-        <v>3051</v>
+        <v>312</v>
       </c>
       <c r="D99" t="n">
-        <v>12342</v>
+        <v>34350</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="8" t="n">
-        <v>41933.6291666667</v>
+        <v>41850.4027777778</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="C100" t="n">
-        <v>777</v>
+        <v>4071</v>
       </c>
       <c r="D100" t="n">
-        <v>10173</v>
+        <v>34056</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="8" t="n">
-        <v>41835.6319444445</v>
+        <v>41871.4416666667</v>
       </c>
       <c r="B101" t="s">
-        <v>462</v>
+        <v>351</v>
       </c>
       <c r="C101" t="n">
-        <v>30495</v>
+        <v>5976</v>
       </c>
       <c r="D101" t="n">
-        <v>122559</v>
+        <v>15759</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="8" t="n">
-        <v>41847.4743055556</v>
+        <v>42238.5048611111</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="C102" t="n">
-        <v>8280</v>
+        <v>15171</v>
       </c>
       <c r="D102" t="n">
-        <v>21159</v>
+        <v>30153</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="8" t="n">
-        <v>41953.4819444444</v>
+        <v>41851.6513888889</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="C103" t="n">
-        <v>3966</v>
+        <v>1989</v>
       </c>
       <c r="D103" t="n">
-        <v>31152</v>
+        <v>825</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="8" t="n">
-        <v>42465.4652777778</v>
+        <v>42308.6736111111</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>367</v>
       </c>
       <c r="C104" t="n">
-        <v>1689</v>
+        <v>7473</v>
       </c>
       <c r="D104" t="n">
-        <v>12759</v>
+        <v>33459</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="8" t="n">
-        <v>41885.5409722222</v>
+        <v>42438.6583333333</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>388</v>
       </c>
       <c r="C105" t="n">
-        <v>351</v>
+        <v>9018</v>
       </c>
       <c r="D105" t="n">
-        <v>44964</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="8" t="n">
-        <v>41596.7638888889</v>
+        <v>42220.39375</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="C106" t="n">
-        <v>2622</v>
+        <v>831</v>
       </c>
       <c r="D106" t="n">
-        <v>11007</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="8" t="n">
-        <v>41948.4618055555</v>
+        <v>41674.5743055556</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>326</v>
       </c>
       <c r="C107" t="n">
-        <v>708</v>
+        <v>4719</v>
       </c>
       <c r="D107" t="n">
-        <v>8121</v>
+        <v>50451</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="8" t="n">
-        <v>41673.4618055556</v>
+        <v>41736.8694444444</v>
       </c>
       <c r="B108" t="s">
-        <v>457</v>
+        <v>301</v>
       </c>
       <c r="C108" t="n">
-        <v>25512</v>
+        <v>3702</v>
       </c>
       <c r="D108" t="n">
-        <v>139728</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="8" t="n">
-        <v>42597.43125</v>
+        <v>41581.6069444444</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="C109" t="n">
-        <v>114</v>
+        <v>2190</v>
       </c>
       <c r="D109" t="n">
-        <v>16743</v>
+        <v>17529</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="8" t="n">
-        <v>42205.4590277778</v>
+        <v>42207.7256944445</v>
       </c>
       <c r="B110" t="s">
-        <v>327</v>
+        <v>71</v>
       </c>
       <c r="C110" t="n">
-        <v>4782</v>
+        <v>396</v>
       </c>
       <c r="D110" t="n">
-        <v>8613</v>
+        <v>585</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="8" t="n">
-        <v>42290.4694444445</v>
+        <v>42068.4305555556</v>
       </c>
       <c r="B111" t="s">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="C111" t="n">
-        <v>2697</v>
+        <v>192</v>
       </c>
       <c r="D111" t="n">
-        <v>8835</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="8" t="n">
-        <v>41722.4444444445</v>
+        <v>42009.4527777778</v>
       </c>
       <c r="B112" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="C112" t="n">
-        <v>19824</v>
+        <v>4413</v>
       </c>
       <c r="D112" t="n">
-        <v>288078</v>
+        <v>99480</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="8" t="n">
-        <v>41729.44375</v>
+        <v>41531.6423611111</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="C113" t="n">
-        <v>2604</v>
+        <v>4482</v>
       </c>
       <c r="D113" t="n">
-        <v>14961</v>
+        <v>38667</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="8" t="n">
-        <v>42337.4659722222</v>
+        <v>41674.5951388889</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="C114" t="n">
-        <v>69</v>
+        <v>2685</v>
       </c>
       <c r="D114" t="n">
-        <v>6585</v>
+        <v>12693</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="8" t="n">
-        <v>41606.475</v>
+        <v>42226.4305555555</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C115" t="n">
-        <v>1203</v>
+        <v>1338</v>
       </c>
       <c r="D115" t="n">
-        <v>13641</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="8" t="n">
-        <v>41836.4097222222</v>
+        <v>41941.4895833334</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="C116" t="n">
-        <v>237</v>
+        <v>1104</v>
       </c>
       <c r="D116" t="n">
-        <v>1365</v>
+        <v>99684</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="8" t="n">
-        <v>42420.4027777778</v>
+        <v>41613.5631944445</v>
       </c>
       <c r="B117" t="s">
-        <v>147</v>
+        <v>458</v>
       </c>
       <c r="C117" t="n">
-        <v>876</v>
+        <v>26919</v>
       </c>
       <c r="D117" t="n">
-        <v>3003</v>
+        <v>149715</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="8" t="n">
-        <v>42160.0347222222</v>
+        <v>41842.3805555556</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>47</v>
       </c>
       <c r="C118" t="n">
-        <v>4923</v>
+        <v>288</v>
       </c>
       <c r="D118" t="n">
-        <v>10602</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="8" t="n">
-        <v>42259.4361111111</v>
+        <v>42578.5548611111</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="C119" t="n">
-        <v>708</v>
+        <v>267</v>
       </c>
       <c r="D119" t="n">
-        <v>2754</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="8" t="n">
-        <v>42233.6222222222</v>
+        <v>41666.4166666667</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="C120" t="n">
-        <v>675</v>
+        <v>2085</v>
       </c>
       <c r="D120" t="n">
-        <v>4164</v>
+        <v>10893</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="8" t="n">
-        <v>42596.7208333333</v>
+        <v>41668.6826388889</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="C121" t="n">
-        <v>153</v>
+        <v>3048</v>
       </c>
       <c r="D121" t="n">
-        <v>1125</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="8" t="n">
-        <v>42199.9861111111</v>
+        <v>42319.5736111111</v>
       </c>
       <c r="B122" t="s">
-        <v>97</v>
+        <v>372</v>
       </c>
       <c r="C122" t="n">
-        <v>555</v>
+        <v>7893</v>
       </c>
       <c r="D122" t="n">
-        <v>2634</v>
+        <v>24018</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="8" t="n">
-        <v>42186.6409722222</v>
+        <v>42577.4472222222</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C123" t="n">
-        <v>2544</v>
+        <v>213</v>
       </c>
       <c r="D123" t="n">
-        <v>8475</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="8" t="n">
-        <v>41850.5638888889</v>
+        <v>42568.4284722222</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C124" t="n">
-        <v>141</v>
+        <v>522</v>
       </c>
       <c r="D124" t="n">
-        <v>438</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="8" t="n">
-        <v>42309.7451388889</v>
+        <v>41834.7027777778</v>
       </c>
       <c r="B125" t="s">
-        <v>182</v>
+        <v>430</v>
       </c>
       <c r="C125" t="n">
-        <v>1218</v>
+        <v>16515</v>
       </c>
       <c r="D125" t="n">
-        <v>4092</v>
+        <v>92244</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="8" t="n">
-        <v>42318.5680555556</v>
+        <v>41746.2909722222</v>
       </c>
       <c r="B126" t="s">
-        <v>56</v>
+        <v>395</v>
       </c>
       <c r="C126" t="n">
-        <v>327</v>
+        <v>10701</v>
       </c>
       <c r="D126" t="n">
-        <v>71043</v>
+        <v>36915</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="8" t="n">
-        <v>42238.3986111111</v>
+        <v>41702.4131944445</v>
       </c>
       <c r="B127" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C127" t="n">
-        <v>51150</v>
+        <v>100155</v>
       </c>
       <c r="D127" t="n">
-        <v>147138</v>
+        <v>5073894</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="8" t="n">
-        <v>41674.4736111111</v>
+        <v>42155.5020833333</v>
       </c>
       <c r="B128" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="C128" t="n">
-        <v>12324</v>
+        <v>24180</v>
       </c>
       <c r="D128" t="n">
-        <v>52833</v>
+        <v>132069</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="8" t="n">
-        <v>41632.6513888889</v>
+        <v>41577.5576388889</v>
       </c>
       <c r="B129" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="C129" t="n">
-        <v>19761</v>
+        <v>12750</v>
       </c>
       <c r="D129" t="n">
-        <v>442464</v>
+        <v>158184</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="8" t="n">
-        <v>41862.5958333333</v>
+        <v>41680.5493055556</v>
       </c>
       <c r="B130" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="C130" t="n">
-        <v>5343</v>
+        <v>4146</v>
       </c>
       <c r="D130" t="n">
-        <v>12339</v>
+        <v>42267</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="8" t="n">
-        <v>41941.4895833334</v>
+        <v>42582.4590277778</v>
       </c>
       <c r="B131" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="C131" t="n">
-        <v>1104</v>
+        <v>216</v>
       </c>
       <c r="D131" t="n">
-        <v>99684</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="8" t="n">
-        <v>41556.7083333333</v>
+        <v>41478.7388888889</v>
       </c>
       <c r="B132" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="C132" t="n">
-        <v>14493</v>
+        <v>25002</v>
       </c>
       <c r="D132" t="n">
-        <v>201855</v>
+        <v>497781</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="8" t="n">
-        <v>42269.6826388889</v>
+        <v>41603.3034722222</v>
       </c>
       <c r="B133" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C133" t="n">
-        <v>1380</v>
+        <v>975</v>
       </c>
       <c r="D133" t="n">
-        <v>1809</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="8" t="n">
-        <v>42054.6229166667</v>
+        <v>41674.4736111111</v>
       </c>
       <c r="B134" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="C134" t="n">
-        <v>4446</v>
+        <v>12324</v>
       </c>
       <c r="D134" t="n">
-        <v>87396</v>
+        <v>52833</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="8" t="n">
-        <v>41603.4111111111</v>
+        <v>42193.6673611111</v>
       </c>
       <c r="B135" t="s">
-        <v>469</v>
+        <v>199</v>
       </c>
       <c r="C135" t="n">
-        <v>36756</v>
+        <v>1383</v>
       </c>
       <c r="D135" t="n">
-        <v>1125729</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="8" t="n">
-        <v>41556.7097222222</v>
+        <v>41599.8222222222</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="C136" t="n">
-        <v>2817</v>
+        <v>267</v>
       </c>
       <c r="D136" t="n">
-        <v>51273</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="8" t="n">
-        <v>41531.6416666667</v>
+        <v>41585.7986111111</v>
       </c>
       <c r="B137" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C137" t="n">
-        <v>36387</v>
+        <v>25389</v>
       </c>
       <c r="D137" t="n">
-        <v>382851</v>
+        <v>467016</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="8" t="n">
-        <v>41932.6513888889</v>
+        <v>42024.5736111111</v>
       </c>
       <c r="B138" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="C138" t="n">
-        <v>3771</v>
+        <v>10461</v>
       </c>
       <c r="D138" t="n">
-        <v>19797</v>
+        <v>255231</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="8" t="n">
-        <v>41737.4368055556</v>
+        <v>42584.4069444444</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="C139" t="n">
-        <v>885</v>
+        <v>132</v>
       </c>
       <c r="D139" t="n">
-        <v>2163</v>
+        <v>216</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="8" t="n">
-        <v>42451.5166666667</v>
+        <v>41837.4048611111</v>
       </c>
       <c r="B140" t="s">
-        <v>297</v>
+        <v>477</v>
       </c>
       <c r="C140" t="n">
-        <v>3588</v>
+        <v>71685</v>
       </c>
       <c r="D140" t="n">
-        <v>23109</v>
+        <v>313872</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="8" t="n">
-        <v>42493.6229166667</v>
+        <v>42218.69375</v>
       </c>
       <c r="B141" t="s">
-        <v>114</v>
+        <v>312</v>
       </c>
       <c r="C141" t="n">
-        <v>684</v>
+        <v>3972</v>
       </c>
       <c r="D141" t="n">
-        <v>4701</v>
+        <v>22899</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="8" t="n">
-        <v>41729.4416666667</v>
+        <v>42486.4590277778</v>
       </c>
       <c r="B142" t="s">
-        <v>386</v>
+        <v>23</v>
       </c>
       <c r="C142" t="n">
-        <v>8790</v>
+        <v>138</v>
       </c>
       <c r="D142" t="n">
-        <v>59985</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="8" t="n">
-        <v>42077.3944444444</v>
+        <v>42580.4319444444</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C143" t="n">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>684</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="8" t="n">
-        <v>41731.6402777778</v>
+        <v>41850.5652777778</v>
       </c>
       <c r="B144" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="C144" t="n">
-        <v>1632</v>
+        <v>369</v>
       </c>
       <c r="D144" t="n">
-        <v>8364</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="8" t="n">
-        <v>41677.6166666667</v>
+        <v>42408.6590277778</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="C145" t="n">
-        <v>15555</v>
+        <v>5232</v>
       </c>
       <c r="D145" t="n">
-        <v>72330</v>
+        <v>29502</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="8" t="n">
-        <v>42569.7381944444</v>
+        <v>42421.6666666667</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C146" t="n">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D146" t="n">
-        <v>2241</v>
+        <v>18435</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="8" t="n">
-        <v>41758.4333333333</v>
+        <v>42561.3916666667</v>
       </c>
       <c r="B147" t="s">
-        <v>375</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>8205</v>
+        <v>18</v>
       </c>
       <c r="D147" t="n">
-        <v>22563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="8" t="n">
-        <v>41772.6145833333</v>
+        <v>42315.4236111111</v>
       </c>
       <c r="B148" t="s">
-        <v>415</v>
+        <v>160</v>
       </c>
       <c r="C148" t="n">
-        <v>14127</v>
+        <v>990</v>
       </c>
       <c r="D148" t="n">
-        <v>75939</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="8" t="n">
-        <v>41567.5479166667</v>
+        <v>42090.8888888889</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="C149" t="n">
-        <v>1650</v>
+        <v>681</v>
       </c>
       <c r="D149" t="n">
-        <v>8331</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="8" t="n">
-        <v>42249.4256944444</v>
+        <v>41632.6055555556</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>442</v>
       </c>
       <c r="C150" t="n">
-        <v>1257</v>
+        <v>20616</v>
       </c>
       <c r="D150" t="n">
-        <v>3915</v>
+        <v>268002</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="8" t="n">
-        <v>41823.5625</v>
+        <v>42331.4625</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="C151" t="n">
-        <v>2586</v>
+        <v>2916</v>
       </c>
       <c r="D151" t="n">
-        <v>31803</v>
+        <v>28734</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="8" t="n">
-        <v>41723.6104166667</v>
+        <v>41609.4576388889</v>
       </c>
       <c r="B152" t="s">
-        <v>245</v>
+        <v>398</v>
       </c>
       <c r="C152" t="n">
-        <v>2250</v>
+        <v>11469</v>
       </c>
       <c r="D152" t="n">
-        <v>17721</v>
+        <v>32895</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="8" t="n">
-        <v>41556.7090277778</v>
+        <v>42420.4027777778</v>
       </c>
       <c r="B153" t="s">
-        <v>355</v>
+        <v>147</v>
       </c>
       <c r="C153" t="n">
-        <v>6426</v>
+        <v>876</v>
       </c>
       <c r="D153" t="n">
-        <v>76353</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="8" t="n">
-        <v>42501.6034722222</v>
+        <v>42556.5701388889</v>
       </c>
       <c r="B154" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="C154" t="n">
-        <v>1947</v>
+        <v>402</v>
       </c>
       <c r="D154" t="n">
-        <v>17544</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="8" t="n">
-        <v>42238.5048611111</v>
+        <v>41516.6069444444</v>
       </c>
       <c r="B155" t="s">
-        <v>421</v>
+        <v>252</v>
       </c>
       <c r="C155" t="n">
-        <v>15171</v>
+        <v>2370</v>
       </c>
       <c r="D155" t="n">
-        <v>30153</v>
+        <v>63243</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="8" t="n">
-        <v>42265.8423611111</v>
+        <v>42311.4756944445</v>
       </c>
       <c r="B156" t="s">
-        <v>424</v>
+        <v>206</v>
       </c>
       <c r="C156" t="n">
-        <v>15540</v>
+        <v>1554</v>
       </c>
       <c r="D156" t="n">
-        <v>45081</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="8" t="n">
-        <v>41717.40625</v>
+        <v>42337.4652777778</v>
       </c>
       <c r="B157" t="s">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="C157" t="n">
-        <v>4104</v>
+        <v>276</v>
       </c>
       <c r="D157" t="n">
-        <v>26007</v>
+        <v>59640</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="8" t="n">
-        <v>41632.6090277778</v>
+        <v>41674.5930555556</v>
       </c>
       <c r="B158" t="s">
-        <v>428</v>
+        <v>369</v>
       </c>
       <c r="C158" t="n">
-        <v>15828</v>
+        <v>7491</v>
       </c>
       <c r="D158" t="n">
-        <v>237585</v>
+        <v>44625</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="8" t="n">
-        <v>42247.4173611111</v>
+        <v>41756.7805555556</v>
       </c>
       <c r="B159" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="C159" t="n">
-        <v>810</v>
+        <v>7506</v>
       </c>
       <c r="D159" t="n">
-        <v>594</v>
+        <v>37392</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="8" t="n">
-        <v>42406.1583333333</v>
+        <v>42484.5222222222</v>
       </c>
       <c r="B160" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="C160" t="n">
-        <v>2601</v>
+        <v>2127</v>
       </c>
       <c r="D160" t="n">
-        <v>26724</v>
+        <v>19845</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="8" t="n">
-        <v>42554.4645833333</v>
+        <v>42596.7208333333</v>
       </c>
       <c r="B161" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="C161" t="n">
-        <v>624</v>
+        <v>153</v>
       </c>
       <c r="D161" t="n">
-        <v>3771</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="8" t="n">
-        <v>41609.4576388889</v>
+        <v>41731.6402777778</v>
       </c>
       <c r="B162" t="s">
-        <v>398</v>
+        <v>211</v>
       </c>
       <c r="C162" t="n">
-        <v>11469</v>
+        <v>1632</v>
       </c>
       <c r="D162" t="n">
-        <v>32895</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="8" t="n">
-        <v>42225.7486111111</v>
+        <v>41788.6548611111</v>
       </c>
       <c r="B163" t="s">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="C163" t="n">
-        <v>525</v>
+        <v>4902</v>
       </c>
       <c r="D163" t="n">
-        <v>6576</v>
+        <v>44457</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="8" t="n">
-        <v>42343.4069444444</v>
+        <v>42242.7479166667</v>
       </c>
       <c r="B164" t="s">
-        <v>390</v>
+        <v>172</v>
       </c>
       <c r="C164" t="n">
-        <v>9249</v>
+        <v>1125</v>
       </c>
       <c r="D164" t="n">
-        <v>97740</v>
+        <v>16662</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="8" t="n">
-        <v>42290.7361111111</v>
+        <v>42465.4652777778</v>
       </c>
       <c r="B165" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="C165" t="n">
-        <v>2700</v>
+        <v>1689</v>
       </c>
       <c r="D165" t="n">
-        <v>5445</v>
+        <v>12759</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="8" t="n">
-        <v>42578.5548611111</v>
+        <v>41718.7597222222</v>
       </c>
       <c r="B166" t="s">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="C166" t="n">
-        <v>267</v>
+        <v>18588</v>
       </c>
       <c r="D166" t="n">
-        <v>1305</v>
+        <v>136389</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="8" t="n">
-        <v>41674.5951388889</v>
+        <v>41943.6041666667</v>
       </c>
       <c r="B167" t="s">
-        <v>272</v>
+        <v>121</v>
       </c>
       <c r="C167" t="n">
-        <v>2685</v>
+        <v>735</v>
       </c>
       <c r="D167" t="n">
-        <v>12693</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="8" t="n">
-        <v>42317.4076388889</v>
+        <v>41567.5479166667</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="C168" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="D168" t="n">
-        <v>10281</v>
+        <v>8331</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="8" t="n">
-        <v>42315.4236111111</v>
+        <v>41632.6888888889</v>
       </c>
       <c r="B169" t="s">
-        <v>160</v>
+        <v>438</v>
       </c>
       <c r="C169" t="n">
-        <v>990</v>
+        <v>19110</v>
       </c>
       <c r="D169" t="n">
-        <v>5238</v>
+        <v>265473</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="8" t="n">
-        <v>42008.3826388889</v>
+        <v>41743.7479166667</v>
       </c>
       <c r="B170" t="s">
-        <v>443</v>
+        <v>174</v>
       </c>
       <c r="C170" t="n">
-        <v>20991</v>
+        <v>1143</v>
       </c>
       <c r="D170" t="n">
-        <v>83757</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -15006,3796 +15006,3796 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="8" t="n">
-        <v>41407.4548611111</v>
+        <v>41673.4618055556</v>
       </c>
       <c r="B172" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="C172" t="n">
-        <v>391962</v>
+        <v>25512</v>
       </c>
       <c r="D172" t="n">
-        <v>23875374</v>
+        <v>139728</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="8" t="n">
-        <v>42322.5638888889</v>
+        <v>41743.7979166667</v>
       </c>
       <c r="B173" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="C173" t="n">
-        <v>897</v>
+        <v>2526</v>
       </c>
       <c r="D173" t="n">
-        <v>5403</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="8" t="n">
-        <v>41675.8284722222</v>
+        <v>41949.4104166667</v>
       </c>
       <c r="B174" t="s">
-        <v>287</v>
+        <v>59</v>
       </c>
       <c r="C174" t="n">
-        <v>3084</v>
+        <v>336</v>
       </c>
       <c r="D174" t="n">
-        <v>50178</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="8" t="n">
-        <v>41574.5805555556</v>
+        <v>41842.6048611111</v>
       </c>
       <c r="B175" t="s">
-        <v>450</v>
+        <v>254</v>
       </c>
       <c r="C175" t="n">
-        <v>22755</v>
+        <v>2403</v>
       </c>
       <c r="D175" t="n">
-        <v>420087</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="8" t="n">
-        <v>41632.6138888889</v>
+        <v>42217.9611111111</v>
       </c>
       <c r="B176" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="C176" t="n">
-        <v>14166</v>
+        <v>8712</v>
       </c>
       <c r="D176" t="n">
-        <v>215010</v>
+        <v>47664</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="8" t="n">
-        <v>42240.5708333333</v>
+        <v>42478.6159722222</v>
       </c>
       <c r="B177" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C177" t="n">
-        <v>2529</v>
+        <v>2370</v>
       </c>
       <c r="D177" t="n">
-        <v>7317</v>
+        <v>36339</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="8" t="n">
-        <v>42501.6034722222</v>
+        <v>41835.3868055556</v>
       </c>
       <c r="B178" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="C178" t="n">
-        <v>312</v>
+        <v>1641</v>
       </c>
       <c r="D178" t="n">
-        <v>2598</v>
+        <v>16635</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="8" t="n">
-        <v>41870.4027777778</v>
+        <v>41729.4416666667</v>
       </c>
       <c r="B179" t="s">
-        <v>110</v>
+        <v>386</v>
       </c>
       <c r="C179" t="n">
-        <v>657</v>
+        <v>8790</v>
       </c>
       <c r="D179" t="n">
-        <v>8118</v>
+        <v>59985</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="8" t="n">
-        <v>41835.3868055556</v>
+        <v>41692.5479166667</v>
       </c>
       <c r="B180" t="s">
-        <v>213</v>
+        <v>391</v>
       </c>
       <c r="C180" t="n">
-        <v>1641</v>
+        <v>9513</v>
       </c>
       <c r="D180" t="n">
-        <v>16635</v>
+        <v>207039</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="8" t="n">
-        <v>42029.4708333333</v>
+        <v>41749.4166666667</v>
       </c>
       <c r="B181" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="C181" t="n">
-        <v>13023</v>
+        <v>5382</v>
       </c>
       <c r="D181" t="n">
-        <v>149556</v>
+        <v>68535</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="8" t="n">
-        <v>42207.5229166667</v>
+        <v>41941.5631944444</v>
       </c>
       <c r="B182" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="C182" t="n">
-        <v>1167</v>
+        <v>453</v>
       </c>
       <c r="D182" t="n">
-        <v>2820</v>
+        <v>62061</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="8" t="n">
-        <v>41743.7479166667</v>
+        <v>41941.5625</v>
       </c>
       <c r="B183" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="C183" t="n">
-        <v>1143</v>
+        <v>246</v>
       </c>
       <c r="D183" t="n">
-        <v>2667</v>
+        <v>18795</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="8" t="n">
-        <v>42571.6375</v>
+        <v>42238.3986111111</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>473</v>
       </c>
       <c r="C184" t="n">
-        <v>36</v>
+        <v>51150</v>
       </c>
       <c r="D184" t="n">
-        <v>3753</v>
+        <v>147138</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="8" t="n">
-        <v>41581.6069444444</v>
+        <v>41632.6125</v>
       </c>
       <c r="B185" t="s">
-        <v>243</v>
+        <v>439</v>
       </c>
       <c r="C185" t="n">
-        <v>2190</v>
+        <v>19191</v>
       </c>
       <c r="D185" t="n">
-        <v>17529</v>
+        <v>336756</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="8" t="n">
-        <v>41692.5479166667</v>
+        <v>41597.7722222222</v>
       </c>
       <c r="B186" t="s">
-        <v>391</v>
+        <v>486</v>
       </c>
       <c r="C186" t="n">
-        <v>9513</v>
+        <v>459144</v>
       </c>
       <c r="D186" t="n">
-        <v>207039</v>
+        <v>2000568</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="8" t="n">
-        <v>41911.4944444444</v>
+        <v>41668.4277777778</v>
       </c>
       <c r="B187" t="s">
-        <v>346</v>
+        <v>250</v>
       </c>
       <c r="C187" t="n">
-        <v>5421</v>
+        <v>2316</v>
       </c>
       <c r="D187" t="n">
-        <v>53001</v>
+        <v>19926</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="8" t="n">
-        <v>42561.4180555556</v>
+        <v>42486.5826388889</v>
       </c>
       <c r="B188" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C188" t="n">
-        <v>2016</v>
+        <v>1716</v>
       </c>
       <c r="D188" t="n">
-        <v>20637</v>
+        <v>19482</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="8" t="n">
-        <v>42217.9006944444</v>
+        <v>42303.4618055555</v>
       </c>
       <c r="B189" t="s">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="C189" t="n">
-        <v>3096</v>
+        <v>6585</v>
       </c>
       <c r="D189" t="n">
-        <v>5547</v>
+        <v>33459</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="8" t="n">
-        <v>42204.4333333333</v>
+        <v>42465.6527777778</v>
       </c>
       <c r="B190" t="s">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="C190" t="n">
-        <v>2340</v>
+        <v>5685</v>
       </c>
       <c r="D190" t="n">
-        <v>6804</v>
+        <v>49869</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="8" t="n">
-        <v>41623.6847222222</v>
+        <v>41890.4291666667</v>
       </c>
       <c r="B191" t="s">
-        <v>126</v>
+        <v>414</v>
       </c>
       <c r="C191" t="n">
-        <v>759</v>
+        <v>13953</v>
       </c>
       <c r="D191" t="n">
-        <v>2916</v>
+        <v>65004</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="8" t="n">
-        <v>41632.6145833333</v>
+        <v>42265.8423611111</v>
       </c>
       <c r="B192" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="C192" t="n">
-        <v>58215</v>
+        <v>15540</v>
       </c>
       <c r="D192" t="n">
-        <v>645114</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="8" t="n">
-        <v>41632.6125</v>
+        <v>42332.6791666667</v>
       </c>
       <c r="B193" t="s">
-        <v>409</v>
+        <v>165</v>
       </c>
       <c r="C193" t="n">
-        <v>13584</v>
+        <v>1053</v>
       </c>
       <c r="D193" t="n">
-        <v>268599</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="8" t="n">
-        <v>41940.7173611111</v>
+        <v>42029.4708333333</v>
       </c>
       <c r="B194" t="s">
-        <v>177</v>
+        <v>405</v>
       </c>
       <c r="C194" t="n">
-        <v>1173</v>
+        <v>13023</v>
       </c>
       <c r="D194" t="n">
-        <v>3543</v>
+        <v>149556</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="8" t="n">
-        <v>41599.8222222222</v>
+        <v>41533.4395833333</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="C195" t="n">
-        <v>267</v>
+        <v>15648</v>
       </c>
       <c r="D195" t="n">
-        <v>1071</v>
+        <v>312411</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="8" t="n">
-        <v>41757.525</v>
+        <v>42053.5916666667</v>
       </c>
       <c r="B196" t="s">
-        <v>353</v>
+        <v>186</v>
       </c>
       <c r="C196" t="n">
-        <v>6105</v>
+        <v>1248</v>
       </c>
       <c r="D196" t="n">
-        <v>51897</v>
+        <v>159663</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="8" t="n">
-        <v>42542.7618055556</v>
+        <v>42295.6763888889</v>
       </c>
       <c r="B197" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="C197" t="n">
-        <v>3765</v>
+        <v>1761</v>
       </c>
       <c r="D197" t="n">
-        <v>53013</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="8" t="n">
-        <v>42061.4152777778</v>
+        <v>41675.4555555556</v>
       </c>
       <c r="B198" t="s">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="C198" t="n">
-        <v>453</v>
+        <v>8838</v>
       </c>
       <c r="D198" t="n">
-        <v>2880</v>
+        <v>66540</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="8" t="n">
-        <v>42323.7756944444</v>
+        <v>42527.3923611111</v>
       </c>
       <c r="B199" t="s">
-        <v>410</v>
+        <v>50</v>
       </c>
       <c r="C199" t="n">
-        <v>13599</v>
+        <v>297</v>
       </c>
       <c r="D199" t="n">
-        <v>27204</v>
+        <v>906</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="8" t="n">
-        <v>42484.6604166667</v>
+        <v>41941.5909722222</v>
       </c>
       <c r="B200" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="C200" t="n">
-        <v>402</v>
+        <v>2667</v>
       </c>
       <c r="D200" t="n">
-        <v>3372</v>
+        <v>132558</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="8" t="n">
-        <v>42226.5458333333</v>
+        <v>42171.5368055556</v>
       </c>
       <c r="B201" t="s">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="C201" t="n">
-        <v>5304</v>
+        <v>819</v>
       </c>
       <c r="D201" t="n">
-        <v>44817</v>
+        <v>23490</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="8" t="n">
-        <v>41702.4131944445</v>
+        <v>41823.5625</v>
       </c>
       <c r="B202" t="s">
-        <v>482</v>
+        <v>32</v>
       </c>
       <c r="C202" t="n">
-        <v>100155</v>
+        <v>201</v>
       </c>
       <c r="D202" t="n">
-        <v>5073894</v>
+        <v>21168</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="8" t="n">
-        <v>42549.4527777778</v>
+        <v>41632.6076388889</v>
       </c>
       <c r="B203" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C203" t="n">
-        <v>1233</v>
+        <v>1533</v>
       </c>
       <c r="D203" t="n">
-        <v>5484</v>
+        <v>14520</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="8" t="n">
-        <v>42406.4125</v>
+        <v>41407.4548611111</v>
       </c>
       <c r="B204" t="s">
-        <v>155</v>
+        <v>485</v>
       </c>
       <c r="C204" t="n">
-        <v>939</v>
+        <v>391962</v>
       </c>
       <c r="D204" t="n">
-        <v>11322</v>
+        <v>23875374</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="8" t="n">
-        <v>41767.5729166667</v>
+        <v>42343.4069444444</v>
       </c>
       <c r="B205" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="C205" t="n">
-        <v>5796</v>
+        <v>9249</v>
       </c>
       <c r="D205" t="n">
-        <v>27876</v>
+        <v>97740</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="8" t="n">
-        <v>42204.7118055555</v>
+        <v>42315.4715277778</v>
       </c>
       <c r="B206" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
       <c r="C206" t="n">
-        <v>8421</v>
+        <v>870</v>
       </c>
       <c r="D206" t="n">
-        <v>21327</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="8" t="n">
-        <v>42515.6625</v>
+        <v>41674.5923611111</v>
       </c>
       <c r="B207" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="C207" t="n">
-        <v>3603</v>
+        <v>6171</v>
       </c>
       <c r="D207" t="n">
-        <v>8487</v>
+        <v>35724</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="8" t="n">
-        <v>41681.5333333333</v>
+        <v>42323.3965277778</v>
       </c>
       <c r="B208" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C208" t="n">
-        <v>6855</v>
+        <v>5364</v>
       </c>
       <c r="D208" t="n">
-        <v>99777</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="8" t="n">
-        <v>41516.6069444444</v>
+        <v>42477.6618055556</v>
       </c>
       <c r="B209" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="C209" t="n">
-        <v>2370</v>
+        <v>969</v>
       </c>
       <c r="D209" t="n">
-        <v>63243</v>
+        <v>19968</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="8" t="n">
-        <v>41574.5583333333</v>
+        <v>42235.4118055556</v>
       </c>
       <c r="B210" t="s">
-        <v>472</v>
+        <v>116</v>
       </c>
       <c r="C210" t="n">
-        <v>43068</v>
+        <v>693</v>
       </c>
       <c r="D210" t="n">
-        <v>317172</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="8" t="n">
-        <v>42542.5694444445</v>
+        <v>42191.6701388889</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>189</v>
       </c>
       <c r="C211" t="n">
-        <v>3264</v>
+        <v>1266</v>
       </c>
       <c r="D211" t="n">
-        <v>11340</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="8" t="n">
-        <v>42186.6479166667</v>
+        <v>42337.4659722222</v>
       </c>
       <c r="B212" t="s">
-        <v>389</v>
+        <v>12</v>
       </c>
       <c r="C212" t="n">
-        <v>9078</v>
+        <v>69</v>
       </c>
       <c r="D212" t="n">
-        <v>36645</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="8" t="n">
-        <v>41941.5909722222</v>
+        <v>42226.4694444444</v>
       </c>
       <c r="B213" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="C213" t="n">
-        <v>2667</v>
+        <v>2007</v>
       </c>
       <c r="D213" t="n">
-        <v>132558</v>
+        <v>9162</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="8" t="n">
-        <v>42084.0055555556</v>
+        <v>42266.5722222222</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="C214" t="n">
-        <v>72</v>
+        <v>1716</v>
       </c>
       <c r="D214" t="n">
-        <v>117</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="8" t="n">
-        <v>42565.6034722222</v>
+        <v>42495.4708333333</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C215" t="n">
-        <v>42</v>
+        <v>1641</v>
       </c>
       <c r="D215" t="n">
-        <v>3540</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="8" t="n">
-        <v>42417.4618055555</v>
+        <v>42336.8381944444</v>
       </c>
       <c r="B216" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="C216" t="n">
-        <v>2766</v>
+        <v>1392</v>
       </c>
       <c r="D216" t="n">
-        <v>17403</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="8" t="n">
-        <v>41885.4701388889</v>
+        <v>42186.6527777778</v>
       </c>
       <c r="B217" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="C217" t="n">
-        <v>138</v>
+        <v>2073</v>
       </c>
       <c r="D217" t="n">
-        <v>19500</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="8" t="n">
-        <v>42361.4055555556</v>
+        <v>42363.5736111111</v>
       </c>
       <c r="B218" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="C218" t="n">
-        <v>2256</v>
+        <v>4578</v>
       </c>
       <c r="D218" t="n">
-        <v>7224</v>
+        <v>23769</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="8" t="n">
-        <v>41620.4118055556</v>
+        <v>41623.6847222222</v>
       </c>
       <c r="B219" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="C219" t="n">
-        <v>1557</v>
+        <v>759</v>
       </c>
       <c r="D219" t="n">
-        <v>7158</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="8" t="n">
-        <v>42551.4201388889</v>
+        <v>41933.6291666667</v>
       </c>
       <c r="B220" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="C220" t="n">
-        <v>1221</v>
+        <v>777</v>
       </c>
       <c r="D220" t="n">
-        <v>4533</v>
+        <v>10173</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="8" t="n">
-        <v>41681.6138888889</v>
+        <v>42076.6083333333</v>
       </c>
       <c r="B221" t="s">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="C221" t="n">
-        <v>22437</v>
+        <v>459</v>
       </c>
       <c r="D221" t="n">
-        <v>523839</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="8" t="n">
-        <v>41850.4027777778</v>
+        <v>41932.6513888889</v>
       </c>
       <c r="B222" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C222" t="n">
-        <v>4071</v>
+        <v>3771</v>
       </c>
       <c r="D222" t="n">
-        <v>34056</v>
+        <v>19797</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="8" t="n">
-        <v>42543.4472222222</v>
+        <v>42205.7416666667</v>
       </c>
       <c r="B223" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="C223" t="n">
-        <v>501</v>
+        <v>1020</v>
       </c>
       <c r="D223" t="n">
-        <v>5136</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="8" t="n">
-        <v>42561.3916666667</v>
+        <v>42235.6784722222</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>371</v>
       </c>
       <c r="C224" t="n">
-        <v>18</v>
+        <v>7767</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>34530</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="8" t="n">
-        <v>42235.7493055556</v>
+        <v>42266.4416666667</v>
       </c>
       <c r="B225" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="C225" t="n">
-        <v>1584</v>
+        <v>729</v>
       </c>
       <c r="D225" t="n">
-        <v>1467</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="8" t="n">
-        <v>41921.7819444445</v>
+        <v>41666.4180555556</v>
       </c>
       <c r="B226" t="s">
-        <v>95</v>
+        <v>352</v>
       </c>
       <c r="C226" t="n">
-        <v>540</v>
+        <v>6042</v>
       </c>
       <c r="D226" t="n">
-        <v>3609</v>
+        <v>41484</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="8" t="n">
-        <v>41868.4520833333</v>
+        <v>42554.6138888889</v>
       </c>
       <c r="B227" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C227" t="n">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="D227" t="n">
-        <v>1653</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="8" t="n">
-        <v>42544.5881944444</v>
+        <v>41941.5638888889</v>
       </c>
       <c r="B228" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C228" t="n">
-        <v>570</v>
+        <v>474</v>
       </c>
       <c r="D228" t="n">
-        <v>3534</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="8" t="n">
-        <v>42300.7701388889</v>
+        <v>42178.4180555556</v>
       </c>
       <c r="B229" t="s">
-        <v>319</v>
+        <v>198</v>
       </c>
       <c r="C229" t="n">
-        <v>4323</v>
+        <v>1383</v>
       </c>
       <c r="D229" t="n">
-        <v>20391</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="8" t="n">
-        <v>41724.9090277778</v>
+        <v>42355.2736111111</v>
       </c>
       <c r="B230" t="s">
-        <v>459</v>
+        <v>339</v>
       </c>
       <c r="C230" t="n">
-        <v>26940</v>
+        <v>5286</v>
       </c>
       <c r="D230" t="n">
-        <v>604179</v>
+        <v>38775</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="8" t="n">
-        <v>42576.64375</v>
+        <v>42235.7493055556</v>
       </c>
       <c r="B231" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="C231" t="n">
-        <v>147</v>
+        <v>1584</v>
       </c>
       <c r="D231" t="n">
-        <v>672</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="8" t="n">
-        <v>41850.5652777778</v>
+        <v>41632.6090277778</v>
       </c>
       <c r="B232" t="s">
-        <v>66</v>
+        <v>428</v>
       </c>
       <c r="C232" t="n">
-        <v>369</v>
+        <v>15828</v>
       </c>
       <c r="D232" t="n">
-        <v>1530</v>
+        <v>237585</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="8" t="n">
-        <v>41757.39375</v>
+        <v>42246.5756944444</v>
       </c>
       <c r="B233" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="C233" t="n">
-        <v>2100</v>
+        <v>912</v>
       </c>
       <c r="D233" t="n">
-        <v>19485</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="8" t="n">
-        <v>41407.4569444444</v>
+        <v>41921.7819444445</v>
       </c>
       <c r="B234" t="s">
-        <v>484</v>
+        <v>95</v>
       </c>
       <c r="C234" t="n">
-        <v>118629</v>
+        <v>540</v>
       </c>
       <c r="D234" t="n">
-        <v>2590047</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="8" t="n">
-        <v>42373.8881944444</v>
+        <v>42230.9340277778</v>
       </c>
       <c r="B235" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="C235" t="n">
-        <v>2310</v>
+        <v>7149</v>
       </c>
       <c r="D235" t="n">
-        <v>14142</v>
+        <v>10998</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="8" t="n">
-        <v>42246.5756944444</v>
+        <v>42247.3798611111</v>
       </c>
       <c r="B236" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="C236" t="n">
-        <v>912</v>
+        <v>2211</v>
       </c>
       <c r="D236" t="n">
-        <v>6528</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="8" t="n">
-        <v>42435.6986111111</v>
+        <v>42366.6166666667</v>
       </c>
       <c r="B237" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="C237" t="n">
-        <v>8442</v>
+        <v>5265</v>
       </c>
       <c r="D237" t="n">
-        <v>69975</v>
+        <v>17373</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="8" t="n">
-        <v>42535.7458333333</v>
+        <v>41935.6958333333</v>
       </c>
       <c r="B238" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C238" t="n">
-        <v>471</v>
+        <v>678</v>
       </c>
       <c r="D238" t="n">
-        <v>1503</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="8" t="n">
-        <v>41611.7673611111</v>
+        <v>41940.7173611111</v>
       </c>
       <c r="B239" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="C239" t="n">
-        <v>408</v>
+        <v>1173</v>
       </c>
       <c r="D239" t="n">
-        <v>1503</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="8" t="n">
-        <v>41871.4416666667</v>
+        <v>42561.6375</v>
       </c>
       <c r="B240" t="s">
-        <v>351</v>
+        <v>115</v>
       </c>
       <c r="C240" t="n">
-        <v>5976</v>
+        <v>690</v>
       </c>
       <c r="D240" t="n">
-        <v>15759</v>
+        <v>8952</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="8" t="n">
-        <v>41935.6951388889</v>
+        <v>42290.7201388889</v>
       </c>
       <c r="B241" t="s">
-        <v>140</v>
+        <v>445</v>
       </c>
       <c r="C241" t="n">
-        <v>828</v>
+        <v>21558</v>
       </c>
       <c r="D241" t="n">
-        <v>5838</v>
+        <v>73161</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="8" t="n">
-        <v>42554.7263888889</v>
+        <v>42571.4798611111</v>
       </c>
       <c r="B242" t="s">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="C242" t="n">
-        <v>5283</v>
+        <v>99</v>
       </c>
       <c r="D242" t="n">
-        <v>28722</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="8" t="n">
-        <v>41863.6993055556</v>
+        <v>42322.5638888889</v>
       </c>
       <c r="B243" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="C243" t="n">
-        <v>2454</v>
+        <v>897</v>
       </c>
       <c r="D243" t="n">
-        <v>22764</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="8" t="n">
-        <v>41816.4013888889</v>
+        <v>41723.6104166667</v>
       </c>
       <c r="B244" t="s">
-        <v>460</v>
+        <v>245</v>
       </c>
       <c r="C244" t="n">
-        <v>28071</v>
+        <v>2250</v>
       </c>
       <c r="D244" t="n">
-        <v>464382</v>
+        <v>17721</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="8" t="n">
-        <v>42562.61875</v>
+        <v>42465.6055555556</v>
       </c>
       <c r="B245" t="s">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="C245" t="n">
-        <v>285</v>
+        <v>3438</v>
       </c>
       <c r="D245" t="n">
-        <v>2064</v>
+        <v>63216</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="8" t="n">
-        <v>41592.7993055556</v>
+        <v>42080.6756944444</v>
       </c>
       <c r="B246" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="C246" t="n">
-        <v>1044</v>
+        <v>336</v>
       </c>
       <c r="D246" t="n">
-        <v>3681</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="8" t="n">
-        <v>42486.5826388889</v>
+        <v>41711.4208333333</v>
       </c>
       <c r="B247" t="s">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="C247" t="n">
-        <v>1716</v>
+        <v>4332</v>
       </c>
       <c r="D247" t="n">
-        <v>19482</v>
+        <v>18765</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="8" t="n">
-        <v>41610.4541666667</v>
+        <v>42389.9055555556</v>
       </c>
       <c r="B248" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="C248" t="n">
-        <v>825</v>
+        <v>1509</v>
       </c>
       <c r="D248" t="n">
-        <v>5859</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="8" t="n">
-        <v>42428.6625</v>
+        <v>42259.4548611111</v>
       </c>
       <c r="B249" t="s">
-        <v>384</v>
+        <v>171</v>
       </c>
       <c r="C249" t="n">
-        <v>8712</v>
+        <v>1119</v>
       </c>
       <c r="D249" t="n">
-        <v>19290</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="8" t="n">
-        <v>41861.4729166667</v>
+        <v>42571.6375</v>
       </c>
       <c r="B250" t="s">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="C250" t="n">
-        <v>21363</v>
+        <v>36</v>
       </c>
       <c r="D250" t="n">
-        <v>73443</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="8" t="n">
-        <v>41533.4395833333</v>
+        <v>41757.525</v>
       </c>
       <c r="B251" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="C251" t="n">
-        <v>15648</v>
+        <v>6105</v>
       </c>
       <c r="D251" t="n">
-        <v>312411</v>
+        <v>51897</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="8" t="n">
-        <v>41658.5854166667</v>
+        <v>42260.4527777778</v>
       </c>
       <c r="B252" t="s">
-        <v>406</v>
+        <v>144</v>
       </c>
       <c r="C252" t="n">
-        <v>13065</v>
+        <v>855</v>
       </c>
       <c r="D252" t="n">
-        <v>788607</v>
+        <v>954</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="8" t="n">
-        <v>42443.4152777778</v>
+        <v>42543.4472222222</v>
       </c>
       <c r="B253" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C253" t="n">
-        <v>609</v>
+        <v>501</v>
       </c>
       <c r="D253" t="n">
-        <v>2325</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="8" t="n">
-        <v>42024.5736111111</v>
+        <v>41739.6152777778</v>
       </c>
       <c r="B254" t="s">
-        <v>393</v>
+        <v>69</v>
       </c>
       <c r="C254" t="n">
-        <v>10461</v>
+        <v>387</v>
       </c>
       <c r="D254" t="n">
-        <v>255231</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="8" t="n">
-        <v>42221.3909722222</v>
+        <v>41659.7631944444</v>
       </c>
       <c r="B255" t="s">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="C255" t="n">
-        <v>990</v>
+        <v>6972</v>
       </c>
       <c r="D255" t="n">
-        <v>9441</v>
+        <v>102273</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="8" t="n">
-        <v>42541.5868055555</v>
+        <v>41935.6986111111</v>
       </c>
       <c r="B256" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C256" t="n">
-        <v>747</v>
+        <v>537</v>
       </c>
       <c r="D256" t="n">
-        <v>7293</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="8" t="n">
-        <v>41841.5569444444</v>
+        <v>42551.4201388889</v>
       </c>
       <c r="B257" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C257" t="n">
-        <v>1317</v>
+        <v>1221</v>
       </c>
       <c r="D257" t="n">
-        <v>12027</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="8" t="n">
-        <v>42068.4305555556</v>
+        <v>42224.4513888889</v>
       </c>
       <c r="B258" t="s">
-        <v>30</v>
+        <v>396</v>
       </c>
       <c r="C258" t="n">
-        <v>192</v>
+        <v>10863</v>
       </c>
       <c r="D258" t="n">
-        <v>504</v>
+        <v>52443</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="8" t="n">
-        <v>42436.7305555556</v>
+        <v>42070.55625</v>
       </c>
       <c r="B259" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C259" t="n">
-        <v>810</v>
+        <v>762</v>
       </c>
       <c r="D259" t="n">
-        <v>4176</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="8" t="n">
-        <v>42495.4708333333</v>
+        <v>41772.6145833333</v>
       </c>
       <c r="B260" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
       <c r="C260" t="n">
-        <v>1641</v>
+        <v>14127</v>
       </c>
       <c r="D260" t="n">
-        <v>45462</v>
+        <v>75939</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="8" t="n">
-        <v>41743.7979166667</v>
+        <v>41556.7097222222</v>
       </c>
       <c r="B261" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="C261" t="n">
-        <v>2526</v>
+        <v>3594</v>
       </c>
       <c r="D261" t="n">
-        <v>9978</v>
+        <v>28536</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="8" t="n">
-        <v>41674.4548611111</v>
+        <v>42219.5763888889</v>
       </c>
       <c r="B262" t="s">
-        <v>302</v>
+        <v>467</v>
       </c>
       <c r="C262" t="n">
-        <v>3705</v>
+        <v>33348</v>
       </c>
       <c r="D262" t="n">
-        <v>15717</v>
+        <v>76566</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="8" t="n">
-        <v>41729.4451388889</v>
+        <v>42107.5625</v>
       </c>
       <c r="B263" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="C263" t="n">
-        <v>3549</v>
+        <v>1158</v>
       </c>
       <c r="D263" t="n">
-        <v>38304</v>
+        <v>14997</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="8" t="n">
-        <v>41943.6041666667</v>
+        <v>41758.4333333333</v>
       </c>
       <c r="B264" t="s">
-        <v>121</v>
+        <v>375</v>
       </c>
       <c r="C264" t="n">
-        <v>735</v>
+        <v>8205</v>
       </c>
       <c r="D264" t="n">
-        <v>2718</v>
+        <v>22563</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="8" t="n">
-        <v>42337.4652777778</v>
+        <v>42084.0055555556</v>
       </c>
       <c r="B265" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C265" t="n">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="D265" t="n">
-        <v>59640</v>
+        <v>117</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="8" t="n">
-        <v>42389.9055555556</v>
+        <v>41531.6409722222</v>
       </c>
       <c r="B266" t="s">
-        <v>202</v>
+        <v>476</v>
       </c>
       <c r="C266" t="n">
-        <v>1509</v>
+        <v>63981</v>
       </c>
       <c r="D266" t="n">
-        <v>6036</v>
+        <v>1032588</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="8" t="n">
-        <v>42023.6520833333</v>
+        <v>42221.4090277778</v>
       </c>
       <c r="B267" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="C267" t="n">
-        <v>120</v>
+        <v>1614</v>
       </c>
       <c r="D267" t="n">
-        <v>36</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="8" t="n">
-        <v>42331.4625</v>
+        <v>41597.7659722222</v>
       </c>
       <c r="B268" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C268" t="n">
-        <v>2916</v>
+        <v>2835</v>
       </c>
       <c r="D268" t="n">
-        <v>28734</v>
+        <v>23565</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="8" t="n">
-        <v>41585.4097222222</v>
+        <v>42245.4902777778</v>
       </c>
       <c r="B269" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="C269" t="n">
-        <v>2079</v>
+        <v>381</v>
       </c>
       <c r="D269" t="n">
-        <v>14226</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="8" t="n">
-        <v>42478.6159722222</v>
+        <v>42286.8270833333</v>
       </c>
       <c r="B270" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="C270" t="n">
-        <v>2370</v>
+        <v>4920</v>
       </c>
       <c r="D270" t="n">
-        <v>36339</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="8" t="n">
-        <v>42453.3180555556</v>
+        <v>42259.4361111111</v>
       </c>
       <c r="B271" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="C271" t="n">
-        <v>1635</v>
+        <v>708</v>
       </c>
       <c r="D271" t="n">
-        <v>7251</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="8" t="n">
-        <v>42562.7576388889</v>
+        <v>41943.3833333333</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C272" t="n">
-        <v>108</v>
+        <v>549</v>
       </c>
       <c r="D272" t="n">
-        <v>8604</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="8" t="n">
-        <v>42266.5722222222</v>
+        <v>41596.7638888889</v>
       </c>
       <c r="B273" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="C273" t="n">
-        <v>1716</v>
+        <v>2622</v>
       </c>
       <c r="D273" t="n">
-        <v>5415</v>
+        <v>11007</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="8" t="n">
-        <v>42361.5534722222</v>
+        <v>41737.4368055556</v>
       </c>
       <c r="B274" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C274" t="n">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="D274" t="n">
-        <v>10965</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="8" t="n">
-        <v>42322.8472222222</v>
+        <v>42443.4361111111</v>
       </c>
       <c r="B275" t="s">
-        <v>350</v>
+        <v>87</v>
       </c>
       <c r="C275" t="n">
-        <v>5874</v>
+        <v>513</v>
       </c>
       <c r="D275" t="n">
-        <v>20697</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="8" t="n">
-        <v>41660.5430555556</v>
+        <v>42233.3791666667</v>
       </c>
       <c r="B276" t="s">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="C276" t="n">
-        <v>2133</v>
+        <v>420</v>
       </c>
       <c r="D276" t="n">
-        <v>8016</v>
+        <v>774</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="8" t="n">
-        <v>42308.6736111111</v>
+        <v>42481.4388888889</v>
       </c>
       <c r="B277" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
       <c r="C277" t="n">
-        <v>7473</v>
+        <v>2469</v>
       </c>
       <c r="D277" t="n">
-        <v>33459</v>
+        <v>11454</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="8" t="n">
-        <v>42439.4847222222</v>
+        <v>42198.4</v>
       </c>
       <c r="B278" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C278" t="n">
-        <v>2118</v>
+        <v>2499</v>
       </c>
       <c r="D278" t="n">
-        <v>6378</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="8" t="n">
-        <v>42583.4576388889</v>
+        <v>42417.4618055555</v>
       </c>
       <c r="B279" t="s">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="C279" t="n">
-        <v>129</v>
+        <v>2766</v>
       </c>
       <c r="D279" t="n">
-        <v>1143</v>
+        <v>17403</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="8" t="n">
-        <v>42438.6583333333</v>
+        <v>41666.4277777778</v>
       </c>
       <c r="B280" t="s">
-        <v>388</v>
+        <v>201</v>
       </c>
       <c r="C280" t="n">
-        <v>9018</v>
+        <v>1458</v>
       </c>
       <c r="D280" t="n">
-        <v>44481</v>
+        <v>10392</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="8" t="n">
-        <v>41767.6604166667</v>
+        <v>41862.5958333333</v>
       </c>
       <c r="B281" t="s">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="C281" t="n">
-        <v>195</v>
+        <v>5343</v>
       </c>
       <c r="D281" t="n">
-        <v>1665</v>
+        <v>12339</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="8" t="n">
-        <v>42337.7229166667</v>
+        <v>41611.5048611111</v>
       </c>
       <c r="B282" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C282" t="n">
-        <v>876</v>
+        <v>594</v>
       </c>
       <c r="D282" t="n">
-        <v>2361</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="8" t="n">
-        <v>41739.9138888889</v>
+        <v>41658.5854166667</v>
       </c>
       <c r="B283" t="s">
-        <v>226</v>
+        <v>406</v>
       </c>
       <c r="C283" t="n">
-        <v>1851</v>
+        <v>13065</v>
       </c>
       <c r="D283" t="n">
-        <v>2979</v>
+        <v>788607</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="8" t="n">
-        <v>42296.4673611111</v>
+        <v>42031.7340277778</v>
       </c>
       <c r="B284" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="C284" t="n">
-        <v>3855</v>
+        <v>8076</v>
       </c>
       <c r="D284" t="n">
-        <v>8976</v>
+        <v>31119</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="8" t="n">
-        <v>42428.6652777778</v>
+        <v>42318.5680555556</v>
       </c>
       <c r="B285" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C285" t="n">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="D285" t="n">
-        <v>1200</v>
+        <v>71043</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="8" t="n">
-        <v>42432.6541666667</v>
+        <v>41516.6090277778</v>
       </c>
       <c r="B286" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="C286" t="n">
-        <v>14541</v>
+        <v>79074</v>
       </c>
       <c r="D286" t="n">
-        <v>301101</v>
+        <v>1583538</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="8" t="n">
-        <v>41935.6958333333</v>
+        <v>41584.5743055556</v>
       </c>
       <c r="B287" t="s">
-        <v>112</v>
+        <v>413</v>
       </c>
       <c r="C287" t="n">
-        <v>678</v>
+        <v>13911</v>
       </c>
       <c r="D287" t="n">
-        <v>3435</v>
+        <v>98808</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="8" t="n">
-        <v>41848.7479166667</v>
+        <v>42114.4069444445</v>
       </c>
       <c r="B288" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="C288" t="n">
-        <v>5184</v>
+        <v>7227</v>
       </c>
       <c r="D288" t="n">
-        <v>62943</v>
+        <v>64599</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="8" t="n">
-        <v>42583.7020833333</v>
+        <v>41911.4944444444</v>
       </c>
       <c r="B289" t="s">
-        <v>153</v>
+        <v>346</v>
       </c>
       <c r="C289" t="n">
-        <v>933</v>
+        <v>5421</v>
       </c>
       <c r="D289" t="n">
-        <v>10341</v>
+        <v>53001</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="8" t="n">
-        <v>41756.7805555556</v>
+        <v>41556.7083333333</v>
       </c>
       <c r="B290" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="C290" t="n">
-        <v>7506</v>
+        <v>14493</v>
       </c>
       <c r="D290" t="n">
-        <v>37392</v>
+        <v>201855</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="8" t="n">
-        <v>42323.3965277778</v>
+        <v>41681.6138888889</v>
       </c>
       <c r="B291" t="s">
-        <v>343</v>
+        <v>448</v>
       </c>
       <c r="C291" t="n">
-        <v>5364</v>
+        <v>22437</v>
       </c>
       <c r="D291" t="n">
-        <v>7629</v>
+        <v>523839</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="8" t="n">
-        <v>41710.7159722222</v>
+        <v>42597.43125</v>
       </c>
       <c r="B292" t="s">
-        <v>394</v>
+        <v>17</v>
       </c>
       <c r="C292" t="n">
-        <v>10470</v>
+        <v>114</v>
       </c>
       <c r="D292" t="n">
-        <v>156858</v>
+        <v>16743</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="8" t="n">
-        <v>42355.2736111111</v>
+        <v>42010.4722222222</v>
       </c>
       <c r="B293" t="s">
-        <v>339</v>
+        <v>451</v>
       </c>
       <c r="C293" t="n">
-        <v>5286</v>
+        <v>22860</v>
       </c>
       <c r="D293" t="n">
-        <v>38775</v>
+        <v>250029</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="8" t="n">
-        <v>42233.3791666667</v>
+        <v>42249.4256944444</v>
       </c>
       <c r="B294" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="C294" t="n">
-        <v>420</v>
+        <v>1257</v>
       </c>
       <c r="D294" t="n">
-        <v>774</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="8" t="n">
-        <v>41583.7590277778</v>
+        <v>42027.4798611111</v>
       </c>
       <c r="B295" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C295" t="n">
-        <v>24375</v>
+        <v>30393</v>
       </c>
       <c r="D295" t="n">
-        <v>75939</v>
+        <v>100152</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="8" t="n">
-        <v>42107.5625</v>
+        <v>42065.4298611111</v>
       </c>
       <c r="B296" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="C296" t="n">
-        <v>1158</v>
+        <v>201</v>
       </c>
       <c r="D296" t="n">
-        <v>14997</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="8" t="n">
-        <v>42364.4236111111</v>
+        <v>41584.5430555556</v>
       </c>
       <c r="B297" t="s">
-        <v>289</v>
+        <v>434</v>
       </c>
       <c r="C297" t="n">
-        <v>3189</v>
+        <v>18540</v>
       </c>
       <c r="D297" t="n">
-        <v>10461</v>
+        <v>181170</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="8" t="n">
-        <v>41765.0118055556</v>
+        <v>42405.4201388889</v>
       </c>
       <c r="B298" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
       <c r="C298" t="n">
-        <v>4827</v>
+        <v>1029</v>
       </c>
       <c r="D298" t="n">
-        <v>28917</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="8" t="n">
-        <v>42535.5666666667</v>
+        <v>42339.6923611111</v>
       </c>
       <c r="B299" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C299" t="n">
-        <v>777</v>
+        <v>939</v>
       </c>
       <c r="D299" t="n">
-        <v>2895</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="8" t="n">
-        <v>42351.4381944444</v>
+        <v>41842.6034722222</v>
       </c>
       <c r="B300" t="s">
-        <v>422</v>
+        <v>130</v>
       </c>
       <c r="C300" t="n">
-        <v>15246</v>
+        <v>789</v>
       </c>
       <c r="D300" t="n">
-        <v>55863</v>
+        <v>306</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="8" t="n">
-        <v>42065.4298611111</v>
+        <v>42540.6965277778</v>
       </c>
       <c r="B301" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C301" t="n">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D301" t="n">
-        <v>1251</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="8" t="n">
-        <v>42545.9166666667</v>
+        <v>42203.5604166667</v>
       </c>
       <c r="B302" t="s">
-        <v>7</v>
+        <v>436</v>
       </c>
       <c r="C302" t="n">
-        <v>39</v>
+        <v>18669</v>
       </c>
       <c r="D302" t="n">
-        <v>8499</v>
+        <v>165741</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="8" t="n">
-        <v>41632.6895833333</v>
+        <v>41679.7493055556</v>
       </c>
       <c r="B303" t="s">
-        <v>423</v>
+        <v>99</v>
       </c>
       <c r="C303" t="n">
-        <v>15402</v>
+        <v>561</v>
       </c>
       <c r="D303" t="n">
-        <v>170535</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="8" t="n">
-        <v>42080.6756944444</v>
+        <v>42387.6083333333</v>
       </c>
       <c r="B304" t="s">
-        <v>60</v>
+        <v>358</v>
       </c>
       <c r="C304" t="n">
-        <v>336</v>
+        <v>6819</v>
       </c>
       <c r="D304" t="n">
-        <v>1170</v>
+        <v>33006</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="8" t="n">
-        <v>42584.4069444444</v>
+        <v>42361.4055555556</v>
       </c>
       <c r="B305" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="C305" t="n">
-        <v>132</v>
+        <v>2256</v>
       </c>
       <c r="D305" t="n">
-        <v>216</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="8" t="n">
-        <v>41715.43125</v>
+        <v>42288.3854166667</v>
       </c>
       <c r="B306" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="C306" t="n">
-        <v>5358</v>
+        <v>11904</v>
       </c>
       <c r="D306" t="n">
-        <v>67992</v>
+        <v>52650</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="8" t="n">
-        <v>42380.41875</v>
+        <v>42568.4805555556</v>
       </c>
       <c r="B307" t="s">
-        <v>290</v>
+        <v>109</v>
       </c>
       <c r="C307" t="n">
-        <v>3204</v>
+        <v>630</v>
       </c>
       <c r="D307" t="n">
-        <v>9372</v>
+        <v>9618</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="8" t="n">
-        <v>42526.4423611111</v>
+        <v>41836.4097222222</v>
       </c>
       <c r="B308" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C308" t="n">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="D308" t="n">
-        <v>1827</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="8" t="n">
-        <v>41623.7277777778</v>
+        <v>42033.6958333333</v>
       </c>
       <c r="B309" t="s">
-        <v>411</v>
+        <v>223</v>
       </c>
       <c r="C309" t="n">
-        <v>13650</v>
+        <v>1776</v>
       </c>
       <c r="D309" t="n">
-        <v>344760</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="8" t="n">
-        <v>42562.4708333333</v>
+        <v>42537.5638888889</v>
       </c>
       <c r="B310" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C310" t="n">
-        <v>213</v>
+        <v>558</v>
       </c>
       <c r="D310" t="n">
-        <v>720</v>
+        <v>11958</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="8" t="n">
-        <v>42286.98125</v>
+        <v>41632.6152777778</v>
       </c>
       <c r="B311" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="C311" t="n">
-        <v>1767</v>
+        <v>31437</v>
       </c>
       <c r="D311" t="n">
-        <v>6636</v>
+        <v>238575</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="8" t="n">
-        <v>42336.8381944444</v>
+        <v>42535.5666666667</v>
       </c>
       <c r="B312" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="C312" t="n">
-        <v>1392</v>
+        <v>777</v>
       </c>
       <c r="D312" t="n">
-        <v>5811</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="8" t="n">
-        <v>41556.7076388889</v>
+        <v>42211.4847222222</v>
       </c>
       <c r="B313" t="s">
-        <v>431</v>
+        <v>187</v>
       </c>
       <c r="C313" t="n">
-        <v>16869</v>
+        <v>1248</v>
       </c>
       <c r="D313" t="n">
-        <v>296940</v>
+        <v>10551</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="8" t="n">
-        <v>41618.6444444444</v>
+        <v>42269.6826388889</v>
       </c>
       <c r="B314" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C314" t="n">
-        <v>1140</v>
+        <v>1380</v>
       </c>
       <c r="D314" t="n">
-        <v>6705</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="8" t="n">
-        <v>42211.4583333334</v>
+        <v>42562.7576388889</v>
       </c>
       <c r="B315" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="C315" t="n">
-        <v>1356</v>
+        <v>108</v>
       </c>
       <c r="D315" t="n">
-        <v>9558</v>
+        <v>8604</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="8" t="n">
-        <v>42219.5763888889</v>
+        <v>41592.7993055556</v>
       </c>
       <c r="B316" t="s">
-        <v>467</v>
+        <v>164</v>
       </c>
       <c r="C316" t="n">
-        <v>33348</v>
+        <v>1044</v>
       </c>
       <c r="D316" t="n">
-        <v>76566</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="8" t="n">
-        <v>41788.6548611111</v>
+        <v>41632.6138888889</v>
       </c>
       <c r="B317" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C317" t="n">
-        <v>4902</v>
+        <v>14166</v>
       </c>
       <c r="D317" t="n">
-        <v>44457</v>
+        <v>215010</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="8" t="n">
-        <v>41745.4194444444</v>
+        <v>41583.7590277778</v>
       </c>
       <c r="B318" t="s">
-        <v>306</v>
+        <v>453</v>
       </c>
       <c r="C318" t="n">
-        <v>3798</v>
+        <v>24375</v>
       </c>
       <c r="D318" t="n">
-        <v>55311</v>
+        <v>75939</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="8" t="n">
-        <v>41666.4166666667</v>
+        <v>41531.6416666667</v>
       </c>
       <c r="B319" t="s">
-        <v>238</v>
+        <v>468</v>
       </c>
       <c r="C319" t="n">
-        <v>2085</v>
+        <v>36387</v>
       </c>
       <c r="D319" t="n">
-        <v>10893</v>
+        <v>382851</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="8" t="n">
-        <v>41729.6840277778</v>
+        <v>42217.9006944444</v>
       </c>
       <c r="B320" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="C320" t="n">
-        <v>1248</v>
+        <v>3096</v>
       </c>
       <c r="D320" t="n">
-        <v>771</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="8" t="n">
-        <v>42319.5736111111</v>
+        <v>42492.4743055556</v>
       </c>
       <c r="B321" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="C321" t="n">
-        <v>7893</v>
+        <v>2253</v>
       </c>
       <c r="D321" t="n">
-        <v>24018</v>
+        <v>13818</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="8" t="n">
-        <v>41611.5048611111</v>
+        <v>41744.6006944445</v>
       </c>
       <c r="B322" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="C322" t="n">
-        <v>594</v>
+        <v>1185</v>
       </c>
       <c r="D322" t="n">
-        <v>3015</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="8" t="n">
-        <v>42527.3923611111</v>
+        <v>41823.5625</v>
       </c>
       <c r="B323" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="C323" t="n">
-        <v>297</v>
+        <v>2586</v>
       </c>
       <c r="D323" t="n">
-        <v>906</v>
+        <v>31803</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="8" t="n">
-        <v>41668.4277777778</v>
+        <v>42561.5805555556</v>
       </c>
       <c r="B324" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="C324" t="n">
-        <v>2316</v>
+        <v>57</v>
       </c>
       <c r="D324" t="n">
-        <v>19926</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="8" t="n">
-        <v>41660.6284722222</v>
+        <v>42296.4673611111</v>
       </c>
       <c r="B325" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C325" t="n">
-        <v>5154</v>
+        <v>3855</v>
       </c>
       <c r="D325" t="n">
-        <v>15486</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="8" t="n">
-        <v>42319.6944444445</v>
+        <v>42008.3826388889</v>
       </c>
       <c r="B326" t="s">
-        <v>271</v>
+        <v>443</v>
       </c>
       <c r="C326" t="n">
-        <v>2670</v>
+        <v>20991</v>
       </c>
       <c r="D326" t="n">
-        <v>9753</v>
+        <v>83757</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="8" t="n">
-        <v>42577.4472222222</v>
+        <v>41592.7868055556</v>
       </c>
       <c r="B327" t="s">
-        <v>37</v>
+        <v>480</v>
       </c>
       <c r="C327" t="n">
-        <v>213</v>
+        <v>85434</v>
       </c>
       <c r="D327" t="n">
-        <v>2964</v>
+        <v>3720903</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="8" t="n">
-        <v>42238.8472222222</v>
+        <v>42252.4215277778</v>
       </c>
       <c r="B328" t="s">
-        <v>293</v>
+        <v>427</v>
       </c>
       <c r="C328" t="n">
-        <v>3438</v>
+        <v>15801</v>
       </c>
       <c r="D328" t="n">
-        <v>6516</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="8" t="n">
-        <v>41582.6513888889</v>
+        <v>42562.4222222222</v>
       </c>
       <c r="B329" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="C329" t="n">
-        <v>1824</v>
+        <v>390</v>
       </c>
       <c r="D329" t="n">
-        <v>10383</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="8" t="n">
-        <v>42224.3534722222</v>
+        <v>42337.7229166667</v>
       </c>
       <c r="B330" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C330" t="n">
-        <v>1266</v>
+        <v>876</v>
       </c>
       <c r="D330" t="n">
-        <v>3201</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="8" t="n">
-        <v>41637.7541666667</v>
+        <v>41673.4048611111</v>
       </c>
       <c r="B331" t="s">
-        <v>292</v>
+        <v>408</v>
       </c>
       <c r="C331" t="n">
-        <v>3438</v>
+        <v>13398</v>
       </c>
       <c r="D331" t="n">
-        <v>21921</v>
+        <v>70137</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="8" t="n">
-        <v>42211.4604166667</v>
+        <v>41407.4625</v>
       </c>
       <c r="B332" t="s">
-        <v>275</v>
+        <v>478</v>
       </c>
       <c r="C332" t="n">
-        <v>2754</v>
+        <v>78792</v>
       </c>
       <c r="D332" t="n">
-        <v>20124</v>
+        <v>4229313</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="8" t="n">
-        <v>41842.3805555556</v>
+        <v>42211.4604166667</v>
       </c>
       <c r="B333" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="C333" t="n">
-        <v>288</v>
+        <v>2754</v>
       </c>
       <c r="D333" t="n">
-        <v>1506</v>
+        <v>20124</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="8" t="n">
-        <v>42540.6965277778</v>
+        <v>41623.7277777778</v>
       </c>
       <c r="B334" t="s">
-        <v>29</v>
+        <v>411</v>
       </c>
       <c r="C334" t="n">
-        <v>180</v>
+        <v>13650</v>
       </c>
       <c r="D334" t="n">
-        <v>1002</v>
+        <v>344760</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="8" t="n">
-        <v>42218.69375</v>
+        <v>41837.7375</v>
       </c>
       <c r="B335" t="s">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="C335" t="n">
-        <v>3972</v>
+        <v>106950</v>
       </c>
       <c r="D335" t="n">
-        <v>22899</v>
+        <v>810180</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="8" t="n">
-        <v>42220.39375</v>
+        <v>41556.7090277778</v>
       </c>
       <c r="B336" t="s">
-        <v>141</v>
+        <v>355</v>
       </c>
       <c r="C336" t="n">
-        <v>831</v>
+        <v>6426</v>
       </c>
       <c r="D336" t="n">
-        <v>5805</v>
+        <v>76353</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="8" t="n">
-        <v>42205.7416666667</v>
+        <v>41861.4729166667</v>
       </c>
       <c r="B337" t="s">
-        <v>162</v>
+        <v>444</v>
       </c>
       <c r="C337" t="n">
-        <v>1020</v>
+        <v>21363</v>
       </c>
       <c r="D337" t="n">
-        <v>1431</v>
+        <v>73443</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="8" t="n">
-        <v>42032.6895833333</v>
+        <v>42449.6458333333</v>
       </c>
       <c r="B338" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="C338" t="n">
-        <v>2466</v>
+        <v>513</v>
       </c>
       <c r="D338" t="n">
-        <v>36177</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="8" t="n">
-        <v>42329.9541666667</v>
+        <v>42325.6638888889</v>
       </c>
       <c r="B339" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="C339" t="n">
-        <v>4218</v>
+        <v>10896</v>
       </c>
       <c r="D339" t="n">
-        <v>20301</v>
+        <v>18759</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="8" t="n">
-        <v>41842.4784722222</v>
+        <v>42253.4055555556</v>
       </c>
       <c r="B340" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="C340" t="n">
-        <v>372</v>
+        <v>1527</v>
       </c>
       <c r="D340" t="n">
-        <v>1455</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="8" t="n">
-        <v>41744.6006944445</v>
+        <v>41870.4027777778</v>
       </c>
       <c r="B341" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="C341" t="n">
-        <v>1185</v>
+        <v>657</v>
       </c>
       <c r="D341" t="n">
-        <v>7620</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="8" t="n">
-        <v>41660.5</v>
+        <v>41700.7305555556</v>
       </c>
       <c r="B342" t="s">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="C342" t="n">
-        <v>5109</v>
+        <v>609</v>
       </c>
       <c r="D342" t="n">
-        <v>38595</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="8" t="n">
-        <v>41666.4180555556</v>
+        <v>42484.6604166667</v>
       </c>
       <c r="B343" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="C343" t="n">
-        <v>6042</v>
+        <v>402</v>
       </c>
       <c r="D343" t="n">
-        <v>41484</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="8" t="n">
-        <v>42561.6375</v>
+        <v>41574.5805555556</v>
       </c>
       <c r="B344" t="s">
-        <v>115</v>
+        <v>450</v>
       </c>
       <c r="C344" t="n">
-        <v>690</v>
+        <v>22755</v>
       </c>
       <c r="D344" t="n">
-        <v>8952</v>
+        <v>420087</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="8" t="n">
-        <v>42253.4055555556</v>
+        <v>41712.5777777778</v>
       </c>
       <c r="B345" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="C345" t="n">
-        <v>1527</v>
+        <v>744</v>
       </c>
       <c r="D345" t="n">
-        <v>2274</v>
+        <v>9708</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="8" t="n">
-        <v>41666.4277777778</v>
+        <v>41632.6895833333</v>
       </c>
       <c r="B346" t="s">
-        <v>201</v>
+        <v>454</v>
       </c>
       <c r="C346" t="n">
-        <v>1458</v>
+        <v>24645</v>
       </c>
       <c r="D346" t="n">
-        <v>10392</v>
+        <v>297213</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="8" t="n">
-        <v>41531.6423611111</v>
+        <v>42233.6222222222</v>
       </c>
       <c r="B347" t="s">
-        <v>324</v>
+        <v>111</v>
       </c>
       <c r="C347" t="n">
-        <v>4482</v>
+        <v>675</v>
       </c>
       <c r="D347" t="n">
-        <v>38667</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="8" t="n">
-        <v>42555.7444444444</v>
+        <v>42406.1583333333</v>
       </c>
       <c r="B348" t="s">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="C348" t="n">
-        <v>606</v>
+        <v>2601</v>
       </c>
       <c r="D348" t="n">
-        <v>5559</v>
+        <v>26724</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="8" t="n">
-        <v>41584.5430555556</v>
+        <v>41531.6416666667</v>
       </c>
       <c r="B349" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="C349" t="n">
-        <v>18540</v>
+        <v>39177</v>
       </c>
       <c r="D349" t="n">
-        <v>181170</v>
+        <v>364323</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="8" t="n">
-        <v>42024.5736111111</v>
+        <v>42054.6229166667</v>
       </c>
       <c r="B350" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="C350" t="n">
-        <v>2856</v>
+        <v>4446</v>
       </c>
       <c r="D350" t="n">
-        <v>15390</v>
+        <v>87396</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="8" t="n">
-        <v>41632.6895833333</v>
+        <v>42329.5729166667</v>
       </c>
       <c r="B351" t="s">
-        <v>454</v>
+        <v>362</v>
       </c>
       <c r="C351" t="n">
-        <v>24645</v>
+        <v>7116</v>
       </c>
       <c r="D351" t="n">
-        <v>297213</v>
+        <v>12798</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="8" t="n">
-        <v>42420.6159722222</v>
+        <v>42323.7756944444</v>
       </c>
       <c r="B352" t="s">
-        <v>53</v>
+        <v>410</v>
       </c>
       <c r="C352" t="n">
-        <v>312</v>
+        <v>13599</v>
       </c>
       <c r="D352" t="n">
-        <v>34350</v>
+        <v>27204</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="8" t="n">
-        <v>42571.4798611111</v>
+        <v>42248.6076388889</v>
       </c>
       <c r="B353" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="C353" t="n">
-        <v>99</v>
+        <v>2055</v>
       </c>
       <c r="D353" t="n">
-        <v>3873</v>
+        <v>9342</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="8" t="n">
-        <v>42070.55625</v>
+        <v>42319.6944444445</v>
       </c>
       <c r="B354" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="C354" t="n">
-        <v>762</v>
+        <v>2670</v>
       </c>
       <c r="D354" t="n">
-        <v>5787</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="8" t="n">
-        <v>41823.5625</v>
+        <v>42093.4770833333</v>
       </c>
       <c r="B355" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C355" t="n">
-        <v>201</v>
+        <v>564</v>
       </c>
       <c r="D355" t="n">
-        <v>21168</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="8" t="n">
-        <v>42492.4743055556</v>
+        <v>42221.4222222222</v>
       </c>
       <c r="B356" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="C356" t="n">
-        <v>2253</v>
+        <v>1110</v>
       </c>
       <c r="D356" t="n">
-        <v>13818</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="8" t="n">
-        <v>42053.5916666667</v>
+        <v>41479.5965277778</v>
       </c>
       <c r="B357" t="s">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="C357" t="n">
-        <v>1248</v>
+        <v>7416</v>
       </c>
       <c r="D357" t="n">
-        <v>159663</v>
+        <v>136959</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="8" t="n">
-        <v>42027.4798611111</v>
+        <v>41681.5333333333</v>
       </c>
       <c r="B358" t="s">
-        <v>461</v>
+        <v>359</v>
       </c>
       <c r="C358" t="n">
-        <v>30393</v>
+        <v>6855</v>
       </c>
       <c r="D358" t="n">
-        <v>100152</v>
+        <v>99777</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="8" t="n">
-        <v>41890.4291666667</v>
+        <v>42290.4694444445</v>
       </c>
       <c r="B359" t="s">
-        <v>414</v>
+        <v>273</v>
       </c>
       <c r="C359" t="n">
-        <v>13953</v>
+        <v>2697</v>
       </c>
       <c r="D359" t="n">
-        <v>65004</v>
+        <v>8835</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="8" t="n">
-        <v>41585.7986111111</v>
+        <v>42186.6368055556</v>
       </c>
       <c r="B360" t="s">
-        <v>456</v>
+        <v>248</v>
       </c>
       <c r="C360" t="n">
-        <v>25389</v>
+        <v>2295</v>
       </c>
       <c r="D360" t="n">
-        <v>467016</v>
+        <v>11496</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="8" t="n">
-        <v>42214.6368055556</v>
+        <v>41722.4444444445</v>
       </c>
       <c r="B361" t="s">
-        <v>168</v>
+        <v>441</v>
       </c>
       <c r="C361" t="n">
-        <v>1095</v>
+        <v>19824</v>
       </c>
       <c r="D361" t="n">
-        <v>2166</v>
+        <v>288078</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="8" t="n">
-        <v>41834.7027777778</v>
+        <v>42449.7138888889</v>
       </c>
       <c r="B362" t="s">
-        <v>430</v>
+        <v>142</v>
       </c>
       <c r="C362" t="n">
-        <v>16515</v>
+        <v>837</v>
       </c>
       <c r="D362" t="n">
-        <v>92244</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="8" t="n">
-        <v>42368.4590277778</v>
+        <v>42205.4590277778</v>
       </c>
       <c r="B363" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="C363" t="n">
-        <v>927</v>
+        <v>4782</v>
       </c>
       <c r="D363" t="n">
-        <v>4371</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="8" t="n">
-        <v>41407.4569444444</v>
+        <v>41407.4576388889</v>
       </c>
       <c r="B364" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C364" t="n">
-        <v>51879</v>
+        <v>93153</v>
       </c>
       <c r="D364" t="n">
-        <v>1189731</v>
+        <v>2109564</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="8" t="n">
-        <v>42366.7715277778</v>
+        <v>41710.7159722222</v>
       </c>
       <c r="B365" t="s">
-        <v>158</v>
+        <v>394</v>
       </c>
       <c r="C365" t="n">
-        <v>984</v>
+        <v>10470</v>
       </c>
       <c r="D365" t="n">
-        <v>5451</v>
+        <v>156858</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="8" t="n">
-        <v>41531.6416666667</v>
+        <v>42563.5770833333</v>
       </c>
       <c r="B366" t="s">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="C366" t="n">
-        <v>39177</v>
+        <v>405</v>
       </c>
       <c r="D366" t="n">
-        <v>364323</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="8" t="n">
-        <v>42580.4319444444</v>
+        <v>41738.5833333333</v>
       </c>
       <c r="B367" t="s">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="C367" t="n">
-        <v>15</v>
+        <v>7335</v>
       </c>
       <c r="D367" t="n">
-        <v>531</v>
+        <v>54891</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="8" t="n">
-        <v>41652.625</v>
+        <v>41729.4451388889</v>
       </c>
       <c r="B368" t="s">
-        <v>464</v>
+        <v>296</v>
       </c>
       <c r="C368" t="n">
-        <v>31476</v>
+        <v>3549</v>
       </c>
       <c r="D368" t="n">
-        <v>978141</v>
+        <v>38304</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="8" t="n">
-        <v>41736.8694444444</v>
+        <v>41658.55</v>
       </c>
       <c r="B369" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="C369" t="n">
-        <v>3702</v>
+        <v>6504</v>
       </c>
       <c r="D369" t="n">
-        <v>17517</v>
+        <v>20958</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="8" t="n">
-        <v>41477.59375</v>
+        <v>41851.6576388889</v>
       </c>
       <c r="B370" t="s">
-        <v>449</v>
+        <v>286</v>
       </c>
       <c r="C370" t="n">
-        <v>22596</v>
+        <v>3051</v>
       </c>
       <c r="D370" t="n">
-        <v>322269</v>
+        <v>12342</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="8" t="n">
-        <v>42127.3048611111</v>
+        <v>42495.9388888889</v>
       </c>
       <c r="B371" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C371" t="n">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="D371" t="n">
-        <v>11535</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="8" t="n">
-        <v>41674.5923611111</v>
+        <v>41407.4569444444</v>
       </c>
       <c r="B372" t="s">
-        <v>354</v>
+        <v>484</v>
       </c>
       <c r="C372" t="n">
-        <v>6171</v>
+        <v>118629</v>
       </c>
       <c r="D372" t="n">
-        <v>35724</v>
+        <v>2590047</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="8" t="n">
-        <v>42226.4694444444</v>
+        <v>42439.4847222222</v>
       </c>
       <c r="B373" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C373" t="n">
-        <v>2007</v>
+        <v>2118</v>
       </c>
       <c r="D373" t="n">
-        <v>9162</v>
+        <v>6378</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="8" t="n">
-        <v>42230.9340277778</v>
+        <v>41632.6180555556</v>
       </c>
       <c r="B374" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="C374" t="n">
-        <v>7149</v>
+        <v>3531</v>
       </c>
       <c r="D374" t="n">
-        <v>10998</v>
+        <v>29892</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="8" t="n">
-        <v>41556.7090277778</v>
+        <v>41585.4097222222</v>
       </c>
       <c r="B375" t="s">
-        <v>374</v>
+        <v>237</v>
       </c>
       <c r="C375" t="n">
-        <v>8163</v>
+        <v>2079</v>
       </c>
       <c r="D375" t="n">
-        <v>96183</v>
+        <v>14226</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="8" t="n">
-        <v>42168.7458333333</v>
+        <v>41868.4520833333</v>
       </c>
       <c r="B376" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="C376" t="n">
-        <v>1707</v>
+        <v>318</v>
       </c>
       <c r="D376" t="n">
-        <v>8235</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="8" t="n">
-        <v>41837.4048611111</v>
+        <v>42346.6138888889</v>
       </c>
       <c r="B377" t="s">
-        <v>477</v>
+        <v>228</v>
       </c>
       <c r="C377" t="n">
-        <v>71685</v>
+        <v>1932</v>
       </c>
       <c r="D377" t="n">
-        <v>313872</v>
+        <v>13947</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="8" t="n">
-        <v>42339.6729166667</v>
+        <v>42199.9861111111</v>
       </c>
       <c r="B378" t="s">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="C378" t="n">
-        <v>3723</v>
+        <v>555</v>
       </c>
       <c r="D378" t="n">
-        <v>19632</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="8" t="n">
-        <v>41603.3034722222</v>
+        <v>42240.5708333333</v>
       </c>
       <c r="B379" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="C379" t="n">
-        <v>975</v>
+        <v>2529</v>
       </c>
       <c r="D379" t="n">
-        <v>3783</v>
+        <v>7317</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="8" t="n">
-        <v>42311.6923611111</v>
+        <v>41591.7118055556</v>
       </c>
       <c r="B380" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="C380" t="n">
-        <v>1833</v>
+        <v>828</v>
       </c>
       <c r="D380" t="n">
-        <v>3618</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="8" t="n">
-        <v>42186.6527777778</v>
+        <v>42066.5701388889</v>
       </c>
       <c r="B381" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="C381" t="n">
-        <v>2073</v>
+        <v>537</v>
       </c>
       <c r="D381" t="n">
-        <v>11331</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="8" t="n">
-        <v>42066.5701388889</v>
+        <v>41829.74375</v>
       </c>
       <c r="B382" t="s">
-        <v>94</v>
+        <v>322</v>
       </c>
       <c r="C382" t="n">
-        <v>537</v>
+        <v>4425</v>
       </c>
       <c r="D382" t="n">
-        <v>2526</v>
+        <v>26862</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="8" t="n">
-        <v>41842.6048611111</v>
+        <v>41739.9138888889</v>
       </c>
       <c r="B383" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C383" t="n">
-        <v>2403</v>
+        <v>1851</v>
       </c>
       <c r="D383" t="n">
-        <v>7422</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="8" t="n">
-        <v>41516.6090277778</v>
+        <v>41757.4506944444</v>
       </c>
       <c r="B384" t="s">
-        <v>479</v>
+        <v>267</v>
       </c>
       <c r="C384" t="n">
-        <v>79074</v>
+        <v>2616</v>
       </c>
       <c r="D384" t="n">
-        <v>1583538</v>
+        <v>31557</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="8" t="n">
-        <v>42245.4902777778</v>
+        <v>42316.3881944444</v>
       </c>
       <c r="B385" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C385" t="n">
-        <v>381</v>
+        <v>807</v>
       </c>
       <c r="D385" t="n">
-        <v>2025</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="8" t="n">
-        <v>42286.7173611111</v>
+        <v>42619.4243055556</v>
       </c>
       <c r="B386" t="s">
-        <v>382</v>
+        <v>39</v>
       </c>
       <c r="C386" t="n">
-        <v>8649</v>
+        <v>216</v>
       </c>
       <c r="D386" t="n">
-        <v>35454</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="8" t="n">
-        <v>42582.4590277778</v>
+        <v>42576.64375</v>
       </c>
       <c r="B387" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C387" t="n">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="D387" t="n">
-        <v>2340</v>
+        <v>672</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="8" t="n">
-        <v>42226.4305555555</v>
+        <v>42317.4076388889</v>
       </c>
       <c r="B388" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="C388" t="n">
-        <v>1338</v>
+        <v>3000</v>
       </c>
       <c r="D388" t="n">
-        <v>4527</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="8" t="n">
-        <v>42227.5291666667</v>
+        <v>41835.6319444445</v>
       </c>
       <c r="B389" t="s">
-        <v>117</v>
+        <v>462</v>
       </c>
       <c r="C389" t="n">
-        <v>702</v>
+        <v>30495</v>
       </c>
       <c r="D389" t="n">
-        <v>2685</v>
+        <v>122559</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="8" t="n">
-        <v>42577.6770833333</v>
+        <v>41709.58125</v>
       </c>
       <c r="B390" t="s">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="C390" t="n">
-        <v>150</v>
+        <v>3882</v>
       </c>
       <c r="D390" t="n">
-        <v>2250</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="8" t="n">
-        <v>42224.4513888889</v>
+        <v>42428.6625</v>
       </c>
       <c r="B391" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C391" t="n">
-        <v>10863</v>
+        <v>8712</v>
       </c>
       <c r="D391" t="n">
-        <v>52443</v>
+        <v>19290</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="8" t="n">
-        <v>42259.4388888889</v>
+        <v>42351.4381944444</v>
       </c>
       <c r="B392" t="s">
-        <v>233</v>
+        <v>422</v>
       </c>
       <c r="C392" t="n">
-        <v>2037</v>
+        <v>15246</v>
       </c>
       <c r="D392" t="n">
-        <v>4158</v>
+        <v>55863</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="8" t="n">
-        <v>42207.7256944445</v>
+        <v>42216.89375</v>
       </c>
       <c r="B393" t="s">
-        <v>71</v>
+        <v>412</v>
       </c>
       <c r="C393" t="n">
-        <v>396</v>
+        <v>13878</v>
       </c>
       <c r="D393" t="n">
-        <v>585</v>
+        <v>55344</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="8" t="n">
-        <v>42563.5770833333</v>
+        <v>42225.7486111111</v>
       </c>
       <c r="B394" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C394" t="n">
-        <v>405</v>
+        <v>525</v>
       </c>
       <c r="D394" t="n">
-        <v>1440</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="8" t="n">
-        <v>42211.4847222222</v>
+        <v>42561.4180555556</v>
       </c>
       <c r="B395" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="C395" t="n">
-        <v>1248</v>
+        <v>2016</v>
       </c>
       <c r="D395" t="n">
-        <v>10551</v>
+        <v>20637</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="8" t="n">
-        <v>41744.5743055556</v>
+        <v>42555.5527777778</v>
       </c>
       <c r="B396" t="s">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="C396" t="n">
-        <v>2883</v>
+        <v>471</v>
       </c>
       <c r="D396" t="n">
-        <v>29502</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="8" t="n">
-        <v>42556.6291666667</v>
+        <v>42359.4305555555</v>
       </c>
       <c r="B397" t="s">
-        <v>58</v>
+        <v>332</v>
       </c>
       <c r="C397" t="n">
-        <v>330</v>
+        <v>5067</v>
       </c>
       <c r="D397" t="n">
-        <v>3213</v>
+        <v>123483</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="8" t="n">
-        <v>42245.6888888889</v>
+        <v>42214.6368055556</v>
       </c>
       <c r="B398" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="C398" t="n">
-        <v>744</v>
+        <v>1095</v>
       </c>
       <c r="D398" t="n">
-        <v>3003</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="8" t="n">
-        <v>42076.6083333333</v>
+        <v>41724.9090277778</v>
       </c>
       <c r="B399" t="s">
-        <v>81</v>
+        <v>459</v>
       </c>
       <c r="C399" t="n">
-        <v>459</v>
+        <v>26940</v>
       </c>
       <c r="D399" t="n">
-        <v>1644</v>
+        <v>604179</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="8" t="n">
-        <v>42421.6666666667</v>
+        <v>42515.6625</v>
       </c>
       <c r="B400" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="C400" t="n">
-        <v>114</v>
+        <v>3603</v>
       </c>
       <c r="D400" t="n">
-        <v>18435</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="8" t="n">
-        <v>41632.6076388889</v>
+        <v>41841.5569444444</v>
       </c>
       <c r="B401" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C401" t="n">
-        <v>1533</v>
+        <v>1317</v>
       </c>
       <c r="D401" t="n">
-        <v>14520</v>
+        <v>12027</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="8" t="n">
-        <v>41668.6826388889</v>
+        <v>42537.4493055556</v>
       </c>
       <c r="B402" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="C402" t="n">
-        <v>3048</v>
+        <v>60</v>
       </c>
       <c r="D402" t="n">
-        <v>11985</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="8" t="n">
-        <v>42251.6701388889</v>
+        <v>41948.4618055555</v>
       </c>
       <c r="B403" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C403" t="n">
-        <v>1704</v>
+        <v>708</v>
       </c>
       <c r="D403" t="n">
-        <v>5127</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="8" t="n">
-        <v>41669.4381944444</v>
+        <v>42300.7701388889</v>
       </c>
       <c r="B404" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="C404" t="n">
-        <v>8433</v>
+        <v>4323</v>
       </c>
       <c r="D404" t="n">
-        <v>49935</v>
+        <v>20391</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="8" t="n">
-        <v>42571.6145833333</v>
+        <v>41864.4104166667</v>
       </c>
       <c r="B405" t="s">
-        <v>90</v>
+        <v>368</v>
       </c>
       <c r="C405" t="n">
-        <v>522</v>
+        <v>7488</v>
       </c>
       <c r="D405" t="n">
-        <v>3720</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="8" t="n">
-        <v>41746.2909722222</v>
+        <v>42562.61875</v>
       </c>
       <c r="B406" t="s">
-        <v>395</v>
+        <v>46</v>
       </c>
       <c r="C406" t="n">
-        <v>10701</v>
+        <v>285</v>
       </c>
       <c r="D406" t="n">
-        <v>36915</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="8" t="n">
-        <v>42203.5604166667</v>
+        <v>42162.6791666667</v>
       </c>
       <c r="B407" t="s">
-        <v>436</v>
+        <v>277</v>
       </c>
       <c r="C407" t="n">
-        <v>18669</v>
+        <v>2802</v>
       </c>
       <c r="D407" t="n">
-        <v>165741</v>
+        <v>19728</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="8" t="n">
-        <v>41531.6409722222</v>
+        <v>42484.5631944444</v>
       </c>
       <c r="B408" t="s">
-        <v>476</v>
+        <v>308</v>
       </c>
       <c r="C408" t="n">
-        <v>63981</v>
+        <v>3828</v>
       </c>
       <c r="D408" t="n">
-        <v>1032588</v>
+        <v>31191</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="8" t="n">
-        <v>42260.3826388889</v>
+        <v>41582.6513888889</v>
       </c>
       <c r="B409" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C409" t="n">
-        <v>1527</v>
+        <v>1824</v>
       </c>
       <c r="D409" t="n">
-        <v>4056</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="8" t="n">
-        <v>42311.4756944445</v>
+        <v>41632.6895833333</v>
       </c>
       <c r="B410" t="s">
-        <v>206</v>
+        <v>423</v>
       </c>
       <c r="C410" t="n">
-        <v>1554</v>
+        <v>15402</v>
       </c>
       <c r="D410" t="n">
-        <v>3087</v>
+        <v>170535</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="8" t="n">
-        <v>42255.6194444444</v>
+        <v>42380.41875</v>
       </c>
       <c r="B411" t="s">
-        <v>429</v>
+        <v>290</v>
       </c>
       <c r="C411" t="n">
-        <v>15831</v>
+        <v>3204</v>
       </c>
       <c r="D411" t="n">
-        <v>32895</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="8" t="n">
-        <v>42363.5736111111</v>
+        <v>42247.3986111111</v>
       </c>
       <c r="B412" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="C412" t="n">
-        <v>4578</v>
+        <v>10233</v>
       </c>
       <c r="D412" t="n">
-        <v>23769</v>
+        <v>19179</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="8" t="n">
-        <v>42449.6458333333</v>
+        <v>42542.5694444445</v>
       </c>
       <c r="B413" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="C413" t="n">
-        <v>513</v>
+        <v>3264</v>
       </c>
       <c r="D413" t="n">
-        <v>5322</v>
+        <v>11340</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="8" t="n">
-        <v>42441.8923611111</v>
+        <v>41835.7104166667</v>
       </c>
       <c r="B414" t="s">
-        <v>407</v>
+        <v>48</v>
       </c>
       <c r="C414" t="n">
-        <v>13116</v>
+        <v>291</v>
       </c>
       <c r="D414" t="n">
-        <v>56670</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="8" t="n">
-        <v>42408.6590277778</v>
+        <v>42132.5055555556</v>
       </c>
       <c r="B415" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C415" t="n">
-        <v>5232</v>
+        <v>4296</v>
       </c>
       <c r="D415" t="n">
-        <v>29502</v>
+        <v>23430</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="8" t="n">
-        <v>41613.5631944445</v>
+        <v>42569.7381944444</v>
       </c>
       <c r="B416" t="s">
-        <v>458</v>
+        <v>3</v>
       </c>
       <c r="C416" t="n">
-        <v>26919</v>
+        <v>9</v>
       </c>
       <c r="D416" t="n">
-        <v>149715</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="8" t="n">
-        <v>41829.74375</v>
+        <v>42323.4305555556</v>
       </c>
       <c r="B417" t="s">
-        <v>322</v>
+        <v>420</v>
       </c>
       <c r="C417" t="n">
-        <v>4425</v>
+        <v>14850</v>
       </c>
       <c r="D417" t="n">
-        <v>26862</v>
+        <v>52380</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="8" t="n">
-        <v>41757.4506944444</v>
+        <v>41669.4416666667</v>
       </c>
       <c r="B418" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="C418" t="n">
-        <v>2616</v>
+        <v>1074</v>
       </c>
       <c r="D418" t="n">
-        <v>31557</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="8" t="n">
-        <v>42555.5527777778</v>
+        <v>41624.9208333333</v>
       </c>
       <c r="B419" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C419" t="n">
-        <v>471</v>
+        <v>210</v>
       </c>
       <c r="D419" t="n">
-        <v>8028</v>
+        <v>774</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="8" t="n">
-        <v>42288.3854166667</v>
+        <v>42218.6381944444</v>
       </c>
       <c r="B420" t="s">
-        <v>400</v>
+        <v>471</v>
       </c>
       <c r="C420" t="n">
-        <v>11904</v>
+        <v>39972</v>
       </c>
       <c r="D420" t="n">
-        <v>52650</v>
+        <v>1884150</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="8" t="n">
-        <v>41624.9208333333</v>
+        <v>42245.5423611111</v>
       </c>
       <c r="B421" t="s">
-        <v>34</v>
+        <v>377</v>
       </c>
       <c r="C421" t="n">
-        <v>210</v>
+        <v>8415</v>
       </c>
       <c r="D421" t="n">
-        <v>774</v>
+        <v>39081</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="8" t="n">
-        <v>42537.5638888889</v>
+        <v>41632.6125</v>
       </c>
       <c r="B422" t="s">
-        <v>98</v>
+        <v>409</v>
       </c>
       <c r="C422" t="n">
-        <v>558</v>
+        <v>13584</v>
       </c>
       <c r="D422" t="n">
-        <v>11958</v>
+        <v>268599</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="8" t="n">
-        <v>41864.4104166667</v>
+        <v>41850.5638888889</v>
       </c>
       <c r="B423" t="s">
-        <v>368</v>
+        <v>24</v>
       </c>
       <c r="C423" t="n">
-        <v>7488</v>
+        <v>141</v>
       </c>
       <c r="D423" t="n">
-        <v>7494</v>
+        <v>438</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="8" t="n">
-        <v>41556.7083333333</v>
+        <v>42072.6826388889</v>
       </c>
       <c r="B424" t="s">
-        <v>437</v>
+        <v>132</v>
       </c>
       <c r="C424" t="n">
-        <v>19050</v>
+        <v>804</v>
       </c>
       <c r="D424" t="n">
-        <v>515934</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="8" t="n">
-        <v>42556.5701388889</v>
+        <v>41715.43125</v>
       </c>
       <c r="B425" t="s">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="C425" t="n">
-        <v>402</v>
+        <v>5358</v>
       </c>
       <c r="D425" t="n">
-        <v>3708</v>
+        <v>67992</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="8" t="n">
-        <v>42477.6618055556</v>
+        <v>42286.8131944445</v>
       </c>
       <c r="B426" t="s">
-        <v>156</v>
+        <v>381</v>
       </c>
       <c r="C426" t="n">
-        <v>969</v>
+        <v>8628</v>
       </c>
       <c r="D426" t="n">
-        <v>19968</v>
+        <v>14910</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="8" t="n">
-        <v>42155.5020833333</v>
+        <v>42544.5881944444</v>
       </c>
       <c r="B427" t="s">
-        <v>452</v>
+        <v>102</v>
       </c>
       <c r="C427" t="n">
-        <v>24180</v>
+        <v>570</v>
       </c>
       <c r="D427" t="n">
-        <v>132069</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="8" t="n">
-        <v>42339.6923611111</v>
+        <v>41935.6951388889</v>
       </c>
       <c r="B428" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C428" t="n">
-        <v>939</v>
+        <v>828</v>
       </c>
       <c r="D428" t="n">
-        <v>1710</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="8" t="n">
-        <v>42171.5368055556</v>
+        <v>42024.5736111111</v>
       </c>
       <c r="B429" t="s">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="C429" t="n">
-        <v>819</v>
+        <v>2856</v>
       </c>
       <c r="D429" t="n">
-        <v>23490</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="8" t="n">
-        <v>42217.9611111111</v>
+        <v>41556.7090277778</v>
       </c>
       <c r="B430" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C430" t="n">
-        <v>8712</v>
+        <v>8163</v>
       </c>
       <c r="D430" t="n">
-        <v>47664</v>
+        <v>96183</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="8" t="n">
-        <v>42286.8131944445</v>
+        <v>42247.4173611111</v>
       </c>
       <c r="B431" t="s">
-        <v>381</v>
+        <v>134</v>
       </c>
       <c r="C431" t="n">
-        <v>8628</v>
+        <v>810</v>
       </c>
       <c r="D431" t="n">
-        <v>14910</v>
+        <v>594</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="8" t="n">
-        <v>42563.7298611111</v>
+        <v>41757.39375</v>
       </c>
       <c r="B432" t="s">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="C432" t="n">
-        <v>297</v>
+        <v>2100</v>
       </c>
       <c r="D432" t="n">
-        <v>1953</v>
+        <v>19485</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="8" t="n">
-        <v>42259.4548611111</v>
+        <v>41603.4111111111</v>
       </c>
       <c r="B433" t="s">
-        <v>171</v>
+        <v>469</v>
       </c>
       <c r="C433" t="n">
-        <v>1119</v>
+        <v>36756</v>
       </c>
       <c r="D433" t="n">
-        <v>6819</v>
+        <v>1125729</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="8" t="n">
-        <v>42569.4048611111</v>
+        <v>42204.4333333333</v>
       </c>
       <c r="B434" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="C434" t="n">
-        <v>1341</v>
+        <v>2340</v>
       </c>
       <c r="D434" t="n">
-        <v>10467</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="8" t="n">
-        <v>42259.4222222222</v>
+        <v>41578.6375</v>
       </c>
       <c r="B435" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="C435" t="n">
-        <v>2070</v>
+        <v>3828</v>
       </c>
       <c r="D435" t="n">
-        <v>1776</v>
+        <v>37095</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="8" t="n">
-        <v>41407.4576388889</v>
+        <v>42554.4645833333</v>
       </c>
       <c r="B436" t="s">
-        <v>481</v>
+        <v>108</v>
       </c>
       <c r="C436" t="n">
-        <v>93153</v>
+        <v>624</v>
       </c>
       <c r="D436" t="n">
-        <v>2109564</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="8" t="n">
-        <v>42171.4854166667</v>
+        <v>42211.5145833333</v>
       </c>
       <c r="B437" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="C437" t="n">
-        <v>11895</v>
+        <v>33093</v>
       </c>
       <c r="D437" t="n">
-        <v>16743</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="8" t="n">
-        <v>41935.6986111111</v>
+        <v>41669.4381944444</v>
       </c>
       <c r="B438" t="s">
-        <v>93</v>
+        <v>379</v>
       </c>
       <c r="C438" t="n">
-        <v>537</v>
+        <v>8433</v>
       </c>
       <c r="D438" t="n">
-        <v>3978</v>
+        <v>49935</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="8" t="n">
-        <v>41531.6444444444</v>
+        <v>42330.8291666667</v>
       </c>
       <c r="B439" t="s">
-        <v>465</v>
+        <v>300</v>
       </c>
       <c r="C439" t="n">
-        <v>31920</v>
+        <v>3618</v>
       </c>
       <c r="D439" t="n">
-        <v>408936</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="8" t="n">
-        <v>42368.5840277778</v>
+        <v>42290.7361111111</v>
       </c>
       <c r="B440" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C440" t="n">
-        <v>1197</v>
+        <v>2700</v>
       </c>
       <c r="D440" t="n">
-        <v>30288</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="8" t="n">
-        <v>41407.4625</v>
+        <v>42077.5590277778</v>
       </c>
       <c r="B441" t="s">
-        <v>478</v>
+        <v>131</v>
       </c>
       <c r="C441" t="n">
-        <v>78792</v>
+        <v>801</v>
       </c>
       <c r="D441" t="n">
-        <v>4229313</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="8" t="n">
-        <v>42366.6166666667</v>
+        <v>42245.6888888889</v>
       </c>
       <c r="B442" t="s">
-        <v>337</v>
+        <v>124</v>
       </c>
       <c r="C442" t="n">
-        <v>5265</v>
+        <v>744</v>
       </c>
       <c r="D442" t="n">
-        <v>17373</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -18814,590 +18814,590 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="8" t="n">
-        <v>41669.4416666667</v>
+        <v>42168.7458333333</v>
       </c>
       <c r="B444" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="C444" t="n">
-        <v>1074</v>
+        <v>1707</v>
       </c>
       <c r="D444" t="n">
-        <v>4002</v>
+        <v>8235</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="8" t="n">
-        <v>42255.7319444444</v>
+        <v>42428.6652777778</v>
       </c>
       <c r="B445" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="C445" t="n">
-        <v>1629</v>
+        <v>363</v>
       </c>
       <c r="D445" t="n">
-        <v>20541</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="8" t="n">
-        <v>41632.6152777778</v>
+        <v>42501.6034722222</v>
       </c>
       <c r="B446" t="s">
-        <v>463</v>
+        <v>229</v>
       </c>
       <c r="C446" t="n">
-        <v>31437</v>
+        <v>1947</v>
       </c>
       <c r="D446" t="n">
-        <v>238575</v>
+        <v>17544</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="8" t="n">
-        <v>42619.4243055556</v>
+        <v>42373.8881944444</v>
       </c>
       <c r="B447" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="C447" t="n">
-        <v>216</v>
+        <v>2310</v>
       </c>
       <c r="D447" t="n">
-        <v>3078</v>
+        <v>14142</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="8" t="n">
-        <v>42534.5527777778</v>
+        <v>41767.5729166667</v>
       </c>
       <c r="B448" t="s">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="C448" t="n">
-        <v>438</v>
+        <v>5796</v>
       </c>
       <c r="D448" t="n">
-        <v>3285</v>
+        <v>27876</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="8" t="n">
-        <v>41941.5625</v>
+        <v>41574.5583333333</v>
       </c>
       <c r="B449" t="s">
-        <v>42</v>
+        <v>472</v>
       </c>
       <c r="C449" t="n">
-        <v>246</v>
+        <v>43068</v>
       </c>
       <c r="D449" t="n">
-        <v>18795</v>
+        <v>317172</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="8" t="n">
-        <v>42350.6375</v>
+        <v>42443.4152777778</v>
       </c>
       <c r="B450" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="C450" t="n">
-        <v>2604</v>
+        <v>609</v>
       </c>
       <c r="D450" t="n">
-        <v>14154</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="8" t="n">
-        <v>42061.7729166667</v>
+        <v>41677.6166666667</v>
       </c>
       <c r="B451" t="s">
-        <v>10</v>
+        <v>425</v>
       </c>
       <c r="C451" t="n">
-        <v>60</v>
+        <v>15555</v>
       </c>
       <c r="D451" t="n">
-        <v>27</v>
+        <v>72330</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="8" t="n">
-        <v>42332.6791666667</v>
+        <v>41823.5618055556</v>
       </c>
       <c r="B452" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="C452" t="n">
-        <v>1053</v>
+        <v>330</v>
       </c>
       <c r="D452" t="n">
-        <v>5361</v>
+        <v>72129</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="8" t="n">
-        <v>42484.5222222222</v>
+        <v>42226.5458333333</v>
       </c>
       <c r="B453" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="C453" t="n">
-        <v>2127</v>
+        <v>5304</v>
       </c>
       <c r="D453" t="n">
-        <v>19845</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="8" t="n">
-        <v>41591.7118055556</v>
+        <v>42556.6291666667</v>
       </c>
       <c r="B454" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="C454" t="n">
-        <v>828</v>
+        <v>330</v>
       </c>
       <c r="D454" t="n">
-        <v>4212</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="8" t="n">
-        <v>42346.6138888889</v>
+        <v>42339.6729166667</v>
       </c>
       <c r="B455" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C455" t="n">
-        <v>1932</v>
+        <v>3723</v>
       </c>
       <c r="D455" t="n">
-        <v>13947</v>
+        <v>19632</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="8" t="n">
-        <v>42387.6083333333</v>
+        <v>41681.6277777778</v>
       </c>
       <c r="B456" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C456" t="n">
-        <v>6819</v>
+        <v>6891</v>
       </c>
       <c r="D456" t="n">
-        <v>33006</v>
+        <v>93945</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="8" t="n">
-        <v>41578.6375</v>
+        <v>41857.6597222222</v>
       </c>
       <c r="B457" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="C457" t="n">
-        <v>3828</v>
+        <v>855</v>
       </c>
       <c r="D457" t="n">
-        <v>37095</v>
+        <v>170739</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="8" t="n">
-        <v>42405.4201388889</v>
+        <v>42329.9541666667</v>
       </c>
       <c r="B458" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="C458" t="n">
-        <v>1029</v>
+        <v>4218</v>
       </c>
       <c r="D458" t="n">
-        <v>5115</v>
+        <v>20301</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="8" t="n">
-        <v>42433.8708333333</v>
+        <v>42435.6986111111</v>
       </c>
       <c r="B459" t="s">
-        <v>166</v>
+        <v>380</v>
       </c>
       <c r="C459" t="n">
-        <v>1071</v>
+        <v>8442</v>
       </c>
       <c r="D459" t="n">
-        <v>4416</v>
+        <v>69975</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="8" t="n">
-        <v>42537.4493055556</v>
+        <v>42535.7458333333</v>
       </c>
       <c r="B460" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C460" t="n">
-        <v>60</v>
+        <v>471</v>
       </c>
       <c r="D460" t="n">
-        <v>1668</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="8" t="n">
-        <v>41718.7597222222</v>
+        <v>42260.3826388889</v>
       </c>
       <c r="B461" t="s">
-        <v>435</v>
+        <v>204</v>
       </c>
       <c r="C461" t="n">
-        <v>18588</v>
+        <v>1527</v>
       </c>
       <c r="D461" t="n">
-        <v>136389</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="8" t="n">
-        <v>42303.4618055555</v>
+        <v>41660.5</v>
       </c>
       <c r="B462" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="C462" t="n">
-        <v>6585</v>
+        <v>5109</v>
       </c>
       <c r="D462" t="n">
-        <v>33459</v>
+        <v>38595</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="8" t="n">
-        <v>42443.4361111111</v>
+        <v>41847.4743055556</v>
       </c>
       <c r="B463" t="s">
-        <v>87</v>
+        <v>376</v>
       </c>
       <c r="C463" t="n">
-        <v>513</v>
+        <v>8280</v>
       </c>
       <c r="D463" t="n">
-        <v>8130</v>
+        <v>21159</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="8" t="n">
-        <v>42033.6958333333</v>
+        <v>42309.7451388889</v>
       </c>
       <c r="B464" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C464" t="n">
-        <v>1776</v>
+        <v>1218</v>
       </c>
       <c r="D464" t="n">
-        <v>4344</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="8" t="n">
-        <v>42221.4090277778</v>
+        <v>42226.4625</v>
       </c>
       <c r="B465" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="C465" t="n">
-        <v>1614</v>
+        <v>4191</v>
       </c>
       <c r="D465" t="n">
-        <v>4431</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="8" t="n">
-        <v>42252.4215277778</v>
+        <v>42226.4020833333</v>
       </c>
       <c r="B466" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="C466" t="n">
-        <v>15801</v>
+        <v>5415</v>
       </c>
       <c r="D466" t="n">
-        <v>58500</v>
+        <v>34425</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="8" t="n">
-        <v>41949.4104166667</v>
+        <v>41850.55625</v>
       </c>
       <c r="B467" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C467" t="n">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="D467" t="n">
-        <v>3543</v>
+        <v>306</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="8" t="n">
-        <v>41675.4555555556</v>
+        <v>42368.5840277778</v>
       </c>
       <c r="B468" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
       <c r="C468" t="n">
-        <v>8838</v>
+        <v>1197</v>
       </c>
       <c r="D468" t="n">
-        <v>66540</v>
+        <v>30288</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="8" t="n">
-        <v>41700.7305555556</v>
+        <v>42251.6701388889</v>
       </c>
       <c r="B469" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="C469" t="n">
-        <v>609</v>
+        <v>1704</v>
       </c>
       <c r="D469" t="n">
-        <v>1503</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="8" t="n">
-        <v>41835.6236111111</v>
+        <v>41760.8791666667</v>
       </c>
       <c r="B470" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C470" t="n">
-        <v>14352</v>
+        <v>12705</v>
       </c>
       <c r="D470" t="n">
-        <v>43287</v>
+        <v>52071</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="8" t="n">
-        <v>42315.4715277778</v>
+        <v>42311.6923611111</v>
       </c>
       <c r="B471" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="C471" t="n">
-        <v>870</v>
+        <v>1833</v>
       </c>
       <c r="D471" t="n">
-        <v>1374</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="8" t="n">
-        <v>41749.4166666667</v>
+        <v>41681.6840277778</v>
       </c>
       <c r="B472" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="C472" t="n">
-        <v>5382</v>
+        <v>22332</v>
       </c>
       <c r="D472" t="n">
-        <v>68535</v>
+        <v>41361</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="8" t="n">
-        <v>42495.9388888889</v>
+        <v>42061.4152777778</v>
       </c>
       <c r="B473" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="C473" t="n">
-        <v>1368</v>
+        <v>453</v>
       </c>
       <c r="D473" t="n">
-        <v>3546</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="8" t="n">
-        <v>42114.4069444445</v>
+        <v>42238.8472222222</v>
       </c>
       <c r="B474" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="C474" t="n">
-        <v>7227</v>
+        <v>3438</v>
       </c>
       <c r="D474" t="n">
-        <v>64599</v>
+        <v>6516</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="8" t="n">
-        <v>42543.4347222222</v>
+        <v>41556.6826388889</v>
       </c>
       <c r="B475" t="s">
-        <v>227</v>
+        <v>446</v>
       </c>
       <c r="C475" t="n">
-        <v>1857</v>
+        <v>22245</v>
       </c>
       <c r="D475" t="n">
-        <v>18147</v>
+        <v>384315</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="8" t="n">
-        <v>41584.5743055556</v>
+        <v>42554.7263888889</v>
       </c>
       <c r="B476" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
       <c r="C476" t="n">
-        <v>13911</v>
+        <v>5283</v>
       </c>
       <c r="D476" t="n">
-        <v>98808</v>
+        <v>28722</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="8" t="n">
-        <v>41712.5777777778</v>
+        <v>42453.3180555556</v>
       </c>
       <c r="B477" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="C477" t="n">
-        <v>744</v>
+        <v>1635</v>
       </c>
       <c r="D477" t="n">
-        <v>9708</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="8" t="n">
-        <v>41857.6597222222</v>
+        <v>41610.4541666667</v>
       </c>
       <c r="B478" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C478" t="n">
-        <v>855</v>
+        <v>825</v>
       </c>
       <c r="D478" t="n">
-        <v>170739</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="8" t="n">
-        <v>41632.6055555556</v>
+        <v>42077.3944444444</v>
       </c>
       <c r="B479" t="s">
-        <v>442</v>
+        <v>28</v>
       </c>
       <c r="C479" t="n">
-        <v>20616</v>
+        <v>171</v>
       </c>
       <c r="D479" t="n">
-        <v>268002</v>
+        <v>684</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="8" t="n">
-        <v>42359.4305555555</v>
+        <v>42583.7020833333</v>
       </c>
       <c r="B480" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="C480" t="n">
-        <v>5067</v>
+        <v>933</v>
       </c>
       <c r="D480" t="n">
-        <v>123483</v>
+        <v>10341</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="8" t="n">
-        <v>42218.6381944444</v>
+        <v>41477.59375</v>
       </c>
       <c r="B481" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="C481" t="n">
-        <v>39972</v>
+        <v>22596</v>
       </c>
       <c r="D481" t="n">
-        <v>1884150</v>
+        <v>322269</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="8" t="n">
-        <v>42554.6138888889</v>
+        <v>41674.4548611111</v>
       </c>
       <c r="B482" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="C482" t="n">
-        <v>405</v>
+        <v>3705</v>
       </c>
       <c r="D482" t="n">
-        <v>1923</v>
+        <v>15717</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="8" t="n">
-        <v>42211.5145833333</v>
+        <v>42569.4048611111</v>
       </c>
       <c r="B483" t="s">
-        <v>466</v>
+        <v>193</v>
       </c>
       <c r="C483" t="n">
-        <v>33093</v>
+        <v>1341</v>
       </c>
       <c r="D483" t="n">
-        <v>45141</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="8" t="n">
-        <v>41588.6694444444</v>
+        <v>41765.0118055556</v>
       </c>
       <c r="B484" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="C484" t="n">
-        <v>12117</v>
+        <v>4827</v>
       </c>
       <c r="D484" t="n">
-        <v>33519</v>
+        <v>28917</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="8" t="n">
-        <v>41709.58125</v>
+        <v>42406.4125</v>
       </c>
       <c r="B485" t="s">
-        <v>310</v>
+        <v>155</v>
       </c>
       <c r="C485" t="n">
-        <v>3882</v>
+        <v>939</v>
       </c>
       <c r="D485" t="n">
-        <v>5691</v>
+        <v>11322</v>
       </c>
     </row>
   </sheetData>

--- a/week3/challenge11/courses.xlsx
+++ b/week3/challenge11/courses.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" state="visible" r:id="rId1"/>
@@ -1881,15 +1881,15 @@
   <dimension ref="A1:C485"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="B10" activeCellId="1" pane="topLeft" sqref="S958:S959 B10"/>
+      <selection activeCell="B10" activeCellId="0" pane="topLeft" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="27.537037037037"/>
-    <col customWidth="1" max="2" min="2" style="4" width="47.7222222222222"/>
-    <col customWidth="1" max="3" min="3" style="4" width="22.3444444444444"/>
-    <col customWidth="1" max="1025" min="4" style="4" width="10.9740740740741"/>
+    <col customWidth="1" max="1" min="1" style="4" width="28.1259259259259"/>
+    <col customWidth="1" max="2" min="2" style="4" width="48.9"/>
+    <col customWidth="1" max="3" min="3" style="4" width="22.8333333333333"/>
+    <col customWidth="1" max="1025" min="4" style="4" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="16" r="1" s="5" spans="1:3">
@@ -7242,16 +7242,16 @@
   </sheetPr>
   <dimension ref="A1:C485"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="C14" activeCellId="1" pane="topLeft" sqref="S958:S959 C14"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+      <selection activeCell="C14" activeCellId="0" pane="topLeft" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="27.537037037037"/>
-    <col customWidth="1" max="2" min="2" style="4" width="47.7222222222222"/>
-    <col customWidth="1" max="3" min="3" style="4" width="21.262962962963"/>
-    <col customWidth="1" max="1025" min="4" style="4" width="10.9740740740741"/>
+    <col customWidth="1" max="1" min="1" style="4" width="28.1259259259259"/>
+    <col customWidth="1" max="2" min="2" style="4" width="48.9"/>
+    <col customWidth="1" max="3" min="3" style="4" width="21.8518518518519"/>
+    <col customWidth="1" max="1025" min="4" style="4" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="16" r="1" s="5" spans="1:3">
@@ -12626,6778 +12626,6778 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="n">
-        <v>42221.3909722222</v>
+        <v>41556.6826388889</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>446</v>
       </c>
       <c r="C2" t="n">
-        <v>990</v>
+        <v>22245</v>
       </c>
       <c r="D2" t="n">
-        <v>9441</v>
+        <v>384315</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="n">
-        <v>42286.98125</v>
+        <v>42577.4472222222</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>1767</v>
+        <v>213</v>
       </c>
       <c r="D3" t="n">
-        <v>6636</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="n">
-        <v>42086.6069444444</v>
+        <v>42235.6784722222</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="C4" t="n">
-        <v>585</v>
+        <v>7767</v>
       </c>
       <c r="D4" t="n">
-        <v>1989</v>
+        <v>34530</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="n">
-        <v>42227.5291666667</v>
+        <v>41669.4381944444</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>379</v>
       </c>
       <c r="C5" t="n">
-        <v>702</v>
+        <v>8433</v>
       </c>
       <c r="D5" t="n">
-        <v>2685</v>
+        <v>49935</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="n">
-        <v>42255.7319444444</v>
+        <v>41921.7819444445</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="C6" t="n">
-        <v>1629</v>
+        <v>540</v>
       </c>
       <c r="D6" t="n">
-        <v>20541</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="n">
-        <v>42295.7</v>
+        <v>42433.8708333333</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="C7" t="n">
-        <v>309</v>
+        <v>1071</v>
       </c>
       <c r="D7" t="n">
-        <v>50922</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="n">
-        <v>42204.7118055555</v>
+        <v>42032.6895833333</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>256</v>
       </c>
       <c r="C8" t="n">
-        <v>8421</v>
+        <v>2466</v>
       </c>
       <c r="D8" t="n">
-        <v>21327</v>
+        <v>36177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="n">
-        <v>42361.5534722222</v>
+        <v>42555.5527777778</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="C9" t="n">
-        <v>891</v>
+        <v>471</v>
       </c>
       <c r="D9" t="n">
-        <v>10965</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="n">
-        <v>42557.4347222222</v>
+        <v>42162.6791666667</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C10" t="n">
-        <v>2889</v>
+        <v>2802</v>
       </c>
       <c r="D10" t="n">
-        <v>19962</v>
+        <v>19728</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="n">
-        <v>42556.6979166667</v>
+        <v>42319.6944444445</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="C11" t="n">
-        <v>1194</v>
+        <v>2670</v>
       </c>
       <c r="D11" t="n">
-        <v>9678</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="n">
-        <v>42545.9166666667</v>
+        <v>41531.6444444444</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>465</v>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>31920</v>
       </c>
       <c r="D12" t="n">
-        <v>8499</v>
+        <v>408936</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="n">
-        <v>42366.7715277778</v>
+        <v>42023.6520833333</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>984</v>
+        <v>120</v>
       </c>
       <c r="D13" t="n">
-        <v>5451</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="n">
-        <v>41652.625</v>
+        <v>42308.6736111111</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>367</v>
       </c>
       <c r="C14" t="n">
-        <v>31476</v>
+        <v>7473</v>
       </c>
       <c r="D14" t="n">
-        <v>978141</v>
+        <v>33459</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="n">
-        <v>42238.60625</v>
+        <v>41666.4166666667</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="C15" t="n">
-        <v>996</v>
+        <v>2085</v>
       </c>
       <c r="D15" t="n">
-        <v>2916</v>
+        <v>10893</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="n">
-        <v>42298.425</v>
+        <v>42027.4798611111</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>461</v>
       </c>
       <c r="C16" t="n">
-        <v>2607</v>
+        <v>30393</v>
       </c>
       <c r="D16" t="n">
-        <v>10260</v>
+        <v>100152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="n">
-        <v>41885.5409722222</v>
+        <v>41673.4048611111</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>408</v>
       </c>
       <c r="C17" t="n">
-        <v>351</v>
+        <v>13398</v>
       </c>
       <c r="D17" t="n">
-        <v>44964</v>
+        <v>70137</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="n">
-        <v>42451.5166666667</v>
+        <v>42343.4069444444</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="C18" t="n">
-        <v>3588</v>
+        <v>9249</v>
       </c>
       <c r="D18" t="n">
-        <v>23109</v>
+        <v>97740</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="n">
-        <v>41745.4194444444</v>
+        <v>42543.4472222222</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>86</v>
       </c>
       <c r="C19" t="n">
-        <v>3798</v>
+        <v>501</v>
       </c>
       <c r="D19" t="n">
-        <v>55311</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="n">
-        <v>41729.6840277778</v>
+        <v>42160.0347222222</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="C20" t="n">
-        <v>1248</v>
+        <v>4923</v>
       </c>
       <c r="D20" t="n">
-        <v>771</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="n">
-        <v>42555.7444444444</v>
+        <v>41531.6423611111</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="C21" t="n">
-        <v>606</v>
+        <v>4482</v>
       </c>
       <c r="D21" t="n">
-        <v>5559</v>
+        <v>38667</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="n">
-        <v>41660.5430555556</v>
+        <v>41610.4541666667</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="C22" t="n">
-        <v>2133</v>
+        <v>825</v>
       </c>
       <c r="D22" t="n">
-        <v>8016</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="n">
-        <v>42526.4423611111</v>
+        <v>41660.5</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="C23" t="n">
-        <v>126</v>
+        <v>5109</v>
       </c>
       <c r="D23" t="n">
-        <v>1827</v>
+        <v>38595</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="n">
-        <v>41606.475</v>
+        <v>42207.7256944445</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="C24" t="n">
-        <v>1203</v>
+        <v>396</v>
       </c>
       <c r="D24" t="n">
-        <v>13641</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="n">
-        <v>41717.40625</v>
+        <v>42554.7263888889</v>
       </c>
       <c r="B25" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C25" t="n">
-        <v>4104</v>
+        <v>5283</v>
       </c>
       <c r="D25" t="n">
-        <v>26007</v>
+        <v>28722</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="n">
-        <v>42390.7618055556</v>
+        <v>42346.6138888889</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="C26" t="n">
-        <v>570</v>
+        <v>1932</v>
       </c>
       <c r="D26" t="n">
-        <v>6618</v>
+        <v>13947</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="n">
-        <v>42577.6770833333</v>
+        <v>42230.9340277778</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
       <c r="C27" t="n">
-        <v>150</v>
+        <v>7149</v>
       </c>
       <c r="D27" t="n">
-        <v>2250</v>
+        <v>10998</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="n">
-        <v>42493.6229166667</v>
+        <v>42238.5048611111</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>421</v>
       </c>
       <c r="C28" t="n">
-        <v>684</v>
+        <v>15171</v>
       </c>
       <c r="D28" t="n">
-        <v>4701</v>
+        <v>30153</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="n">
-        <v>41620.4118055556</v>
+        <v>42132.5055555556</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="C29" t="n">
-        <v>1557</v>
+        <v>4296</v>
       </c>
       <c r="D29" t="n">
-        <v>7158</v>
+        <v>23430</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="n">
-        <v>42211.4583333334</v>
+        <v>42086.6069444444</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="C30" t="n">
-        <v>1356</v>
+        <v>585</v>
       </c>
       <c r="D30" t="n">
-        <v>9558</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="n">
-        <v>42541.5868055555</v>
+        <v>42162.6881944445</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>433</v>
       </c>
       <c r="C31" t="n">
-        <v>747</v>
+        <v>17961</v>
       </c>
       <c r="D31" t="n">
-        <v>7293</v>
+        <v>90054</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="n">
-        <v>41588.6694444444</v>
+        <v>42216.89375</v>
       </c>
       <c r="B32" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C32" t="n">
-        <v>12117</v>
+        <v>13878</v>
       </c>
       <c r="D32" t="n">
-        <v>33519</v>
+        <v>55344</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="n">
-        <v>41850.5569444444</v>
+        <v>42495.9388888889</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="C33" t="n">
-        <v>354</v>
+        <v>1368</v>
       </c>
       <c r="D33" t="n">
-        <v>909</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="n">
-        <v>42534.5527777778</v>
+        <v>41709.58125</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="C34" t="n">
-        <v>438</v>
+        <v>3882</v>
       </c>
       <c r="D34" t="n">
-        <v>3285</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="n">
-        <v>42543.4347222222</v>
+        <v>42449.7138888889</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C35" t="n">
-        <v>1857</v>
+        <v>837</v>
       </c>
       <c r="D35" t="n">
-        <v>18147</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="n">
-        <v>42259.4222222222</v>
+        <v>42065.4298611111</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="C36" t="n">
-        <v>2070</v>
+        <v>201</v>
       </c>
       <c r="D36" t="n">
-        <v>1776</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="n">
-        <v>42286.7173611111</v>
+        <v>42303.4618055555</v>
       </c>
       <c r="B37" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="C37" t="n">
-        <v>8649</v>
+        <v>6585</v>
       </c>
       <c r="D37" t="n">
-        <v>35454</v>
+        <v>33459</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="n">
-        <v>41729.44375</v>
+        <v>41757.4506944444</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C38" t="n">
-        <v>2604</v>
+        <v>2616</v>
       </c>
       <c r="D38" t="n">
-        <v>14961</v>
+        <v>31557</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="n">
-        <v>41863.6993055556</v>
+        <v>41477.59375</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>449</v>
       </c>
       <c r="C39" t="n">
-        <v>2454</v>
+        <v>22596</v>
       </c>
       <c r="D39" t="n">
-        <v>22764</v>
+        <v>322269</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="n">
-        <v>42364.4236111111</v>
+        <v>42290.7361111111</v>
       </c>
       <c r="B40" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C40" t="n">
-        <v>3189</v>
+        <v>2700</v>
       </c>
       <c r="D40" t="n">
-        <v>10461</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="n">
-        <v>42332.5659722222</v>
+        <v>42186.6368055556</v>
       </c>
       <c r="B41" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="C41" t="n">
-        <v>5463</v>
+        <v>2295</v>
       </c>
       <c r="D41" t="n">
-        <v>29904</v>
+        <v>11496</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="n">
-        <v>41835.6236111111</v>
+        <v>41739.6152777778</v>
       </c>
       <c r="B42" t="s">
-        <v>417</v>
+        <v>69</v>
       </c>
       <c r="C42" t="n">
-        <v>14352</v>
+        <v>387</v>
       </c>
       <c r="D42" t="n">
-        <v>43287</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="n">
-        <v>42259.4388888889</v>
+        <v>41668.6826388889</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="C43" t="n">
-        <v>2037</v>
+        <v>3048</v>
       </c>
       <c r="D43" t="n">
-        <v>4158</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="n">
-        <v>42549.4527777778</v>
+        <v>41861.4729166667</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>444</v>
       </c>
       <c r="C44" t="n">
-        <v>1233</v>
+        <v>21363</v>
       </c>
       <c r="D44" t="n">
-        <v>5484</v>
+        <v>73443</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="n">
-        <v>42541.4701388889</v>
+        <v>42107.5625</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="C45" t="n">
-        <v>468</v>
+        <v>1158</v>
       </c>
       <c r="D45" t="n">
-        <v>5445</v>
+        <v>14997</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="n">
-        <v>42563.7298611111</v>
+        <v>42408.6590277778</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>336</v>
       </c>
       <c r="C46" t="n">
-        <v>297</v>
+        <v>5232</v>
       </c>
       <c r="D46" t="n">
-        <v>1953</v>
+        <v>29502</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="n">
-        <v>42255.6194444444</v>
+        <v>41737.4368055556</v>
       </c>
       <c r="B47" t="s">
-        <v>429</v>
+        <v>148</v>
       </c>
       <c r="C47" t="n">
-        <v>15831</v>
+        <v>885</v>
       </c>
       <c r="D47" t="n">
-        <v>32895</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8" t="n">
-        <v>42571.6145833333</v>
+        <v>41935.6986111111</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C48" t="n">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="D48" t="n">
-        <v>3720</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="n">
-        <v>42423.7180555556</v>
+        <v>42245.4902777778</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C49" t="n">
-        <v>528</v>
+        <v>381</v>
       </c>
       <c r="D49" t="n">
-        <v>9726</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8" t="n">
-        <v>42032.6895833333</v>
+        <v>42309.7451388889</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="C50" t="n">
-        <v>2466</v>
+        <v>1218</v>
       </c>
       <c r="D50" t="n">
-        <v>36177</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="n">
-        <v>42436.7305555556</v>
+        <v>42578.5548611111</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="C51" t="n">
-        <v>810</v>
+        <v>267</v>
       </c>
       <c r="D51" t="n">
-        <v>4176</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="n">
-        <v>41848.7479166667</v>
+        <v>41943.3833333333</v>
       </c>
       <c r="B52" t="s">
-        <v>335</v>
+        <v>96</v>
       </c>
       <c r="C52" t="n">
-        <v>5184</v>
+        <v>549</v>
       </c>
       <c r="D52" t="n">
-        <v>62943</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="n">
-        <v>41844.4666666667</v>
+        <v>41851.6513888889</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="C53" t="n">
-        <v>738</v>
+        <v>1989</v>
       </c>
       <c r="D53" t="n">
-        <v>4584</v>
+        <v>825</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="n">
-        <v>41953.4819444444</v>
+        <v>42087.5729166667</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="C54" t="n">
-        <v>3966</v>
+        <v>339</v>
       </c>
       <c r="D54" t="n">
-        <v>31152</v>
+        <v>639</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8" t="n">
-        <v>41556.7097222222</v>
+        <v>42061.7729166667</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>2817</v>
+        <v>60</v>
       </c>
       <c r="D55" t="n">
-        <v>51273</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8" t="n">
-        <v>42162.6881944445</v>
+        <v>41623.7277777778</v>
       </c>
       <c r="B56" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C56" t="n">
-        <v>17961</v>
+        <v>13650</v>
       </c>
       <c r="D56" t="n">
-        <v>90054</v>
+        <v>344760</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8" t="n">
-        <v>42569.4201388889</v>
+        <v>42477.6618055556</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="C57" t="n">
-        <v>210</v>
+        <v>969</v>
       </c>
       <c r="D57" t="n">
-        <v>1275</v>
+        <v>19968</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="8" t="n">
-        <v>41675.8284722222</v>
+        <v>42484.5222222222</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="C58" t="n">
-        <v>3084</v>
+        <v>2127</v>
       </c>
       <c r="D58" t="n">
-        <v>50178</v>
+        <v>19845</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="8" t="n">
-        <v>41842.4784722222</v>
+        <v>42068.4305555556</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
-        <v>372</v>
+        <v>192</v>
       </c>
       <c r="D59" t="n">
-        <v>1455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="8" t="n">
-        <v>42562.4708333333</v>
+        <v>42329.9541666667</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="C60" t="n">
-        <v>213</v>
+        <v>4218</v>
       </c>
       <c r="D60" t="n">
-        <v>720</v>
+        <v>20301</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8" t="n">
-        <v>42160.0347222222</v>
+        <v>42322.5638888889</v>
       </c>
       <c r="B61" t="s">
-        <v>331</v>
+        <v>150</v>
       </c>
       <c r="C61" t="n">
-        <v>4923</v>
+        <v>897</v>
       </c>
       <c r="D61" t="n">
-        <v>10602</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="8" t="n">
-        <v>42501.6034722222</v>
+        <v>41659.7631944444</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>361</v>
       </c>
       <c r="C62" t="n">
-        <v>312</v>
+        <v>6972</v>
       </c>
       <c r="D62" t="n">
-        <v>2598</v>
+        <v>102273</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="8" t="n">
-        <v>41660.6284722222</v>
+        <v>42072.6826388889</v>
       </c>
       <c r="B63" t="s">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="C63" t="n">
-        <v>5154</v>
+        <v>804</v>
       </c>
       <c r="D63" t="n">
-        <v>15486</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8" t="n">
-        <v>42343.7208333333</v>
+        <v>41631.4722222222</v>
       </c>
       <c r="B64" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="C64" t="n">
-        <v>8715</v>
+        <v>17337</v>
       </c>
       <c r="D64" t="n">
-        <v>25329</v>
+        <v>110742</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8" t="n">
-        <v>42061.7729166667</v>
+        <v>41948.4618055555</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C65" t="n">
-        <v>60</v>
+        <v>708</v>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>8121</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="8" t="n">
-        <v>42432.6541666667</v>
+        <v>41823.5625</v>
       </c>
       <c r="B66" t="s">
-        <v>419</v>
+        <v>262</v>
       </c>
       <c r="C66" t="n">
-        <v>14541</v>
+        <v>2586</v>
       </c>
       <c r="D66" t="n">
-        <v>301101</v>
+        <v>31803</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8" t="n">
-        <v>41632.6145833333</v>
+        <v>41599.8222222222</v>
       </c>
       <c r="B67" t="s">
-        <v>475</v>
+        <v>43</v>
       </c>
       <c r="C67" t="n">
-        <v>58215</v>
+        <v>267</v>
       </c>
       <c r="D67" t="n">
-        <v>645114</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="8" t="n">
-        <v>41632.6513888889</v>
+        <v>41674.5930555556</v>
       </c>
       <c r="B68" t="s">
-        <v>440</v>
+        <v>369</v>
       </c>
       <c r="C68" t="n">
-        <v>19761</v>
+        <v>7491</v>
       </c>
       <c r="D68" t="n">
-        <v>442464</v>
+        <v>44625</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="8" t="n">
-        <v>41618.6444444444</v>
+        <v>41841.5569444444</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C69" t="n">
-        <v>1140</v>
+        <v>1317</v>
       </c>
       <c r="D69" t="n">
-        <v>6705</v>
+        <v>12027</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="8" t="n">
-        <v>42228.5256944444</v>
+        <v>41681.6138888889</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>448</v>
       </c>
       <c r="C70" t="n">
-        <v>813</v>
+        <v>22437</v>
       </c>
       <c r="D70" t="n">
-        <v>993</v>
+        <v>523839</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="8" t="n">
-        <v>41407.4569444444</v>
+        <v>42249.4256944444</v>
       </c>
       <c r="B71" t="s">
-        <v>474</v>
+        <v>188</v>
       </c>
       <c r="C71" t="n">
-        <v>51879</v>
+        <v>1257</v>
       </c>
       <c r="D71" t="n">
-        <v>1189731</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="8" t="n">
-        <v>42441.8923611111</v>
+        <v>42484.6604166667</v>
       </c>
       <c r="B72" t="s">
-        <v>407</v>
+        <v>72</v>
       </c>
       <c r="C72" t="n">
-        <v>13116</v>
+        <v>402</v>
       </c>
       <c r="D72" t="n">
-        <v>56670</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="8" t="n">
-        <v>42433.8708333333</v>
+        <v>42220.39375</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C73" t="n">
-        <v>1071</v>
+        <v>831</v>
       </c>
       <c r="D73" t="n">
-        <v>4416</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="8" t="n">
-        <v>42224.3534722222</v>
+        <v>42515.6625</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="C74" t="n">
-        <v>1266</v>
+        <v>3603</v>
       </c>
       <c r="D74" t="n">
-        <v>3201</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="8" t="n">
-        <v>42565.6034722222</v>
+        <v>42554.6138888889</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>42</v>
+        <v>405</v>
       </c>
       <c r="D75" t="n">
-        <v>3540</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="8" t="n">
-        <v>42583.4576388889</v>
+        <v>41668.4277777778</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="C76" t="n">
-        <v>129</v>
+        <v>2316</v>
       </c>
       <c r="D76" t="n">
-        <v>1143</v>
+        <v>19926</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="8" t="n">
-        <v>42542.7618055556</v>
+        <v>42337.4659722222</v>
       </c>
       <c r="B77" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
-        <v>3765</v>
+        <v>69</v>
       </c>
       <c r="D77" t="n">
-        <v>53013</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="8" t="n">
-        <v>42186.6479166667</v>
+        <v>42245.5423611111</v>
       </c>
       <c r="B78" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C78" t="n">
-        <v>9078</v>
+        <v>8415</v>
       </c>
       <c r="D78" t="n">
-        <v>36645</v>
+        <v>39081</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="8" t="n">
-        <v>41767.6604166667</v>
+        <v>42499.6805555556</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C79" t="n">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="D79" t="n">
-        <v>1665</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="8" t="n">
-        <v>41631.4722222222</v>
+        <v>42205.7416666667</v>
       </c>
       <c r="B80" t="s">
-        <v>432</v>
+        <v>162</v>
       </c>
       <c r="C80" t="n">
-        <v>17337</v>
+        <v>1020</v>
       </c>
       <c r="D80" t="n">
-        <v>110742</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="8" t="n">
-        <v>42322.8472222222</v>
+        <v>41666.4277777778</v>
       </c>
       <c r="B81" t="s">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="C81" t="n">
-        <v>5874</v>
+        <v>1458</v>
       </c>
       <c r="D81" t="n">
-        <v>20697</v>
+        <v>10392</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8" t="n">
-        <v>41816.4013888889</v>
+        <v>41749.4166666667</v>
       </c>
       <c r="B82" t="s">
-        <v>460</v>
+        <v>344</v>
       </c>
       <c r="C82" t="n">
-        <v>28071</v>
+        <v>5382</v>
       </c>
       <c r="D82" t="n">
-        <v>464382</v>
+        <v>68535</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="8" t="n">
-        <v>41885.4701388889</v>
+        <v>42584.4069444444</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D83" t="n">
-        <v>19500</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="8" t="n">
-        <v>42186.6409722222</v>
+        <v>41603.3034722222</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="C84" t="n">
-        <v>2544</v>
+        <v>975</v>
       </c>
       <c r="D84" t="n">
-        <v>8475</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="8" t="n">
-        <v>42207.5229166667</v>
+        <v>42226.4305555555</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C85" t="n">
-        <v>1167</v>
+        <v>1338</v>
       </c>
       <c r="D85" t="n">
-        <v>2820</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="8" t="n">
-        <v>42534.5472222222</v>
+        <v>42286.7173611111</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>382</v>
       </c>
       <c r="C86" t="n">
-        <v>345</v>
+        <v>8649</v>
       </c>
       <c r="D86" t="n">
-        <v>5364</v>
+        <v>35454</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="8" t="n">
-        <v>42087.5729166667</v>
+        <v>41681.6277777778</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="C87" t="n">
-        <v>339</v>
+        <v>6891</v>
       </c>
       <c r="D87" t="n">
-        <v>639</v>
+        <v>93945</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="8" t="n">
-        <v>42171.4854166667</v>
+        <v>41864.4104166667</v>
       </c>
       <c r="B88" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="C88" t="n">
-        <v>11895</v>
+        <v>7488</v>
       </c>
       <c r="D88" t="n">
-        <v>16743</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="8" t="n">
-        <v>42023.6520833333</v>
+        <v>41531.6409722222</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>476</v>
       </c>
       <c r="C89" t="n">
-        <v>120</v>
+        <v>63981</v>
       </c>
       <c r="D89" t="n">
-        <v>36</v>
+        <v>1032588</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="8" t="n">
-        <v>41531.6444444444</v>
+        <v>42436.7305555556</v>
       </c>
       <c r="B90" t="s">
-        <v>465</v>
+        <v>135</v>
       </c>
       <c r="C90" t="n">
-        <v>31920</v>
+        <v>810</v>
       </c>
       <c r="D90" t="n">
-        <v>408936</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="8" t="n">
-        <v>41637.7541666667</v>
+        <v>42260.3826388889</v>
       </c>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="C91" t="n">
-        <v>3438</v>
+        <v>1527</v>
       </c>
       <c r="D91" t="n">
-        <v>21921</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="8" t="n">
-        <v>41556.7076388889</v>
+        <v>42486.4590277778</v>
       </c>
       <c r="B92" t="s">
-        <v>431</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>16869</v>
+        <v>138</v>
       </c>
       <c r="D92" t="n">
-        <v>296940</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="8" t="n">
-        <v>42368.4590277778</v>
+        <v>41746.2909722222</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>395</v>
       </c>
       <c r="C93" t="n">
-        <v>927</v>
+        <v>10701</v>
       </c>
       <c r="D93" t="n">
-        <v>4371</v>
+        <v>36915</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="8" t="n">
-        <v>42127.3048611111</v>
+        <v>42343.7208333333</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>385</v>
       </c>
       <c r="C94" t="n">
-        <v>1377</v>
+        <v>8715</v>
       </c>
       <c r="D94" t="n">
-        <v>11535</v>
+        <v>25329</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="8" t="n">
-        <v>41556.7083333333</v>
+        <v>42561.4180555556</v>
       </c>
       <c r="B95" t="s">
-        <v>437</v>
+        <v>232</v>
       </c>
       <c r="C95" t="n">
-        <v>19050</v>
+        <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>515934</v>
+        <v>20637</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="8" t="n">
-        <v>41744.5743055556</v>
+        <v>42562.4222222222</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="C96" t="n">
-        <v>2883</v>
+        <v>390</v>
       </c>
       <c r="D96" t="n">
-        <v>29502</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="8" t="n">
-        <v>42350.6375</v>
+        <v>41658.55</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="C97" t="n">
-        <v>2604</v>
+        <v>6504</v>
       </c>
       <c r="D97" t="n">
-        <v>14154</v>
+        <v>20958</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="8" t="n">
-        <v>41611.7673611111</v>
+        <v>41632.6076388889</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>1533</v>
       </c>
       <c r="D98" t="n">
-        <v>1503</v>
+        <v>14520</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="8" t="n">
-        <v>42420.6159722222</v>
+        <v>41835.6236111111</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>417</v>
       </c>
       <c r="C99" t="n">
-        <v>312</v>
+        <v>14352</v>
       </c>
       <c r="D99" t="n">
-        <v>34350</v>
+        <v>43287</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="8" t="n">
-        <v>41850.4027777778</v>
+        <v>41729.6840277778</v>
       </c>
       <c r="B100" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="C100" t="n">
-        <v>4071</v>
+        <v>1248</v>
       </c>
       <c r="D100" t="n">
-        <v>34056</v>
+        <v>771</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="8" t="n">
-        <v>41871.4416666667</v>
+        <v>42526.4423611111</v>
       </c>
       <c r="B101" t="s">
-        <v>351</v>
+        <v>19</v>
       </c>
       <c r="C101" t="n">
-        <v>5976</v>
+        <v>126</v>
       </c>
       <c r="D101" t="n">
-        <v>15759</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="8" t="n">
-        <v>42238.5048611111</v>
+        <v>42168.7458333333</v>
       </c>
       <c r="B102" t="s">
-        <v>421</v>
+        <v>218</v>
       </c>
       <c r="C102" t="n">
-        <v>15171</v>
+        <v>1707</v>
       </c>
       <c r="D102" t="n">
-        <v>30153</v>
+        <v>8235</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="8" t="n">
-        <v>41851.6513888889</v>
+        <v>42495.4708333333</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C103" t="n">
-        <v>1989</v>
+        <v>1641</v>
       </c>
       <c r="D103" t="n">
-        <v>825</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="8" t="n">
-        <v>42308.6736111111</v>
+        <v>41531.6416666667</v>
       </c>
       <c r="B104" t="s">
-        <v>367</v>
+        <v>468</v>
       </c>
       <c r="C104" t="n">
-        <v>7473</v>
+        <v>36387</v>
       </c>
       <c r="D104" t="n">
-        <v>33459</v>
+        <v>382851</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="8" t="n">
-        <v>42438.6583333333</v>
+        <v>41757.525</v>
       </c>
       <c r="B105" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="C105" t="n">
-        <v>9018</v>
+        <v>6105</v>
       </c>
       <c r="D105" t="n">
-        <v>44481</v>
+        <v>51897</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="8" t="n">
-        <v>42220.39375</v>
+        <v>42478.6159722222</v>
       </c>
       <c r="B106" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="C106" t="n">
-        <v>831</v>
+        <v>2370</v>
       </c>
       <c r="D106" t="n">
-        <v>5805</v>
+        <v>36339</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="8" t="n">
-        <v>41674.5743055556</v>
+        <v>42366.7715277778</v>
       </c>
       <c r="B107" t="s">
-        <v>326</v>
+        <v>158</v>
       </c>
       <c r="C107" t="n">
-        <v>4719</v>
+        <v>984</v>
       </c>
       <c r="D107" t="n">
-        <v>50451</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="8" t="n">
-        <v>41736.8694444444</v>
+        <v>41744.6006944445</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>178</v>
       </c>
       <c r="C108" t="n">
-        <v>3702</v>
+        <v>1185</v>
       </c>
       <c r="D108" t="n">
-        <v>17517</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="8" t="n">
-        <v>41581.6069444444</v>
+        <v>42438.6583333333</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>388</v>
       </c>
       <c r="C109" t="n">
-        <v>2190</v>
+        <v>9018</v>
       </c>
       <c r="D109" t="n">
-        <v>17529</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="8" t="n">
-        <v>42207.7256944445</v>
+        <v>42350.6375</v>
       </c>
       <c r="B110" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="C110" t="n">
-        <v>396</v>
+        <v>2604</v>
       </c>
       <c r="D110" t="n">
-        <v>585</v>
+        <v>14154</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="8" t="n">
-        <v>42068.4305555556</v>
+        <v>42235.7493055556</v>
       </c>
       <c r="B111" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="C111" t="n">
-        <v>192</v>
+        <v>1584</v>
       </c>
       <c r="D111" t="n">
-        <v>504</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="8" t="n">
-        <v>42009.4527777778</v>
+        <v>42070.55625</v>
       </c>
       <c r="B112" t="s">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="C112" t="n">
-        <v>4413</v>
+        <v>762</v>
       </c>
       <c r="D112" t="n">
-        <v>99480</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="8" t="n">
-        <v>41531.6423611111</v>
+        <v>41632.6125</v>
       </c>
       <c r="B113" t="s">
-        <v>324</v>
+        <v>439</v>
       </c>
       <c r="C113" t="n">
-        <v>4482</v>
+        <v>19191</v>
       </c>
       <c r="D113" t="n">
-        <v>38667</v>
+        <v>336756</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="8" t="n">
-        <v>41674.5951388889</v>
+        <v>41632.6888888889</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>438</v>
       </c>
       <c r="C114" t="n">
-        <v>2685</v>
+        <v>19110</v>
       </c>
       <c r="D114" t="n">
-        <v>12693</v>
+        <v>265473</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="8" t="n">
-        <v>42226.4305555555</v>
+        <v>41711.4208333333</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="C115" t="n">
-        <v>1338</v>
+        <v>4332</v>
       </c>
       <c r="D115" t="n">
-        <v>4527</v>
+        <v>18765</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="8" t="n">
-        <v>41941.4895833334</v>
+        <v>42339.6729166667</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>303</v>
       </c>
       <c r="C116" t="n">
-        <v>1104</v>
+        <v>3723</v>
       </c>
       <c r="D116" t="n">
-        <v>99684</v>
+        <v>19632</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="8" t="n">
-        <v>41613.5631944445</v>
+        <v>42420.4027777778</v>
       </c>
       <c r="B117" t="s">
-        <v>458</v>
+        <v>147</v>
       </c>
       <c r="C117" t="n">
-        <v>26919</v>
+        <v>876</v>
       </c>
       <c r="D117" t="n">
-        <v>149715</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="8" t="n">
-        <v>41842.3805555556</v>
+        <v>42076.6083333333</v>
       </c>
       <c r="B118" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C118" t="n">
-        <v>288</v>
+        <v>459</v>
       </c>
       <c r="D118" t="n">
-        <v>1506</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="8" t="n">
-        <v>42578.5548611111</v>
+        <v>42577.6770833333</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C119" t="n">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="D119" t="n">
-        <v>1305</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="8" t="n">
-        <v>41666.4166666667</v>
+        <v>41932.6513888889</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="C120" t="n">
-        <v>2085</v>
+        <v>3771</v>
       </c>
       <c r="D120" t="n">
-        <v>10893</v>
+        <v>19797</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="8" t="n">
-        <v>41668.6826388889</v>
+        <v>42330.8291666667</v>
       </c>
       <c r="B121" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C121" t="n">
-        <v>3048</v>
+        <v>3618</v>
       </c>
       <c r="D121" t="n">
-        <v>11985</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="8" t="n">
-        <v>42319.5736111111</v>
+        <v>41871.4416666667</v>
       </c>
       <c r="B122" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C122" t="n">
-        <v>7893</v>
+        <v>5976</v>
       </c>
       <c r="D122" t="n">
-        <v>24018</v>
+        <v>15759</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="8" t="n">
-        <v>42577.4472222222</v>
+        <v>41851.6576388889</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="C123" t="n">
-        <v>213</v>
+        <v>3051</v>
       </c>
       <c r="D123" t="n">
-        <v>2964</v>
+        <v>12342</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="8" t="n">
-        <v>42568.4284722222</v>
+        <v>41574.5805555556</v>
       </c>
       <c r="B124" t="s">
-        <v>89</v>
+        <v>450</v>
       </c>
       <c r="C124" t="n">
-        <v>522</v>
+        <v>22755</v>
       </c>
       <c r="D124" t="n">
-        <v>4236</v>
+        <v>420087</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="8" t="n">
-        <v>41834.7027777778</v>
+        <v>41788.6548611111</v>
       </c>
       <c r="B125" t="s">
-        <v>430</v>
+        <v>329</v>
       </c>
       <c r="C125" t="n">
-        <v>16515</v>
+        <v>4902</v>
       </c>
       <c r="D125" t="n">
-        <v>92244</v>
+        <v>44457</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="8" t="n">
-        <v>41746.2909722222</v>
+        <v>41712.5777777778</v>
       </c>
       <c r="B126" t="s">
-        <v>395</v>
+        <v>123</v>
       </c>
       <c r="C126" t="n">
-        <v>10701</v>
+        <v>744</v>
       </c>
       <c r="D126" t="n">
-        <v>36915</v>
+        <v>9708</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="8" t="n">
-        <v>41702.4131944445</v>
+        <v>41674.5923611111</v>
       </c>
       <c r="B127" t="s">
-        <v>482</v>
+        <v>354</v>
       </c>
       <c r="C127" t="n">
-        <v>100155</v>
+        <v>6171</v>
       </c>
       <c r="D127" t="n">
-        <v>5073894</v>
+        <v>35724</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="8" t="n">
-        <v>42155.5020833333</v>
+        <v>42619.4243055556</v>
       </c>
       <c r="B128" t="s">
-        <v>452</v>
+        <v>39</v>
       </c>
       <c r="C128" t="n">
-        <v>24180</v>
+        <v>216</v>
       </c>
       <c r="D128" t="n">
-        <v>132069</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="8" t="n">
-        <v>41577.5576388889</v>
+        <v>42315.4236111111</v>
       </c>
       <c r="B129" t="s">
-        <v>404</v>
+        <v>160</v>
       </c>
       <c r="C129" t="n">
-        <v>12750</v>
+        <v>990</v>
       </c>
       <c r="D129" t="n">
-        <v>158184</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="8" t="n">
-        <v>41680.5493055556</v>
+        <v>42295.7</v>
       </c>
       <c r="B130" t="s">
-        <v>315</v>
+        <v>52</v>
       </c>
       <c r="C130" t="n">
-        <v>4146</v>
+        <v>309</v>
       </c>
       <c r="D130" t="n">
-        <v>42267</v>
+        <v>50922</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="8" t="n">
-        <v>42582.4590277778</v>
+        <v>42203.5604166667</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="C131" t="n">
-        <v>216</v>
+        <v>18669</v>
       </c>
       <c r="D131" t="n">
-        <v>2340</v>
+        <v>165741</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="8" t="n">
-        <v>41478.7388888889</v>
+        <v>42596.7208333333</v>
       </c>
       <c r="B132" t="s">
-        <v>455</v>
+        <v>27</v>
       </c>
       <c r="C132" t="n">
-        <v>25002</v>
+        <v>153</v>
       </c>
       <c r="D132" t="n">
-        <v>497781</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="8" t="n">
-        <v>41603.3034722222</v>
+        <v>41850.55625</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="C133" t="n">
-        <v>975</v>
+        <v>231</v>
       </c>
       <c r="D133" t="n">
-        <v>3783</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="8" t="n">
-        <v>41674.4736111111</v>
+        <v>41949.4104166667</v>
       </c>
       <c r="B134" t="s">
-        <v>402</v>
+        <v>59</v>
       </c>
       <c r="C134" t="n">
-        <v>12324</v>
+        <v>336</v>
       </c>
       <c r="D134" t="n">
-        <v>52833</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="8" t="n">
-        <v>42193.6673611111</v>
+        <v>42290.7201388889</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>445</v>
       </c>
       <c r="C135" t="n">
-        <v>1383</v>
+        <v>21558</v>
       </c>
       <c r="D135" t="n">
-        <v>3729</v>
+        <v>73161</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="8" t="n">
-        <v>41599.8222222222</v>
+        <v>41868.4520833333</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C136" t="n">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="D136" t="n">
-        <v>1071</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="8" t="n">
-        <v>41585.7986111111</v>
+        <v>41680.5493055556</v>
       </c>
       <c r="B137" t="s">
-        <v>456</v>
+        <v>315</v>
       </c>
       <c r="C137" t="n">
-        <v>25389</v>
+        <v>4146</v>
       </c>
       <c r="D137" t="n">
-        <v>467016</v>
+        <v>42267</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="8" t="n">
-        <v>42024.5736111111</v>
+        <v>41583.7590277778</v>
       </c>
       <c r="B138" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="C138" t="n">
-        <v>10461</v>
+        <v>24375</v>
       </c>
       <c r="D138" t="n">
-        <v>255231</v>
+        <v>75939</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="8" t="n">
-        <v>42584.4069444444</v>
+        <v>41844.4666666667</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C139" t="n">
-        <v>132</v>
+        <v>738</v>
       </c>
       <c r="D139" t="n">
-        <v>216</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="8" t="n">
-        <v>41837.4048611111</v>
+        <v>42061.4152777778</v>
       </c>
       <c r="B140" t="s">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="C140" t="n">
-        <v>71685</v>
+        <v>453</v>
       </c>
       <c r="D140" t="n">
-        <v>313872</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="8" t="n">
-        <v>42218.69375</v>
+        <v>42563.5770833333</v>
       </c>
       <c r="B141" t="s">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="C141" t="n">
-        <v>3972</v>
+        <v>405</v>
       </c>
       <c r="D141" t="n">
-        <v>22899</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="8" t="n">
-        <v>42486.4590277778</v>
+        <v>41673.4618055556</v>
       </c>
       <c r="B142" t="s">
-        <v>23</v>
+        <v>457</v>
       </c>
       <c r="C142" t="n">
-        <v>138</v>
+        <v>25512</v>
       </c>
       <c r="D142" t="n">
-        <v>564</v>
+        <v>139728</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="8" t="n">
-        <v>42580.4319444444</v>
+        <v>42390.7618055556</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="C143" t="n">
-        <v>15</v>
+        <v>570</v>
       </c>
       <c r="D143" t="n">
-        <v>531</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="8" t="n">
-        <v>41850.5652777778</v>
+        <v>41842.6034722222</v>
       </c>
       <c r="B144" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="C144" t="n">
-        <v>369</v>
+        <v>789</v>
       </c>
       <c r="D144" t="n">
-        <v>1530</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="8" t="n">
-        <v>42408.6590277778</v>
+        <v>42337.7229166667</v>
       </c>
       <c r="B145" t="s">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="C145" t="n">
-        <v>5232</v>
+        <v>876</v>
       </c>
       <c r="D145" t="n">
-        <v>29502</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="8" t="n">
-        <v>42421.6666666667</v>
+        <v>42155.5020833333</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>452</v>
       </c>
       <c r="C146" t="n">
-        <v>114</v>
+        <v>24180</v>
       </c>
       <c r="D146" t="n">
-        <v>18435</v>
+        <v>132069</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="8" t="n">
-        <v>42561.3916666667</v>
+        <v>41556.7090277778</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>355</v>
       </c>
       <c r="C147" t="n">
-        <v>18</v>
+        <v>6426</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>76353</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="8" t="n">
-        <v>42315.4236111111</v>
+        <v>41829.74375</v>
       </c>
       <c r="B148" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="C148" t="n">
-        <v>990</v>
+        <v>4425</v>
       </c>
       <c r="D148" t="n">
-        <v>5238</v>
+        <v>26862</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="8" t="n">
-        <v>42090.8888888889</v>
+        <v>41885.5409722222</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C149" t="n">
-        <v>681</v>
+        <v>351</v>
       </c>
       <c r="D149" t="n">
-        <v>2682</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="8" t="n">
-        <v>41632.6055555556</v>
+        <v>42368.5840277778</v>
       </c>
       <c r="B150" t="s">
-        <v>442</v>
+        <v>180</v>
       </c>
       <c r="C150" t="n">
-        <v>20616</v>
+        <v>1197</v>
       </c>
       <c r="D150" t="n">
-        <v>268002</v>
+        <v>30288</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="8" t="n">
-        <v>42331.4625</v>
+        <v>41935.6951388889</v>
       </c>
       <c r="B151" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="C151" t="n">
-        <v>2916</v>
+        <v>828</v>
       </c>
       <c r="D151" t="n">
-        <v>28734</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="8" t="n">
-        <v>41609.4576388889</v>
+        <v>41772.6145833333</v>
       </c>
       <c r="B152" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C152" t="n">
-        <v>11469</v>
+        <v>14127</v>
       </c>
       <c r="D152" t="n">
-        <v>32895</v>
+        <v>75939</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="8" t="n">
-        <v>42420.4027777778</v>
+        <v>42266.5722222222</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="C153" t="n">
-        <v>876</v>
+        <v>1716</v>
       </c>
       <c r="D153" t="n">
-        <v>3003</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="8" t="n">
-        <v>42556.5701388889</v>
+        <v>42368.4590277778</v>
       </c>
       <c r="B154" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="C154" t="n">
-        <v>402</v>
+        <v>927</v>
       </c>
       <c r="D154" t="n">
-        <v>3708</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="8" t="n">
-        <v>41516.6069444444</v>
+        <v>41702.4131944445</v>
       </c>
       <c r="B155" t="s">
-        <v>252</v>
+        <v>482</v>
       </c>
       <c r="C155" t="n">
-        <v>2370</v>
+        <v>100155</v>
       </c>
       <c r="D155" t="n">
-        <v>63243</v>
+        <v>5073894</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="8" t="n">
-        <v>42311.4756944445</v>
+        <v>42453.3180555556</v>
       </c>
       <c r="B156" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C156" t="n">
-        <v>1554</v>
+        <v>1635</v>
       </c>
       <c r="D156" t="n">
-        <v>3087</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="8" t="n">
-        <v>42337.4652777778</v>
+        <v>41744.5743055556</v>
       </c>
       <c r="B157" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="C157" t="n">
-        <v>276</v>
+        <v>2883</v>
       </c>
       <c r="D157" t="n">
-        <v>59640</v>
+        <v>29502</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="8" t="n">
-        <v>41674.5930555556</v>
+        <v>41941.4895833334</v>
       </c>
       <c r="B158" t="s">
-        <v>369</v>
+        <v>169</v>
       </c>
       <c r="C158" t="n">
-        <v>7491</v>
+        <v>1104</v>
       </c>
       <c r="D158" t="n">
-        <v>44625</v>
+        <v>99684</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="8" t="n">
-        <v>41756.7805555556</v>
+        <v>42008.3826388889</v>
       </c>
       <c r="B159" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="C159" t="n">
-        <v>7506</v>
+        <v>20991</v>
       </c>
       <c r="D159" t="n">
-        <v>37392</v>
+        <v>83757</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="8" t="n">
-        <v>42484.5222222222</v>
+        <v>41479.5965277778</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>366</v>
       </c>
       <c r="C160" t="n">
-        <v>2127</v>
+        <v>7416</v>
       </c>
       <c r="D160" t="n">
-        <v>19845</v>
+        <v>136959</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="8" t="n">
-        <v>42596.7208333333</v>
+        <v>41724.9090277778</v>
       </c>
       <c r="B161" t="s">
-        <v>27</v>
+        <v>459</v>
       </c>
       <c r="C161" t="n">
-        <v>153</v>
+        <v>26940</v>
       </c>
       <c r="D161" t="n">
-        <v>1125</v>
+        <v>604179</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="8" t="n">
-        <v>41731.6402777778</v>
+        <v>42221.3909722222</v>
       </c>
       <c r="B162" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="C162" t="n">
-        <v>1632</v>
+        <v>990</v>
       </c>
       <c r="D162" t="n">
-        <v>8364</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="8" t="n">
-        <v>41788.6548611111</v>
+        <v>41842.4784722222</v>
       </c>
       <c r="B163" t="s">
-        <v>329</v>
+        <v>67</v>
       </c>
       <c r="C163" t="n">
-        <v>4902</v>
+        <v>372</v>
       </c>
       <c r="D163" t="n">
-        <v>44457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="8" t="n">
-        <v>42242.7479166667</v>
+        <v>41717.40625</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="C164" t="n">
-        <v>1125</v>
+        <v>4104</v>
       </c>
       <c r="D164" t="n">
-        <v>16662</v>
+        <v>26007</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="8" t="n">
-        <v>42465.4652777778</v>
+        <v>42245.6888888889</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="C165" t="n">
-        <v>1689</v>
+        <v>744</v>
       </c>
       <c r="D165" t="n">
-        <v>12759</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="8" t="n">
-        <v>41718.7597222222</v>
+        <v>41835.6319444445</v>
       </c>
       <c r="B166" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="C166" t="n">
-        <v>18588</v>
+        <v>30495</v>
       </c>
       <c r="D166" t="n">
-        <v>136389</v>
+        <v>122559</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="8" t="n">
-        <v>41943.6041666667</v>
+        <v>42269.6826388889</v>
       </c>
       <c r="B167" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="C167" t="n">
-        <v>735</v>
+        <v>1380</v>
       </c>
       <c r="D167" t="n">
-        <v>2718</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="8" t="n">
-        <v>41567.5479166667</v>
+        <v>42568.4284722222</v>
       </c>
       <c r="B168" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="C168" t="n">
-        <v>1650</v>
+        <v>522</v>
       </c>
       <c r="D168" t="n">
-        <v>8331</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="8" t="n">
-        <v>41632.6888888889</v>
+        <v>41870.4027777778</v>
       </c>
       <c r="B169" t="s">
-        <v>438</v>
+        <v>110</v>
       </c>
       <c r="C169" t="n">
-        <v>19110</v>
+        <v>657</v>
       </c>
       <c r="D169" t="n">
-        <v>265473</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="8" t="n">
-        <v>41743.7479166667</v>
+        <v>42226.4625</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="C170" t="n">
-        <v>1143</v>
+        <v>4191</v>
       </c>
       <c r="D170" t="n">
-        <v>2667</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="8" t="n">
-        <v>42499.6805555556</v>
+        <v>42227.5291666667</v>
       </c>
       <c r="B171" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C171" t="n">
-        <v>291</v>
+        <v>702</v>
       </c>
       <c r="D171" t="n">
-        <v>1563</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="8" t="n">
-        <v>41673.4618055556</v>
+        <v>42211.4847222222</v>
       </c>
       <c r="B172" t="s">
-        <v>457</v>
+        <v>187</v>
       </c>
       <c r="C172" t="n">
-        <v>25512</v>
+        <v>1248</v>
       </c>
       <c r="D172" t="n">
-        <v>139728</v>
+        <v>10551</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="8" t="n">
-        <v>41743.7979166667</v>
+        <v>42562.7576388889</v>
       </c>
       <c r="B173" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C173" t="n">
-        <v>2526</v>
+        <v>108</v>
       </c>
       <c r="D173" t="n">
-        <v>9978</v>
+        <v>8604</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="8" t="n">
-        <v>41949.4104166667</v>
+        <v>42542.7618055556</v>
       </c>
       <c r="B174" t="s">
-        <v>59</v>
+        <v>304</v>
       </c>
       <c r="C174" t="n">
-        <v>336</v>
+        <v>3765</v>
       </c>
       <c r="D174" t="n">
-        <v>3543</v>
+        <v>53013</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="8" t="n">
-        <v>41842.6048611111</v>
+        <v>42323.7756944444</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>410</v>
       </c>
       <c r="C175" t="n">
-        <v>2403</v>
+        <v>13599</v>
       </c>
       <c r="D175" t="n">
-        <v>7422</v>
+        <v>27204</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="8" t="n">
-        <v>42217.9611111111</v>
+        <v>42534.5472222222</v>
       </c>
       <c r="B176" t="s">
-        <v>383</v>
+        <v>62</v>
       </c>
       <c r="C176" t="n">
-        <v>8712</v>
+        <v>345</v>
       </c>
       <c r="D176" t="n">
-        <v>47664</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="8" t="n">
-        <v>42478.6159722222</v>
+        <v>42444.4652777778</v>
       </c>
       <c r="B177" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C177" t="n">
-        <v>2370</v>
+        <v>2622</v>
       </c>
       <c r="D177" t="n">
-        <v>36339</v>
+        <v>28905</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="8" t="n">
-        <v>41835.3868055556</v>
+        <v>41679.7493055556</v>
       </c>
       <c r="B178" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="C178" t="n">
-        <v>1641</v>
+        <v>561</v>
       </c>
       <c r="D178" t="n">
-        <v>16635</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="8" t="n">
-        <v>41729.4416666667</v>
+        <v>41835.7104166667</v>
       </c>
       <c r="B179" t="s">
-        <v>386</v>
+        <v>48</v>
       </c>
       <c r="C179" t="n">
-        <v>8790</v>
+        <v>291</v>
       </c>
       <c r="D179" t="n">
-        <v>59985</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="8" t="n">
-        <v>41692.5479166667</v>
+        <v>42033.6958333333</v>
       </c>
       <c r="B180" t="s">
-        <v>391</v>
+        <v>223</v>
       </c>
       <c r="C180" t="n">
-        <v>9513</v>
+        <v>1776</v>
       </c>
       <c r="D180" t="n">
-        <v>207039</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="8" t="n">
-        <v>41749.4166666667</v>
+        <v>42355.2736111111</v>
       </c>
       <c r="B181" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C181" t="n">
-        <v>5382</v>
+        <v>5286</v>
       </c>
       <c r="D181" t="n">
-        <v>68535</v>
+        <v>38775</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="8" t="n">
-        <v>41941.5631944444</v>
+        <v>41848.7479166667</v>
       </c>
       <c r="B182" t="s">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="C182" t="n">
-        <v>453</v>
+        <v>5184</v>
       </c>
       <c r="D182" t="n">
-        <v>62061</v>
+        <v>62943</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="8" t="n">
-        <v>41941.5625</v>
+        <v>41953.4819444444</v>
       </c>
       <c r="B183" t="s">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="C183" t="n">
-        <v>246</v>
+        <v>3966</v>
       </c>
       <c r="D183" t="n">
-        <v>18795</v>
+        <v>31152</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="8" t="n">
-        <v>42238.3986111111</v>
+        <v>42535.7458333333</v>
       </c>
       <c r="B184" t="s">
-        <v>473</v>
+        <v>83</v>
       </c>
       <c r="C184" t="n">
-        <v>51150</v>
+        <v>471</v>
       </c>
       <c r="D184" t="n">
-        <v>147138</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="8" t="n">
-        <v>41632.6125</v>
+        <v>41556.7097222222</v>
       </c>
       <c r="B185" t="s">
-        <v>439</v>
+        <v>278</v>
       </c>
       <c r="C185" t="n">
-        <v>19191</v>
+        <v>2817</v>
       </c>
       <c r="D185" t="n">
-        <v>336756</v>
+        <v>51273</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="8" t="n">
-        <v>41597.7722222222</v>
+        <v>42562.61875</v>
       </c>
       <c r="B186" t="s">
-        <v>486</v>
+        <v>46</v>
       </c>
       <c r="C186" t="n">
-        <v>459144</v>
+        <v>285</v>
       </c>
       <c r="D186" t="n">
-        <v>2000568</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="8" t="n">
-        <v>41668.4277777778</v>
+        <v>42465.6527777778</v>
       </c>
       <c r="B187" t="s">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="C187" t="n">
-        <v>2316</v>
+        <v>5685</v>
       </c>
       <c r="D187" t="n">
-        <v>19926</v>
+        <v>49869</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="8" t="n">
-        <v>42486.5826388889</v>
+        <v>42233.6222222222</v>
       </c>
       <c r="B188" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="C188" t="n">
-        <v>1716</v>
+        <v>675</v>
       </c>
       <c r="D188" t="n">
-        <v>19482</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="8" t="n">
-        <v>42303.4618055555</v>
+        <v>42318.5680555556</v>
       </c>
       <c r="B189" t="s">
-        <v>357</v>
+        <v>56</v>
       </c>
       <c r="C189" t="n">
-        <v>6585</v>
+        <v>327</v>
       </c>
       <c r="D189" t="n">
-        <v>33459</v>
+        <v>71043</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="8" t="n">
-        <v>42465.6527777778</v>
+        <v>41756.7805555556</v>
       </c>
       <c r="B190" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="C190" t="n">
-        <v>5685</v>
+        <v>7506</v>
       </c>
       <c r="D190" t="n">
-        <v>49869</v>
+        <v>37392</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="8" t="n">
-        <v>41890.4291666667</v>
+        <v>41624.9208333333</v>
       </c>
       <c r="B191" t="s">
-        <v>414</v>
+        <v>34</v>
       </c>
       <c r="C191" t="n">
-        <v>13953</v>
+        <v>210</v>
       </c>
       <c r="D191" t="n">
-        <v>65004</v>
+        <v>774</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="8" t="n">
-        <v>42265.8423611111</v>
+        <v>42259.4222222222</v>
       </c>
       <c r="B192" t="s">
-        <v>424</v>
+        <v>235</v>
       </c>
       <c r="C192" t="n">
-        <v>15540</v>
+        <v>2070</v>
       </c>
       <c r="D192" t="n">
-        <v>45081</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="8" t="n">
-        <v>42332.6791666667</v>
+        <v>42319.5736111111</v>
       </c>
       <c r="B193" t="s">
-        <v>165</v>
+        <v>372</v>
       </c>
       <c r="C193" t="n">
-        <v>1053</v>
+        <v>7893</v>
       </c>
       <c r="D193" t="n">
-        <v>5361</v>
+        <v>24018</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="8" t="n">
-        <v>42029.4708333333</v>
+        <v>41700.7305555556</v>
       </c>
       <c r="B194" t="s">
-        <v>405</v>
+        <v>106</v>
       </c>
       <c r="C194" t="n">
-        <v>13023</v>
+        <v>609</v>
       </c>
       <c r="D194" t="n">
-        <v>149556</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="8" t="n">
-        <v>41533.4395833333</v>
+        <v>42486.5826388889</v>
       </c>
       <c r="B195" t="s">
-        <v>426</v>
+        <v>220</v>
       </c>
       <c r="C195" t="n">
-        <v>15648</v>
+        <v>1716</v>
       </c>
       <c r="D195" t="n">
-        <v>312411</v>
+        <v>19482</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="8" t="n">
-        <v>42053.5916666667</v>
+        <v>42337.4652777778</v>
       </c>
       <c r="B196" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="C196" t="n">
-        <v>1248</v>
+        <v>276</v>
       </c>
       <c r="D196" t="n">
-        <v>159663</v>
+        <v>59640</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="8" t="n">
-        <v>42295.6763888889</v>
+        <v>42186.6409722222</v>
       </c>
       <c r="B197" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C197" t="n">
-        <v>1761</v>
+        <v>2544</v>
       </c>
       <c r="D197" t="n">
-        <v>5289</v>
+        <v>8475</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="8" t="n">
-        <v>41675.4555555556</v>
+        <v>41835.3868055556</v>
       </c>
       <c r="B198" t="s">
-        <v>387</v>
+        <v>213</v>
       </c>
       <c r="C198" t="n">
-        <v>8838</v>
+        <v>1641</v>
       </c>
       <c r="D198" t="n">
-        <v>66540</v>
+        <v>16635</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="8" t="n">
-        <v>42527.3923611111</v>
+        <v>41592.7993055556</v>
       </c>
       <c r="B199" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C199" t="n">
-        <v>297</v>
+        <v>1044</v>
       </c>
       <c r="D199" t="n">
-        <v>906</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="8" t="n">
-        <v>41941.5909722222</v>
+        <v>42554.4645833333</v>
       </c>
       <c r="B200" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="C200" t="n">
-        <v>2667</v>
+        <v>624</v>
       </c>
       <c r="D200" t="n">
-        <v>132558</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="8" t="n">
-        <v>42171.5368055556</v>
+        <v>42211.4583333334</v>
       </c>
       <c r="B201" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="C201" t="n">
-        <v>819</v>
+        <v>1356</v>
       </c>
       <c r="D201" t="n">
-        <v>23490</v>
+        <v>9558</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="8" t="n">
-        <v>41823.5625</v>
+        <v>42561.6375</v>
       </c>
       <c r="B202" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C202" t="n">
-        <v>201</v>
+        <v>690</v>
       </c>
       <c r="D202" t="n">
-        <v>21168</v>
+        <v>8952</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="8" t="n">
-        <v>41632.6076388889</v>
+        <v>41632.6895833333</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>454</v>
       </c>
       <c r="C203" t="n">
-        <v>1533</v>
+        <v>24645</v>
       </c>
       <c r="D203" t="n">
-        <v>14520</v>
+        <v>297213</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="8" t="n">
-        <v>41407.4548611111</v>
+        <v>41556.7090277778</v>
       </c>
       <c r="B204" t="s">
-        <v>485</v>
+        <v>374</v>
       </c>
       <c r="C204" t="n">
-        <v>391962</v>
+        <v>8163</v>
       </c>
       <c r="D204" t="n">
-        <v>23875374</v>
+        <v>96183</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="8" t="n">
-        <v>42343.4069444444</v>
+        <v>41620.4118055556</v>
       </c>
       <c r="B205" t="s">
-        <v>390</v>
+        <v>207</v>
       </c>
       <c r="C205" t="n">
-        <v>9249</v>
+        <v>1557</v>
       </c>
       <c r="D205" t="n">
-        <v>97740</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="8" t="n">
-        <v>42315.4715277778</v>
+        <v>41933.6291666667</v>
       </c>
       <c r="B206" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C206" t="n">
-        <v>870</v>
+        <v>777</v>
       </c>
       <c r="D206" t="n">
-        <v>1374</v>
+        <v>10173</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="8" t="n">
-        <v>41674.5923611111</v>
+        <v>41823.5625</v>
       </c>
       <c r="B207" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="C207" t="n">
-        <v>6171</v>
+        <v>201</v>
       </c>
       <c r="D207" t="n">
-        <v>35724</v>
+        <v>21168</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="8" t="n">
-        <v>42323.3965277778</v>
+        <v>41611.7673611111</v>
       </c>
       <c r="B208" t="s">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="C208" t="n">
-        <v>5364</v>
+        <v>408</v>
       </c>
       <c r="D208" t="n">
-        <v>7629</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="8" t="n">
-        <v>42477.6618055556</v>
+        <v>42221.4222222222</v>
       </c>
       <c r="B209" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C209" t="n">
-        <v>969</v>
+        <v>1110</v>
       </c>
       <c r="D209" t="n">
-        <v>19968</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="8" t="n">
-        <v>42235.4118055556</v>
+        <v>42556.6291666667</v>
       </c>
       <c r="B210" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C210" t="n">
-        <v>693</v>
+        <v>330</v>
       </c>
       <c r="D210" t="n">
-        <v>5502</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="8" t="n">
-        <v>42191.6701388889</v>
+        <v>41556.7097222222</v>
       </c>
       <c r="B211" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="C211" t="n">
-        <v>1266</v>
+        <v>3594</v>
       </c>
       <c r="D211" t="n">
-        <v>8658</v>
+        <v>28536</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="8" t="n">
-        <v>42337.4659722222</v>
+        <v>41760.8791666667</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="C212" t="n">
-        <v>69</v>
+        <v>12705</v>
       </c>
       <c r="D212" t="n">
-        <v>6585</v>
+        <v>52071</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="8" t="n">
-        <v>42226.4694444444</v>
+        <v>42265.8423611111</v>
       </c>
       <c r="B213" t="s">
-        <v>231</v>
+        <v>424</v>
       </c>
       <c r="C213" t="n">
-        <v>2007</v>
+        <v>15540</v>
       </c>
       <c r="D213" t="n">
-        <v>9162</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="8" t="n">
-        <v>42266.5722222222</v>
+        <v>41941.5909722222</v>
       </c>
       <c r="B214" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C214" t="n">
-        <v>1716</v>
+        <v>2667</v>
       </c>
       <c r="D214" t="n">
-        <v>5415</v>
+        <v>132558</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="8" t="n">
-        <v>42495.4708333333</v>
+        <v>42191.6701388889</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C215" t="n">
-        <v>1641</v>
+        <v>1266</v>
       </c>
       <c r="D215" t="n">
-        <v>45462</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="8" t="n">
-        <v>42336.8381944444</v>
+        <v>42493.6229166667</v>
       </c>
       <c r="B216" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="C216" t="n">
-        <v>1392</v>
+        <v>684</v>
       </c>
       <c r="D216" t="n">
-        <v>5811</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="8" t="n">
-        <v>42186.6527777778</v>
+        <v>41745.4194444444</v>
       </c>
       <c r="B217" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="C217" t="n">
-        <v>2073</v>
+        <v>3798</v>
       </c>
       <c r="D217" t="n">
-        <v>11331</v>
+        <v>55311</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="8" t="n">
-        <v>42363.5736111111</v>
+        <v>41407.4569444444</v>
       </c>
       <c r="B218" t="s">
-        <v>325</v>
+        <v>484</v>
       </c>
       <c r="C218" t="n">
-        <v>4578</v>
+        <v>118629</v>
       </c>
       <c r="D218" t="n">
-        <v>23769</v>
+        <v>2590047</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="8" t="n">
-        <v>41623.6847222222</v>
+        <v>42423.7180555556</v>
       </c>
       <c r="B219" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C219" t="n">
-        <v>759</v>
+        <v>528</v>
       </c>
       <c r="D219" t="n">
-        <v>2916</v>
+        <v>9726</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="8" t="n">
-        <v>41933.6291666667</v>
+        <v>42252.4215277778</v>
       </c>
       <c r="B220" t="s">
-        <v>128</v>
+        <v>427</v>
       </c>
       <c r="C220" t="n">
-        <v>777</v>
+        <v>15801</v>
       </c>
       <c r="D220" t="n">
-        <v>10173</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="8" t="n">
-        <v>42076.6083333333</v>
+        <v>42077.5590277778</v>
       </c>
       <c r="B221" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C221" t="n">
-        <v>459</v>
+        <v>801</v>
       </c>
       <c r="D221" t="n">
-        <v>1644</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="8" t="n">
-        <v>41932.6513888889</v>
+        <v>41637.7541666667</v>
       </c>
       <c r="B222" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C222" t="n">
-        <v>3771</v>
+        <v>3438</v>
       </c>
       <c r="D222" t="n">
-        <v>19797</v>
+        <v>21921</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="8" t="n">
-        <v>42205.7416666667</v>
+        <v>42242.7479166667</v>
       </c>
       <c r="B223" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C223" t="n">
-        <v>1020</v>
+        <v>1125</v>
       </c>
       <c r="D223" t="n">
-        <v>1431</v>
+        <v>16662</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="8" t="n">
-        <v>42235.6784722222</v>
+        <v>42361.4055555556</v>
       </c>
       <c r="B224" t="s">
-        <v>371</v>
+        <v>247</v>
       </c>
       <c r="C224" t="n">
-        <v>7767</v>
+        <v>2256</v>
       </c>
       <c r="D224" t="n">
-        <v>34530</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="8" t="n">
-        <v>42266.4416666667</v>
+        <v>42322.8472222222</v>
       </c>
       <c r="B225" t="s">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="C225" t="n">
-        <v>729</v>
+        <v>5874</v>
       </c>
       <c r="D225" t="n">
-        <v>2901</v>
+        <v>20697</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="8" t="n">
-        <v>41666.4180555556</v>
+        <v>41836.4097222222</v>
       </c>
       <c r="B226" t="s">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="C226" t="n">
-        <v>6042</v>
+        <v>237</v>
       </c>
       <c r="D226" t="n">
-        <v>41484</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="8" t="n">
-        <v>42554.6138888889</v>
+        <v>42481.4388888889</v>
       </c>
       <c r="B227" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="C227" t="n">
-        <v>405</v>
+        <v>2469</v>
       </c>
       <c r="D227" t="n">
-        <v>1923</v>
+        <v>11454</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="8" t="n">
-        <v>41941.5638888889</v>
+        <v>41723.6104166667</v>
       </c>
       <c r="B228" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="C228" t="n">
-        <v>474</v>
+        <v>2250</v>
       </c>
       <c r="D228" t="n">
-        <v>44823</v>
+        <v>17721</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="8" t="n">
-        <v>42178.4180555556</v>
+        <v>41718.7597222222</v>
       </c>
       <c r="B229" t="s">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="C229" t="n">
-        <v>1383</v>
+        <v>18588</v>
       </c>
       <c r="D229" t="n">
-        <v>5739</v>
+        <v>136389</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="8" t="n">
-        <v>42355.2736111111</v>
+        <v>42527.3923611111</v>
       </c>
       <c r="B230" t="s">
-        <v>339</v>
+        <v>50</v>
       </c>
       <c r="C230" t="n">
-        <v>5286</v>
+        <v>297</v>
       </c>
       <c r="D230" t="n">
-        <v>38775</v>
+        <v>906</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="8" t="n">
-        <v>42235.7493055556</v>
+        <v>42541.4701388889</v>
       </c>
       <c r="B231" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="C231" t="n">
-        <v>1584</v>
+        <v>468</v>
       </c>
       <c r="D231" t="n">
-        <v>1467</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="8" t="n">
-        <v>41632.6090277778</v>
+        <v>41597.7659722222</v>
       </c>
       <c r="B232" t="s">
-        <v>428</v>
+        <v>279</v>
       </c>
       <c r="C232" t="n">
-        <v>15828</v>
+        <v>2835</v>
       </c>
       <c r="D232" t="n">
-        <v>237585</v>
+        <v>23565</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="8" t="n">
-        <v>42246.5756944444</v>
+        <v>41516.6090277778</v>
       </c>
       <c r="B233" t="s">
-        <v>151</v>
+        <v>479</v>
       </c>
       <c r="C233" t="n">
-        <v>912</v>
+        <v>79074</v>
       </c>
       <c r="D233" t="n">
-        <v>6528</v>
+        <v>1583538</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="8" t="n">
-        <v>41921.7819444445</v>
+        <v>42417.4618055555</v>
       </c>
       <c r="B234" t="s">
-        <v>95</v>
+        <v>276</v>
       </c>
       <c r="C234" t="n">
-        <v>540</v>
+        <v>2766</v>
       </c>
       <c r="D234" t="n">
-        <v>3609</v>
+        <v>17403</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="8" t="n">
-        <v>42230.9340277778</v>
+        <v>42363.5736111111</v>
       </c>
       <c r="B235" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="C235" t="n">
-        <v>7149</v>
+        <v>4578</v>
       </c>
       <c r="D235" t="n">
-        <v>10998</v>
+        <v>23769</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="8" t="n">
-        <v>42247.3798611111</v>
+        <v>42298.425</v>
       </c>
       <c r="B236" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C236" t="n">
-        <v>2211</v>
+        <v>2607</v>
       </c>
       <c r="D236" t="n">
-        <v>7845</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="8" t="n">
-        <v>42366.6166666667</v>
+        <v>41632.6145833333</v>
       </c>
       <c r="B237" t="s">
-        <v>337</v>
+        <v>475</v>
       </c>
       <c r="C237" t="n">
-        <v>5265</v>
+        <v>58215</v>
       </c>
       <c r="D237" t="n">
-        <v>17373</v>
+        <v>645114</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="8" t="n">
-        <v>41935.6958333333</v>
+        <v>42260.4527777778</v>
       </c>
       <c r="B238" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C238" t="n">
-        <v>678</v>
+        <v>855</v>
       </c>
       <c r="D238" t="n">
-        <v>3435</v>
+        <v>954</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="8" t="n">
-        <v>41940.7173611111</v>
+        <v>42534.5527777778</v>
       </c>
       <c r="B239" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="C239" t="n">
-        <v>1173</v>
+        <v>438</v>
       </c>
       <c r="D239" t="n">
-        <v>3543</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="8" t="n">
-        <v>42561.6375</v>
+        <v>42010.4722222222</v>
       </c>
       <c r="B240" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="C240" t="n">
-        <v>690</v>
+        <v>22860</v>
       </c>
       <c r="D240" t="n">
-        <v>8952</v>
+        <v>250029</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="8" t="n">
-        <v>42290.7201388889</v>
+        <v>41837.7375</v>
       </c>
       <c r="B241" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="C241" t="n">
-        <v>21558</v>
+        <v>106950</v>
       </c>
       <c r="D241" t="n">
-        <v>73161</v>
+        <v>810180</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="8" t="n">
-        <v>42571.4798611111</v>
+        <v>41850.5569444444</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C242" t="n">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="D242" t="n">
-        <v>3873</v>
+        <v>909</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="8" t="n">
-        <v>42322.5638888889</v>
+        <v>42555.7444444444</v>
       </c>
       <c r="B243" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C243" t="n">
-        <v>897</v>
+        <v>606</v>
       </c>
       <c r="D243" t="n">
-        <v>5403</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="8" t="n">
-        <v>41723.6104166667</v>
+        <v>42432.6541666667</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>419</v>
       </c>
       <c r="C244" t="n">
-        <v>2250</v>
+        <v>14541</v>
       </c>
       <c r="D244" t="n">
-        <v>17721</v>
+        <v>301101</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="8" t="n">
-        <v>42465.6055555556</v>
+        <v>42366.6166666667</v>
       </c>
       <c r="B245" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="C245" t="n">
-        <v>3438</v>
+        <v>5265</v>
       </c>
       <c r="D245" t="n">
-        <v>63216</v>
+        <v>17373</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="8" t="n">
-        <v>42080.6756944444</v>
+        <v>42247.4173611111</v>
       </c>
       <c r="B246" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C246" t="n">
-        <v>336</v>
+        <v>810</v>
       </c>
       <c r="D246" t="n">
-        <v>1170</v>
+        <v>594</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="8" t="n">
-        <v>41711.4208333333</v>
+        <v>42316.3881944444</v>
       </c>
       <c r="B247" t="s">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="C247" t="n">
-        <v>4332</v>
+        <v>807</v>
       </c>
       <c r="D247" t="n">
-        <v>18765</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="8" t="n">
-        <v>42389.9055555556</v>
+        <v>41660.5430555556</v>
       </c>
       <c r="B248" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="C248" t="n">
-        <v>1509</v>
+        <v>2133</v>
       </c>
       <c r="D248" t="n">
-        <v>6036</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="8" t="n">
-        <v>42259.4548611111</v>
+        <v>42171.5368055556</v>
       </c>
       <c r="B249" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="C249" t="n">
-        <v>1119</v>
+        <v>819</v>
       </c>
       <c r="D249" t="n">
-        <v>6819</v>
+        <v>23490</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="8" t="n">
-        <v>42571.6375</v>
+        <v>41407.4548611111</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>485</v>
       </c>
       <c r="C250" t="n">
-        <v>36</v>
+        <v>391962</v>
       </c>
       <c r="D250" t="n">
-        <v>3753</v>
+        <v>23875374</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="8" t="n">
-        <v>41757.525</v>
+        <v>42351.4381944444</v>
       </c>
       <c r="B251" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="C251" t="n">
-        <v>6105</v>
+        <v>15246</v>
       </c>
       <c r="D251" t="n">
-        <v>51897</v>
+        <v>55863</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="8" t="n">
-        <v>42260.4527777778</v>
+        <v>41632.6125</v>
       </c>
       <c r="B252" t="s">
-        <v>144</v>
+        <v>409</v>
       </c>
       <c r="C252" t="n">
-        <v>855</v>
+        <v>13584</v>
       </c>
       <c r="D252" t="n">
-        <v>954</v>
+        <v>268599</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="8" t="n">
-        <v>42543.4472222222</v>
+        <v>41596.7638888889</v>
       </c>
       <c r="B253" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="C253" t="n">
-        <v>501</v>
+        <v>2622</v>
       </c>
       <c r="D253" t="n">
-        <v>5136</v>
+        <v>11007</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="8" t="n">
-        <v>41739.6152777778</v>
+        <v>42492.4743055556</v>
       </c>
       <c r="B254" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="C254" t="n">
-        <v>387</v>
+        <v>2253</v>
       </c>
       <c r="D254" t="n">
-        <v>2322</v>
+        <v>13818</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="8" t="n">
-        <v>41659.7631944444</v>
+        <v>42569.4048611111</v>
       </c>
       <c r="B255" t="s">
-        <v>361</v>
+        <v>193</v>
       </c>
       <c r="C255" t="n">
-        <v>6972</v>
+        <v>1341</v>
       </c>
       <c r="D255" t="n">
-        <v>102273</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="8" t="n">
-        <v>41935.6986111111</v>
+        <v>41611.5048611111</v>
       </c>
       <c r="B256" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C256" t="n">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="D256" t="n">
-        <v>3978</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="8" t="n">
-        <v>42551.4201388889</v>
+        <v>42198.4</v>
       </c>
       <c r="B257" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="C257" t="n">
-        <v>1221</v>
+        <v>2499</v>
       </c>
       <c r="D257" t="n">
-        <v>4533</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="8" t="n">
-        <v>42224.4513888889</v>
+        <v>42339.6923611111</v>
       </c>
       <c r="B258" t="s">
-        <v>396</v>
+        <v>154</v>
       </c>
       <c r="C258" t="n">
-        <v>10863</v>
+        <v>939</v>
       </c>
       <c r="D258" t="n">
-        <v>52443</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="8" t="n">
-        <v>42070.55625</v>
+        <v>42221.4090277778</v>
       </c>
       <c r="B259" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="C259" t="n">
-        <v>762</v>
+        <v>1614</v>
       </c>
       <c r="D259" t="n">
-        <v>5787</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="8" t="n">
-        <v>41772.6145833333</v>
+        <v>41943.6041666667</v>
       </c>
       <c r="B260" t="s">
-        <v>415</v>
+        <v>121</v>
       </c>
       <c r="C260" t="n">
-        <v>14127</v>
+        <v>735</v>
       </c>
       <c r="D260" t="n">
-        <v>75939</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="8" t="n">
-        <v>41556.7097222222</v>
+        <v>41674.5743055556</v>
       </c>
       <c r="B261" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="C261" t="n">
-        <v>3594</v>
+        <v>4719</v>
       </c>
       <c r="D261" t="n">
-        <v>28536</v>
+        <v>50451</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="8" t="n">
-        <v>42219.5763888889</v>
+        <v>42361.5534722222</v>
       </c>
       <c r="B262" t="s">
-        <v>467</v>
+        <v>149</v>
       </c>
       <c r="C262" t="n">
-        <v>33348</v>
+        <v>891</v>
       </c>
       <c r="D262" t="n">
-        <v>76566</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="8" t="n">
-        <v>42107.5625</v>
+        <v>42541.5868055555</v>
       </c>
       <c r="B263" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="C263" t="n">
-        <v>1158</v>
+        <v>747</v>
       </c>
       <c r="D263" t="n">
-        <v>14997</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="8" t="n">
-        <v>41758.4333333333</v>
+        <v>42247.3986111111</v>
       </c>
       <c r="B264" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="C264" t="n">
-        <v>8205</v>
+        <v>10233</v>
       </c>
       <c r="D264" t="n">
-        <v>22563</v>
+        <v>19179</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="8" t="n">
-        <v>42084.0055555556</v>
+        <v>42211.5145833333</v>
       </c>
       <c r="B265" t="s">
-        <v>13</v>
+        <v>466</v>
       </c>
       <c r="C265" t="n">
-        <v>72</v>
+        <v>33093</v>
       </c>
       <c r="D265" t="n">
-        <v>117</v>
+        <v>45141</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="8" t="n">
-        <v>41531.6409722222</v>
+        <v>41674.4736111111</v>
       </c>
       <c r="B266" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="C266" t="n">
-        <v>63981</v>
+        <v>12324</v>
       </c>
       <c r="D266" t="n">
-        <v>1032588</v>
+        <v>52833</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="8" t="n">
-        <v>42221.4090277778</v>
+        <v>42537.4493055556</v>
       </c>
       <c r="B267" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="C267" t="n">
-        <v>1614</v>
+        <v>60</v>
       </c>
       <c r="D267" t="n">
-        <v>4431</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="8" t="n">
-        <v>41597.7659722222</v>
+        <v>41863.6993055556</v>
       </c>
       <c r="B268" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C268" t="n">
-        <v>2835</v>
+        <v>2454</v>
       </c>
       <c r="D268" t="n">
-        <v>23565</v>
+        <v>22764</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="8" t="n">
-        <v>42245.4902777778</v>
+        <v>42583.7020833333</v>
       </c>
       <c r="B269" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="C269" t="n">
-        <v>381</v>
+        <v>933</v>
       </c>
       <c r="D269" t="n">
-        <v>2025</v>
+        <v>10341</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="8" t="n">
-        <v>42286.8270833333</v>
+        <v>42024.5736111111</v>
       </c>
       <c r="B270" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="C270" t="n">
-        <v>4920</v>
+        <v>2856</v>
       </c>
       <c r="D270" t="n">
-        <v>7380</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="8" t="n">
-        <v>42259.4361111111</v>
+        <v>41592.7868055556</v>
       </c>
       <c r="B271" t="s">
-        <v>119</v>
+        <v>480</v>
       </c>
       <c r="C271" t="n">
-        <v>708</v>
+        <v>85434</v>
       </c>
       <c r="D271" t="n">
-        <v>2754</v>
+        <v>3720903</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="8" t="n">
-        <v>41943.3833333333</v>
+        <v>42325.6638888889</v>
       </c>
       <c r="B272" t="s">
-        <v>96</v>
+        <v>397</v>
       </c>
       <c r="C272" t="n">
-        <v>549</v>
+        <v>10896</v>
       </c>
       <c r="D272" t="n">
-        <v>5856</v>
+        <v>18759</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="8" t="n">
-        <v>41596.7638888889</v>
+        <v>42218.69375</v>
       </c>
       <c r="B273" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="C273" t="n">
-        <v>2622</v>
+        <v>3972</v>
       </c>
       <c r="D273" t="n">
-        <v>11007</v>
+        <v>22899</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="8" t="n">
-        <v>41737.4368055556</v>
+        <v>42233.3791666667</v>
       </c>
       <c r="B274" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="C274" t="n">
-        <v>885</v>
+        <v>420</v>
       </c>
       <c r="D274" t="n">
-        <v>2163</v>
+        <v>774</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="8" t="n">
-        <v>42443.4361111111</v>
+        <v>42317.4076388889</v>
       </c>
       <c r="B275" t="s">
-        <v>87</v>
+        <v>284</v>
       </c>
       <c r="C275" t="n">
-        <v>513</v>
+        <v>3000</v>
       </c>
       <c r="D275" t="n">
-        <v>8130</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="8" t="n">
-        <v>42233.3791666667</v>
+        <v>42225.7486111111</v>
       </c>
       <c r="B276" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C276" t="n">
-        <v>420</v>
+        <v>525</v>
       </c>
       <c r="D276" t="n">
-        <v>774</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="8" t="n">
-        <v>42481.4388888889</v>
+        <v>41729.44375</v>
       </c>
       <c r="B277" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C277" t="n">
-        <v>2469</v>
+        <v>2604</v>
       </c>
       <c r="D277" t="n">
-        <v>11454</v>
+        <v>14961</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="8" t="n">
-        <v>42198.4</v>
+        <v>42224.4513888889</v>
       </c>
       <c r="B278" t="s">
-        <v>258</v>
+        <v>396</v>
       </c>
       <c r="C278" t="n">
-        <v>2499</v>
+        <v>10863</v>
       </c>
       <c r="D278" t="n">
-        <v>8340</v>
+        <v>52443</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="8" t="n">
-        <v>42417.4618055555</v>
+        <v>41681.6840277778</v>
       </c>
       <c r="B279" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="C279" t="n">
-        <v>2766</v>
+        <v>22332</v>
       </c>
       <c r="D279" t="n">
-        <v>17403</v>
+        <v>41361</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="8" t="n">
-        <v>41666.4277777778</v>
+        <v>41692.5479166667</v>
       </c>
       <c r="B280" t="s">
-        <v>201</v>
+        <v>391</v>
       </c>
       <c r="C280" t="n">
-        <v>1458</v>
+        <v>9513</v>
       </c>
       <c r="D280" t="n">
-        <v>10392</v>
+        <v>207039</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="8" t="n">
-        <v>41862.5958333333</v>
+        <v>41658.5854166667</v>
       </c>
       <c r="B281" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="C281" t="n">
-        <v>5343</v>
+        <v>13065</v>
       </c>
       <c r="D281" t="n">
-        <v>12339</v>
+        <v>788607</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="8" t="n">
-        <v>41611.5048611111</v>
+        <v>41585.4097222222</v>
       </c>
       <c r="B282" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="C282" t="n">
-        <v>594</v>
+        <v>2079</v>
       </c>
       <c r="D282" t="n">
-        <v>3015</v>
+        <v>14226</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="8" t="n">
-        <v>41658.5854166667</v>
+        <v>41847.4743055556</v>
       </c>
       <c r="B283" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="C283" t="n">
-        <v>13065</v>
+        <v>8280</v>
       </c>
       <c r="D283" t="n">
-        <v>788607</v>
+        <v>21159</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="8" t="n">
-        <v>42031.7340277778</v>
+        <v>41941.5625</v>
       </c>
       <c r="B284" t="s">
-        <v>373</v>
+        <v>42</v>
       </c>
       <c r="C284" t="n">
-        <v>8076</v>
+        <v>246</v>
       </c>
       <c r="D284" t="n">
-        <v>31119</v>
+        <v>18795</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="8" t="n">
-        <v>42318.5680555556</v>
+        <v>42557.4347222222</v>
       </c>
       <c r="B285" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="C285" t="n">
-        <v>327</v>
+        <v>2889</v>
       </c>
       <c r="D285" t="n">
-        <v>71043</v>
+        <v>19962</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="8" t="n">
-        <v>41516.6090277778</v>
+        <v>41729.4416666667</v>
       </c>
       <c r="B286" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="C286" t="n">
-        <v>79074</v>
+        <v>8790</v>
       </c>
       <c r="D286" t="n">
-        <v>1583538</v>
+        <v>59985</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="8" t="n">
-        <v>41584.5743055556</v>
+        <v>42373.8881944444</v>
       </c>
       <c r="B287" t="s">
-        <v>413</v>
+        <v>249</v>
       </c>
       <c r="C287" t="n">
-        <v>13911</v>
+        <v>2310</v>
       </c>
       <c r="D287" t="n">
-        <v>98808</v>
+        <v>14142</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="8" t="n">
-        <v>42114.4069444445</v>
+        <v>42580.4319444444</v>
       </c>
       <c r="B288" t="s">
-        <v>364</v>
+        <v>4</v>
       </c>
       <c r="C288" t="n">
-        <v>7227</v>
+        <v>15</v>
       </c>
       <c r="D288" t="n">
-        <v>64599</v>
+        <v>531</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="8" t="n">
-        <v>41911.4944444444</v>
+        <v>42077.3944444444</v>
       </c>
       <c r="B289" t="s">
-        <v>346</v>
+        <v>28</v>
       </c>
       <c r="C289" t="n">
-        <v>5421</v>
+        <v>171</v>
       </c>
       <c r="D289" t="n">
-        <v>53001</v>
+        <v>684</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="8" t="n">
-        <v>41556.7083333333</v>
+        <v>42582.4590277778</v>
       </c>
       <c r="B290" t="s">
-        <v>418</v>
+        <v>38</v>
       </c>
       <c r="C290" t="n">
-        <v>14493</v>
+        <v>216</v>
       </c>
       <c r="D290" t="n">
-        <v>201855</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="8" t="n">
-        <v>41681.6138888889</v>
+        <v>42288.3854166667</v>
       </c>
       <c r="B291" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="C291" t="n">
-        <v>22437</v>
+        <v>11904</v>
       </c>
       <c r="D291" t="n">
-        <v>523839</v>
+        <v>52650</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="8" t="n">
-        <v>42597.43125</v>
+        <v>41729.4451388889</v>
       </c>
       <c r="B292" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="C292" t="n">
-        <v>114</v>
+        <v>3549</v>
       </c>
       <c r="D292" t="n">
-        <v>16743</v>
+        <v>38304</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="8" t="n">
-        <v>42010.4722222222</v>
+        <v>41890.4291666667</v>
       </c>
       <c r="B293" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="C293" t="n">
-        <v>22860</v>
+        <v>13953</v>
       </c>
       <c r="D293" t="n">
-        <v>250029</v>
+        <v>65004</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="8" t="n">
-        <v>42249.4256944444</v>
+        <v>41739.9138888889</v>
       </c>
       <c r="B294" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C294" t="n">
-        <v>1257</v>
+        <v>1851</v>
       </c>
       <c r="D294" t="n">
-        <v>3915</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="8" t="n">
-        <v>42027.4798611111</v>
+        <v>41758.4333333333</v>
       </c>
       <c r="B295" t="s">
-        <v>461</v>
+        <v>375</v>
       </c>
       <c r="C295" t="n">
-        <v>30393</v>
+        <v>8205</v>
       </c>
       <c r="D295" t="n">
-        <v>100152</v>
+        <v>22563</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="8" t="n">
-        <v>42065.4298611111</v>
+        <v>41666.4180555556</v>
       </c>
       <c r="B296" t="s">
-        <v>33</v>
+        <v>352</v>
       </c>
       <c r="C296" t="n">
-        <v>201</v>
+        <v>6042</v>
       </c>
       <c r="D296" t="n">
-        <v>1251</v>
+        <v>41484</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="8" t="n">
-        <v>41584.5430555556</v>
+        <v>41533.4395833333</v>
       </c>
       <c r="B297" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C297" t="n">
-        <v>18540</v>
+        <v>15648</v>
       </c>
       <c r="D297" t="n">
-        <v>181170</v>
+        <v>312411</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="8" t="n">
-        <v>42405.4201388889</v>
+        <v>41632.6152777778</v>
       </c>
       <c r="B298" t="s">
-        <v>163</v>
+        <v>463</v>
       </c>
       <c r="C298" t="n">
-        <v>1029</v>
+        <v>31437</v>
       </c>
       <c r="D298" t="n">
-        <v>5115</v>
+        <v>238575</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="8" t="n">
-        <v>42339.6923611111</v>
+        <v>42387.6083333333</v>
       </c>
       <c r="B299" t="s">
-        <v>154</v>
+        <v>358</v>
       </c>
       <c r="C299" t="n">
-        <v>939</v>
+        <v>6819</v>
       </c>
       <c r="D299" t="n">
-        <v>1710</v>
+        <v>33006</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="8" t="n">
-        <v>41842.6034722222</v>
+        <v>41567.5479166667</v>
       </c>
       <c r="B300" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="C300" t="n">
-        <v>789</v>
+        <v>1650</v>
       </c>
       <c r="D300" t="n">
-        <v>306</v>
+        <v>8331</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="8" t="n">
-        <v>42540.6965277778</v>
+        <v>41407.4569444444</v>
       </c>
       <c r="B301" t="s">
-        <v>29</v>
+        <v>474</v>
       </c>
       <c r="C301" t="n">
-        <v>180</v>
+        <v>51879</v>
       </c>
       <c r="D301" t="n">
-        <v>1002</v>
+        <v>1189731</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="8" t="n">
-        <v>42203.5604166667</v>
+        <v>41837.4048611111</v>
       </c>
       <c r="B302" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="C302" t="n">
-        <v>18669</v>
+        <v>71685</v>
       </c>
       <c r="D302" t="n">
-        <v>165741</v>
+        <v>313872</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="8" t="n">
-        <v>41679.7493055556</v>
+        <v>42435.6986111111</v>
       </c>
       <c r="B303" t="s">
-        <v>99</v>
+        <v>380</v>
       </c>
       <c r="C303" t="n">
-        <v>561</v>
+        <v>8442</v>
       </c>
       <c r="D303" t="n">
-        <v>1440</v>
+        <v>69975</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="8" t="n">
-        <v>42387.6083333333</v>
+        <v>42218.6381944444</v>
       </c>
       <c r="B304" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
       <c r="C304" t="n">
-        <v>6819</v>
+        <v>39972</v>
       </c>
       <c r="D304" t="n">
-        <v>33006</v>
+        <v>1884150</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="8" t="n">
-        <v>42361.4055555556</v>
+        <v>41632.6180555556</v>
       </c>
       <c r="B305" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="C305" t="n">
-        <v>2256</v>
+        <v>3531</v>
       </c>
       <c r="D305" t="n">
-        <v>7224</v>
+        <v>29892</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="8" t="n">
-        <v>42288.3854166667</v>
+        <v>42535.5666666667</v>
       </c>
       <c r="B306" t="s">
-        <v>400</v>
+        <v>129</v>
       </c>
       <c r="C306" t="n">
-        <v>11904</v>
+        <v>777</v>
       </c>
       <c r="D306" t="n">
-        <v>52650</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="8" t="n">
-        <v>42568.4805555556</v>
+        <v>41743.7979166667</v>
       </c>
       <c r="B307" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="C307" t="n">
-        <v>630</v>
+        <v>2526</v>
       </c>
       <c r="D307" t="n">
-        <v>9618</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="8" t="n">
-        <v>41836.4097222222</v>
+        <v>42311.6923611111</v>
       </c>
       <c r="B308" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="C308" t="n">
-        <v>237</v>
+        <v>1833</v>
       </c>
       <c r="D308" t="n">
-        <v>1365</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="8" t="n">
-        <v>42033.6958333333</v>
+        <v>42066.5701388889</v>
       </c>
       <c r="B309" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="C309" t="n">
-        <v>1776</v>
+        <v>537</v>
       </c>
       <c r="D309" t="n">
-        <v>4344</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="8" t="n">
-        <v>42537.5638888889</v>
+        <v>42405.4201388889</v>
       </c>
       <c r="B310" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="C310" t="n">
-        <v>558</v>
+        <v>1029</v>
       </c>
       <c r="D310" t="n">
-        <v>11958</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="8" t="n">
-        <v>41632.6152777778</v>
+        <v>42565.6034722222</v>
       </c>
       <c r="B311" t="s">
-        <v>463</v>
+        <v>8</v>
       </c>
       <c r="C311" t="n">
-        <v>31437</v>
+        <v>42</v>
       </c>
       <c r="D311" t="n">
-        <v>238575</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="8" t="n">
-        <v>42535.5666666667</v>
+        <v>42053.5916666667</v>
       </c>
       <c r="B312" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="C312" t="n">
-        <v>777</v>
+        <v>1248</v>
       </c>
       <c r="D312" t="n">
-        <v>2895</v>
+        <v>159663</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="8" t="n">
-        <v>42211.4847222222</v>
+        <v>41584.5430555556</v>
       </c>
       <c r="B313" t="s">
-        <v>187</v>
+        <v>434</v>
       </c>
       <c r="C313" t="n">
-        <v>1248</v>
+        <v>18540</v>
       </c>
       <c r="D313" t="n">
-        <v>10551</v>
+        <v>181170</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="8" t="n">
-        <v>42269.6826388889</v>
+        <v>42569.4201388889</v>
       </c>
       <c r="B314" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="C314" t="n">
-        <v>1380</v>
+        <v>210</v>
       </c>
       <c r="D314" t="n">
-        <v>1809</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="8" t="n">
-        <v>42562.7576388889</v>
+        <v>42545.9166666667</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C315" t="n">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="D315" t="n">
-        <v>8604</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="8" t="n">
-        <v>41592.7993055556</v>
+        <v>42329.5729166667</v>
       </c>
       <c r="B316" t="s">
-        <v>164</v>
+        <v>362</v>
       </c>
       <c r="C316" t="n">
-        <v>1044</v>
+        <v>7116</v>
       </c>
       <c r="D316" t="n">
-        <v>3681</v>
+        <v>12798</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="8" t="n">
-        <v>41632.6138888889</v>
+        <v>41597.7722222222</v>
       </c>
       <c r="B317" t="s">
-        <v>416</v>
+        <v>486</v>
       </c>
       <c r="C317" t="n">
-        <v>14166</v>
+        <v>459144</v>
       </c>
       <c r="D317" t="n">
-        <v>215010</v>
+        <v>2000568</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="8" t="n">
-        <v>41583.7590277778</v>
+        <v>42571.6375</v>
       </c>
       <c r="B318" t="s">
-        <v>453</v>
+        <v>6</v>
       </c>
       <c r="C318" t="n">
-        <v>24375</v>
+        <v>36</v>
       </c>
       <c r="D318" t="n">
-        <v>75939</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="8" t="n">
-        <v>41531.6416666667</v>
+        <v>42311.4756944445</v>
       </c>
       <c r="B319" t="s">
-        <v>468</v>
+        <v>206</v>
       </c>
       <c r="C319" t="n">
-        <v>36387</v>
+        <v>1554</v>
       </c>
       <c r="D319" t="n">
-        <v>382851</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="8" t="n">
-        <v>42217.9006944444</v>
+        <v>42186.6527777778</v>
       </c>
       <c r="B320" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="C320" t="n">
-        <v>3096</v>
+        <v>2073</v>
       </c>
       <c r="D320" t="n">
-        <v>5547</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="8" t="n">
-        <v>42492.4743055556</v>
+        <v>42441.8923611111</v>
       </c>
       <c r="B321" t="s">
-        <v>246</v>
+        <v>407</v>
       </c>
       <c r="C321" t="n">
-        <v>2253</v>
+        <v>13116</v>
       </c>
       <c r="D321" t="n">
-        <v>13818</v>
+        <v>56670</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="8" t="n">
-        <v>41744.6006944445</v>
+        <v>42214.6368055556</v>
       </c>
       <c r="B322" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C322" t="n">
-        <v>1185</v>
+        <v>1095</v>
       </c>
       <c r="D322" t="n">
-        <v>7620</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="8" t="n">
-        <v>41823.5625</v>
+        <v>42540.6965277778</v>
       </c>
       <c r="B323" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="C323" t="n">
-        <v>2586</v>
+        <v>180</v>
       </c>
       <c r="D323" t="n">
-        <v>31803</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="8" t="n">
-        <v>42561.5805555556</v>
+        <v>42255.6194444444</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>429</v>
       </c>
       <c r="C324" t="n">
-        <v>57</v>
+        <v>15831</v>
       </c>
       <c r="D324" t="n">
-        <v>2754</v>
+        <v>32895</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="8" t="n">
-        <v>42296.4673611111</v>
+        <v>41660.6284722222</v>
       </c>
       <c r="B325" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C325" t="n">
-        <v>3855</v>
+        <v>5154</v>
       </c>
       <c r="D325" t="n">
-        <v>8976</v>
+        <v>15486</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="8" t="n">
-        <v>42008.3826388889</v>
+        <v>41675.4555555556</v>
       </c>
       <c r="B326" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="C326" t="n">
-        <v>20991</v>
+        <v>8838</v>
       </c>
       <c r="D326" t="n">
-        <v>83757</v>
+        <v>66540</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="8" t="n">
-        <v>41592.7868055556</v>
+        <v>42449.6458333333</v>
       </c>
       <c r="B327" t="s">
-        <v>480</v>
+        <v>88</v>
       </c>
       <c r="C327" t="n">
-        <v>85434</v>
+        <v>513</v>
       </c>
       <c r="D327" t="n">
-        <v>3720903</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="8" t="n">
-        <v>42252.4215277778</v>
+        <v>42259.4388888889</v>
       </c>
       <c r="B328" t="s">
-        <v>427</v>
+        <v>233</v>
       </c>
       <c r="C328" t="n">
-        <v>15801</v>
+        <v>2037</v>
       </c>
       <c r="D328" t="n">
-        <v>58500</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="8" t="n">
-        <v>42562.4222222222</v>
+        <v>41407.4625</v>
       </c>
       <c r="B329" t="s">
-        <v>70</v>
+        <v>478</v>
       </c>
       <c r="C329" t="n">
-        <v>390</v>
+        <v>78792</v>
       </c>
       <c r="D329" t="n">
-        <v>3543</v>
+        <v>4229313</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="8" t="n">
-        <v>42337.7229166667</v>
+        <v>42428.6625</v>
       </c>
       <c r="B330" t="s">
-        <v>146</v>
+        <v>384</v>
       </c>
       <c r="C330" t="n">
-        <v>876</v>
+        <v>8712</v>
       </c>
       <c r="D330" t="n">
-        <v>2361</v>
+        <v>19290</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="8" t="n">
-        <v>41673.4048611111</v>
+        <v>42217.9611111111</v>
       </c>
       <c r="B331" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="C331" t="n">
-        <v>13398</v>
+        <v>8712</v>
       </c>
       <c r="D331" t="n">
-        <v>70137</v>
+        <v>47664</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="8" t="n">
-        <v>41407.4625</v>
+        <v>41609.4576388889</v>
       </c>
       <c r="B332" t="s">
-        <v>478</v>
+        <v>398</v>
       </c>
       <c r="C332" t="n">
-        <v>78792</v>
+        <v>11469</v>
       </c>
       <c r="D332" t="n">
-        <v>4229313</v>
+        <v>32895</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="8" t="n">
-        <v>42211.4604166667</v>
+        <v>42571.6145833333</v>
       </c>
       <c r="B333" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="C333" t="n">
-        <v>2754</v>
+        <v>522</v>
       </c>
       <c r="D333" t="n">
-        <v>20124</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="8" t="n">
-        <v>41623.7277777778</v>
+        <v>42544.5881944444</v>
       </c>
       <c r="B334" t="s">
-        <v>411</v>
+        <v>102</v>
       </c>
       <c r="C334" t="n">
-        <v>13650</v>
+        <v>570</v>
       </c>
       <c r="D334" t="n">
-        <v>344760</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="8" t="n">
-        <v>41837.7375</v>
+        <v>42238.8472222222</v>
       </c>
       <c r="B335" t="s">
-        <v>483</v>
+        <v>293</v>
       </c>
       <c r="C335" t="n">
-        <v>106950</v>
+        <v>3438</v>
       </c>
       <c r="D335" t="n">
-        <v>810180</v>
+        <v>6516</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="8" t="n">
-        <v>41556.7090277778</v>
+        <v>42290.4694444445</v>
       </c>
       <c r="B336" t="s">
-        <v>355</v>
+        <v>273</v>
       </c>
       <c r="C336" t="n">
-        <v>6426</v>
+        <v>2697</v>
       </c>
       <c r="D336" t="n">
-        <v>76353</v>
+        <v>8835</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="8" t="n">
-        <v>41861.4729166667</v>
+        <v>42211.4604166667</v>
       </c>
       <c r="B337" t="s">
-        <v>444</v>
+        <v>275</v>
       </c>
       <c r="C337" t="n">
-        <v>21363</v>
+        <v>2754</v>
       </c>
       <c r="D337" t="n">
-        <v>73443</v>
+        <v>20124</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="8" t="n">
-        <v>42449.6458333333</v>
+        <v>42406.1583333333</v>
       </c>
       <c r="B338" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="C338" t="n">
-        <v>513</v>
+        <v>2601</v>
       </c>
       <c r="D338" t="n">
-        <v>5322</v>
+        <v>26724</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="8" t="n">
-        <v>42325.6638888889</v>
+        <v>42238.60625</v>
       </c>
       <c r="B339" t="s">
-        <v>397</v>
+        <v>161</v>
       </c>
       <c r="C339" t="n">
-        <v>10896</v>
+        <v>996</v>
       </c>
       <c r="D339" t="n">
-        <v>18759</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="8" t="n">
-        <v>42253.4055555556</v>
+        <v>42543.4347222222</v>
       </c>
       <c r="B340" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C340" t="n">
-        <v>1527</v>
+        <v>1857</v>
       </c>
       <c r="D340" t="n">
-        <v>2274</v>
+        <v>18147</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="8" t="n">
-        <v>41870.4027777778</v>
+        <v>41681.5333333333</v>
       </c>
       <c r="B341" t="s">
-        <v>110</v>
+        <v>359</v>
       </c>
       <c r="C341" t="n">
-        <v>657</v>
+        <v>6855</v>
       </c>
       <c r="D341" t="n">
-        <v>8118</v>
+        <v>99777</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="8" t="n">
-        <v>41700.7305555556</v>
+        <v>42315.4715277778</v>
       </c>
       <c r="B342" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="C342" t="n">
-        <v>609</v>
+        <v>870</v>
       </c>
       <c r="D342" t="n">
-        <v>1503</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="8" t="n">
-        <v>42484.6604166667</v>
+        <v>42024.5736111111</v>
       </c>
       <c r="B343" t="s">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="C343" t="n">
-        <v>402</v>
+        <v>10461</v>
       </c>
       <c r="D343" t="n">
-        <v>3372</v>
+        <v>255231</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="8" t="n">
-        <v>41574.5805555556</v>
+        <v>42583.4576388889</v>
       </c>
       <c r="B344" t="s">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="C344" t="n">
-        <v>22755</v>
+        <v>129</v>
       </c>
       <c r="D344" t="n">
-        <v>420087</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="8" t="n">
-        <v>41712.5777777778</v>
+        <v>41478.7388888889</v>
       </c>
       <c r="B345" t="s">
-        <v>123</v>
+        <v>455</v>
       </c>
       <c r="C345" t="n">
-        <v>744</v>
+        <v>25002</v>
       </c>
       <c r="D345" t="n">
-        <v>9708</v>
+        <v>497781</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="8" t="n">
-        <v>41632.6895833333</v>
+        <v>42568.4805555556</v>
       </c>
       <c r="B346" t="s">
-        <v>454</v>
+        <v>109</v>
       </c>
       <c r="C346" t="n">
-        <v>24645</v>
+        <v>630</v>
       </c>
       <c r="D346" t="n">
-        <v>297213</v>
+        <v>9618</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="8" t="n">
-        <v>42233.6222222222</v>
+        <v>42443.4361111111</v>
       </c>
       <c r="B347" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C347" t="n">
-        <v>675</v>
+        <v>513</v>
       </c>
       <c r="D347" t="n">
-        <v>4164</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="8" t="n">
-        <v>42406.1583333333</v>
+        <v>41674.5951388889</v>
       </c>
       <c r="B348" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C348" t="n">
-        <v>2601</v>
+        <v>2685</v>
       </c>
       <c r="D348" t="n">
-        <v>26724</v>
+        <v>12693</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="8" t="n">
-        <v>41531.6416666667</v>
+        <v>42551.4201388889</v>
       </c>
       <c r="B349" t="s">
-        <v>470</v>
+        <v>183</v>
       </c>
       <c r="C349" t="n">
-        <v>39177</v>
+        <v>1221</v>
       </c>
       <c r="D349" t="n">
-        <v>364323</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="8" t="n">
-        <v>42054.6229166667</v>
+        <v>42501.6034722222</v>
       </c>
       <c r="B350" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="C350" t="n">
-        <v>4446</v>
+        <v>1947</v>
       </c>
       <c r="D350" t="n">
-        <v>87396</v>
+        <v>17544</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="8" t="n">
-        <v>42329.5729166667</v>
+        <v>41632.6138888889</v>
       </c>
       <c r="B351" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="C351" t="n">
-        <v>7116</v>
+        <v>14166</v>
       </c>
       <c r="D351" t="n">
-        <v>12798</v>
+        <v>215010</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="8" t="n">
-        <v>42323.7756944444</v>
+        <v>42561.5805555556</v>
       </c>
       <c r="B352" t="s">
-        <v>410</v>
+        <v>9</v>
       </c>
       <c r="C352" t="n">
-        <v>13599</v>
+        <v>57</v>
       </c>
       <c r="D352" t="n">
-        <v>27204</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="8" t="n">
-        <v>42248.6076388889</v>
+        <v>42240.5708333333</v>
       </c>
       <c r="B353" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="C353" t="n">
-        <v>2055</v>
+        <v>2529</v>
       </c>
       <c r="D353" t="n">
-        <v>9342</v>
+        <v>7317</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="8" t="n">
-        <v>42319.6944444445</v>
+        <v>42238.3986111111</v>
       </c>
       <c r="B354" t="s">
-        <v>271</v>
+        <v>473</v>
       </c>
       <c r="C354" t="n">
-        <v>2670</v>
+        <v>51150</v>
       </c>
       <c r="D354" t="n">
-        <v>9753</v>
+        <v>147138</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="8" t="n">
-        <v>42093.4770833333</v>
+        <v>41857.6597222222</v>
       </c>
       <c r="B355" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C355" t="n">
-        <v>564</v>
+        <v>855</v>
       </c>
       <c r="D355" t="n">
-        <v>4302</v>
+        <v>170739</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="8" t="n">
-        <v>42221.4222222222</v>
+        <v>41591.7118055556</v>
       </c>
       <c r="B356" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C356" t="n">
-        <v>1110</v>
+        <v>828</v>
       </c>
       <c r="D356" t="n">
-        <v>2271</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="8" t="n">
-        <v>41479.5965277778</v>
+        <v>41885.4701388889</v>
       </c>
       <c r="B357" t="s">
-        <v>366</v>
+        <v>22</v>
       </c>
       <c r="C357" t="n">
-        <v>7416</v>
+        <v>138</v>
       </c>
       <c r="D357" t="n">
-        <v>136959</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="8" t="n">
-        <v>41681.5333333333</v>
+        <v>42465.6055555556</v>
       </c>
       <c r="B358" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="C358" t="n">
-        <v>6855</v>
+        <v>3438</v>
       </c>
       <c r="D358" t="n">
-        <v>99777</v>
+        <v>63216</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="8" t="n">
-        <v>42290.4694444445</v>
+        <v>41767.5729166667</v>
       </c>
       <c r="B359" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="C359" t="n">
-        <v>2697</v>
+        <v>5796</v>
       </c>
       <c r="D359" t="n">
-        <v>8835</v>
+        <v>27876</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="8" t="n">
-        <v>42186.6368055556</v>
+        <v>41606.475</v>
       </c>
       <c r="B360" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="C360" t="n">
-        <v>2295</v>
+        <v>1203</v>
       </c>
       <c r="D360" t="n">
-        <v>11496</v>
+        <v>13641</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="8" t="n">
-        <v>41722.4444444445</v>
+        <v>41632.6513888889</v>
       </c>
       <c r="B361" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C361" t="n">
-        <v>19824</v>
+        <v>19761</v>
       </c>
       <c r="D361" t="n">
-        <v>288078</v>
+        <v>442464</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="8" t="n">
-        <v>42449.7138888889</v>
+        <v>42556.5701388889</v>
       </c>
       <c r="B362" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="C362" t="n">
-        <v>837</v>
+        <v>402</v>
       </c>
       <c r="D362" t="n">
-        <v>1965</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="8" t="n">
-        <v>42205.4590277778</v>
+        <v>41623.6847222222</v>
       </c>
       <c r="B363" t="s">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="C363" t="n">
-        <v>4782</v>
+        <v>759</v>
       </c>
       <c r="D363" t="n">
-        <v>8613</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="8" t="n">
-        <v>41407.4576388889</v>
+        <v>42428.6652777778</v>
       </c>
       <c r="B364" t="s">
-        <v>481</v>
+        <v>65</v>
       </c>
       <c r="C364" t="n">
-        <v>93153</v>
+        <v>363</v>
       </c>
       <c r="D364" t="n">
-        <v>2109564</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="8" t="n">
-        <v>41710.7159722222</v>
+        <v>42501.6034722222</v>
       </c>
       <c r="B365" t="s">
-        <v>394</v>
+        <v>54</v>
       </c>
       <c r="C365" t="n">
-        <v>10470</v>
+        <v>312</v>
       </c>
       <c r="D365" t="n">
-        <v>156858</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="8" t="n">
-        <v>42563.5770833333</v>
+        <v>42562.4708333333</v>
       </c>
       <c r="B366" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C366" t="n">
-        <v>405</v>
+        <v>213</v>
       </c>
       <c r="D366" t="n">
-        <v>1440</v>
+        <v>720</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="8" t="n">
-        <v>41738.5833333333</v>
+        <v>41581.6069444444</v>
       </c>
       <c r="B367" t="s">
-        <v>365</v>
+        <v>243</v>
       </c>
       <c r="C367" t="n">
-        <v>7335</v>
+        <v>2190</v>
       </c>
       <c r="D367" t="n">
-        <v>54891</v>
+        <v>17529</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="8" t="n">
-        <v>41729.4451388889</v>
+        <v>42204.7118055555</v>
       </c>
       <c r="B368" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="C368" t="n">
-        <v>3549</v>
+        <v>8421</v>
       </c>
       <c r="D368" t="n">
-        <v>38304</v>
+        <v>21327</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="8" t="n">
-        <v>41658.55</v>
+        <v>42259.4548611111</v>
       </c>
       <c r="B369" t="s">
-        <v>356</v>
+        <v>171</v>
       </c>
       <c r="C369" t="n">
-        <v>6504</v>
+        <v>1119</v>
       </c>
       <c r="D369" t="n">
-        <v>20958</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="8" t="n">
-        <v>41851.6576388889</v>
+        <v>41531.6416666667</v>
       </c>
       <c r="B370" t="s">
-        <v>286</v>
+        <v>470</v>
       </c>
       <c r="C370" t="n">
-        <v>3051</v>
+        <v>39177</v>
       </c>
       <c r="D370" t="n">
-        <v>12342</v>
+        <v>364323</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="8" t="n">
-        <v>42495.9388888889</v>
+        <v>42178.4180555556</v>
       </c>
       <c r="B371" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C371" t="n">
-        <v>1368</v>
+        <v>1383</v>
       </c>
       <c r="D371" t="n">
-        <v>3546</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="8" t="n">
-        <v>41407.4569444444</v>
+        <v>41842.6048611111</v>
       </c>
       <c r="B372" t="s">
-        <v>484</v>
+        <v>254</v>
       </c>
       <c r="C372" t="n">
-        <v>118629</v>
+        <v>2403</v>
       </c>
       <c r="D372" t="n">
-        <v>2590047</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="8" t="n">
-        <v>42439.4847222222</v>
+        <v>41715.43125</v>
       </c>
       <c r="B373" t="s">
-        <v>240</v>
+        <v>342</v>
       </c>
       <c r="C373" t="n">
-        <v>2118</v>
+        <v>5358</v>
       </c>
       <c r="D373" t="n">
-        <v>6378</v>
+        <v>67992</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="8" t="n">
-        <v>41632.6180555556</v>
+        <v>41765.0118055556</v>
       </c>
       <c r="B374" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="C374" t="n">
-        <v>3531</v>
+        <v>4827</v>
       </c>
       <c r="D374" t="n">
-        <v>29892</v>
+        <v>28917</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="8" t="n">
-        <v>41585.4097222222</v>
+        <v>42199.9861111111</v>
       </c>
       <c r="B375" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="C375" t="n">
-        <v>2079</v>
+        <v>555</v>
       </c>
       <c r="D375" t="n">
-        <v>14226</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="8" t="n">
-        <v>41868.4520833333</v>
+        <v>41577.5576388889</v>
       </c>
       <c r="B376" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="C376" t="n">
-        <v>318</v>
+        <v>12750</v>
       </c>
       <c r="D376" t="n">
-        <v>1653</v>
+        <v>158184</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="8" t="n">
-        <v>42346.6138888889</v>
+        <v>42359.4305555555</v>
       </c>
       <c r="B377" t="s">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="C377" t="n">
-        <v>1932</v>
+        <v>5067</v>
       </c>
       <c r="D377" t="n">
-        <v>13947</v>
+        <v>123483</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="8" t="n">
-        <v>42199.9861111111</v>
+        <v>41674.4548611111</v>
       </c>
       <c r="B378" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="C378" t="n">
-        <v>555</v>
+        <v>3705</v>
       </c>
       <c r="D378" t="n">
-        <v>2634</v>
+        <v>15717</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="8" t="n">
-        <v>42240.5708333333</v>
+        <v>42569.7381944444</v>
       </c>
       <c r="B379" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="C379" t="n">
-        <v>2529</v>
+        <v>9</v>
       </c>
       <c r="D379" t="n">
-        <v>7317</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="8" t="n">
-        <v>41591.7118055556</v>
+        <v>42465.4652777778</v>
       </c>
       <c r="B380" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="C380" t="n">
-        <v>828</v>
+        <v>1689</v>
       </c>
       <c r="D380" t="n">
-        <v>4212</v>
+        <v>12759</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="8" t="n">
-        <v>42066.5701388889</v>
+        <v>42443.4152777778</v>
       </c>
       <c r="B381" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C381" t="n">
-        <v>537</v>
+        <v>609</v>
       </c>
       <c r="D381" t="n">
-        <v>2526</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="8" t="n">
-        <v>41829.74375</v>
+        <v>42054.6229166667</v>
       </c>
       <c r="B382" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C382" t="n">
-        <v>4425</v>
+        <v>4446</v>
       </c>
       <c r="D382" t="n">
-        <v>26862</v>
+        <v>87396</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="8" t="n">
-        <v>41739.9138888889</v>
+        <v>42296.4673611111</v>
       </c>
       <c r="B383" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="C383" t="n">
-        <v>1851</v>
+        <v>3855</v>
       </c>
       <c r="D383" t="n">
-        <v>2979</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="8" t="n">
-        <v>41757.4506944444</v>
+        <v>41588.6694444444</v>
       </c>
       <c r="B384" t="s">
-        <v>267</v>
+        <v>401</v>
       </c>
       <c r="C384" t="n">
-        <v>2616</v>
+        <v>12117</v>
       </c>
       <c r="D384" t="n">
-        <v>31557</v>
+        <v>33519</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="8" t="n">
-        <v>42316.3881944444</v>
+        <v>41582.6513888889</v>
       </c>
       <c r="B385" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="C385" t="n">
-        <v>807</v>
+        <v>1824</v>
       </c>
       <c r="D385" t="n">
-        <v>3126</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="8" t="n">
-        <v>42619.4243055556</v>
+        <v>42556.6979166667</v>
       </c>
       <c r="B386" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="C386" t="n">
-        <v>216</v>
+        <v>1194</v>
       </c>
       <c r="D386" t="n">
-        <v>3078</v>
+        <v>9678</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="8" t="n">
-        <v>42576.64375</v>
+        <v>41574.5583333333</v>
       </c>
       <c r="B387" t="s">
-        <v>25</v>
+        <v>472</v>
       </c>
       <c r="C387" t="n">
-        <v>147</v>
+        <v>43068</v>
       </c>
       <c r="D387" t="n">
-        <v>672</v>
+        <v>317172</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="8" t="n">
-        <v>42317.4076388889</v>
+        <v>42247.3798611111</v>
       </c>
       <c r="B388" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="C388" t="n">
-        <v>3000</v>
+        <v>2211</v>
       </c>
       <c r="D388" t="n">
-        <v>10281</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="8" t="n">
-        <v>41835.6319444445</v>
+        <v>42439.4847222222</v>
       </c>
       <c r="B389" t="s">
-        <v>462</v>
+        <v>240</v>
       </c>
       <c r="C389" t="n">
-        <v>30495</v>
+        <v>2118</v>
       </c>
       <c r="D389" t="n">
-        <v>122559</v>
+        <v>6378</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="8" t="n">
-        <v>41709.58125</v>
+        <v>42421.6666666667</v>
       </c>
       <c r="B390" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="C390" t="n">
-        <v>3882</v>
+        <v>114</v>
       </c>
       <c r="D390" t="n">
-        <v>5691</v>
+        <v>18435</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="8" t="n">
-        <v>42428.6625</v>
+        <v>41743.7479166667</v>
       </c>
       <c r="B391" t="s">
-        <v>384</v>
+        <v>174</v>
       </c>
       <c r="C391" t="n">
-        <v>8712</v>
+        <v>1143</v>
       </c>
       <c r="D391" t="n">
-        <v>19290</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="8" t="n">
-        <v>42351.4381944444</v>
+        <v>41850.5638888889</v>
       </c>
       <c r="B392" t="s">
-        <v>422</v>
+        <v>24</v>
       </c>
       <c r="C392" t="n">
-        <v>15246</v>
+        <v>141</v>
       </c>
       <c r="D392" t="n">
-        <v>55863</v>
+        <v>438</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="8" t="n">
-        <v>42216.89375</v>
+        <v>42576.64375</v>
       </c>
       <c r="B393" t="s">
-        <v>412</v>
+        <v>25</v>
       </c>
       <c r="C393" t="n">
-        <v>13878</v>
+        <v>147</v>
       </c>
       <c r="D393" t="n">
-        <v>55344</v>
+        <v>672</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="8" t="n">
-        <v>42225.7486111111</v>
+        <v>42484.5631944444</v>
       </c>
       <c r="B394" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="C394" t="n">
-        <v>525</v>
+        <v>3828</v>
       </c>
       <c r="D394" t="n">
-        <v>6576</v>
+        <v>31191</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="8" t="n">
-        <v>42561.4180555556</v>
+        <v>41516.6069444444</v>
       </c>
       <c r="B395" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C395" t="n">
-        <v>2016</v>
+        <v>2370</v>
       </c>
       <c r="D395" t="n">
-        <v>20637</v>
+        <v>63243</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="8" t="n">
-        <v>42555.5527777778</v>
+        <v>41669.4416666667</v>
       </c>
       <c r="B396" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="C396" t="n">
-        <v>471</v>
+        <v>1074</v>
       </c>
       <c r="D396" t="n">
-        <v>8028</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="8" t="n">
-        <v>42359.4305555555</v>
+        <v>42207.5229166667</v>
       </c>
       <c r="B397" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="C397" t="n">
-        <v>5067</v>
+        <v>1167</v>
       </c>
       <c r="D397" t="n">
-        <v>123483</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="8" t="n">
-        <v>42214.6368055556</v>
+        <v>42300.7701388889</v>
       </c>
       <c r="B398" t="s">
-        <v>168</v>
+        <v>319</v>
       </c>
       <c r="C398" t="n">
-        <v>1095</v>
+        <v>4323</v>
       </c>
       <c r="D398" t="n">
-        <v>2166</v>
+        <v>20391</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="8" t="n">
-        <v>41724.9090277778</v>
+        <v>41731.6402777778</v>
       </c>
       <c r="B399" t="s">
-        <v>459</v>
+        <v>211</v>
       </c>
       <c r="C399" t="n">
-        <v>26940</v>
+        <v>1632</v>
       </c>
       <c r="D399" t="n">
-        <v>604179</v>
+        <v>8364</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="8" t="n">
-        <v>42515.6625</v>
+        <v>41618.6444444444</v>
       </c>
       <c r="B400" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="C400" t="n">
-        <v>3603</v>
+        <v>1140</v>
       </c>
       <c r="D400" t="n">
-        <v>8487</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="8" t="n">
-        <v>41841.5569444444</v>
+        <v>41940.7173611111</v>
       </c>
       <c r="B401" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C401" t="n">
-        <v>1317</v>
+        <v>1173</v>
       </c>
       <c r="D401" t="n">
-        <v>12027</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="8" t="n">
-        <v>42537.4493055556</v>
+        <v>42255.7319444444</v>
       </c>
       <c r="B402" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="C402" t="n">
-        <v>60</v>
+        <v>1629</v>
       </c>
       <c r="D402" t="n">
-        <v>1668</v>
+        <v>20541</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="8" t="n">
-        <v>41948.4618055555</v>
+        <v>41816.4013888889</v>
       </c>
       <c r="B403" t="s">
-        <v>118</v>
+        <v>460</v>
       </c>
       <c r="C403" t="n">
-        <v>708</v>
+        <v>28071</v>
       </c>
       <c r="D403" t="n">
-        <v>8121</v>
+        <v>464382</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="8" t="n">
-        <v>42300.7701388889</v>
+        <v>41935.6958333333</v>
       </c>
       <c r="B404" t="s">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="C404" t="n">
-        <v>4323</v>
+        <v>678</v>
       </c>
       <c r="D404" t="n">
-        <v>20391</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="8" t="n">
-        <v>41864.4104166667</v>
+        <v>41556.7083333333</v>
       </c>
       <c r="B405" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="C405" t="n">
-        <v>7488</v>
+        <v>19050</v>
       </c>
       <c r="D405" t="n">
-        <v>7494</v>
+        <v>515934</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="8" t="n">
-        <v>42562.61875</v>
+        <v>41862.5958333333</v>
       </c>
       <c r="B406" t="s">
-        <v>46</v>
+        <v>341</v>
       </c>
       <c r="C406" t="n">
-        <v>285</v>
+        <v>5343</v>
       </c>
       <c r="D406" t="n">
-        <v>2064</v>
+        <v>12339</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="8" t="n">
-        <v>42162.6791666667</v>
+        <v>42561.3916666667</v>
       </c>
       <c r="B407" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="C407" t="n">
-        <v>2802</v>
+        <v>18</v>
       </c>
       <c r="D407" t="n">
-        <v>19728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="8" t="n">
-        <v>42484.5631944444</v>
+        <v>41736.8694444444</v>
       </c>
       <c r="B408" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C408" t="n">
-        <v>3828</v>
+        <v>3702</v>
       </c>
       <c r="D408" t="n">
-        <v>31191</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="8" t="n">
-        <v>41582.6513888889</v>
+        <v>42127.3048611111</v>
       </c>
       <c r="B409" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C409" t="n">
-        <v>1824</v>
+        <v>1377</v>
       </c>
       <c r="D409" t="n">
-        <v>10383</v>
+        <v>11535</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="8" t="n">
-        <v>41632.6895833333</v>
+        <v>41632.6090277778</v>
       </c>
       <c r="B410" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C410" t="n">
-        <v>15402</v>
+        <v>15828</v>
       </c>
       <c r="D410" t="n">
-        <v>170535</v>
+        <v>237585</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="8" t="n">
-        <v>42380.41875</v>
+        <v>42286.8270833333</v>
       </c>
       <c r="B411" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="C411" t="n">
-        <v>3204</v>
+        <v>4920</v>
       </c>
       <c r="D411" t="n">
-        <v>9372</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="8" t="n">
-        <v>42247.3986111111</v>
+        <v>42217.9006944444</v>
       </c>
       <c r="B412" t="s">
-        <v>392</v>
+        <v>288</v>
       </c>
       <c r="C412" t="n">
-        <v>10233</v>
+        <v>3096</v>
       </c>
       <c r="D412" t="n">
-        <v>19179</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="8" t="n">
-        <v>42542.5694444445</v>
+        <v>41823.5618055556</v>
       </c>
       <c r="B413" t="s">
-        <v>291</v>
+        <v>57</v>
       </c>
       <c r="C413" t="n">
-        <v>3264</v>
+        <v>330</v>
       </c>
       <c r="D413" t="n">
-        <v>11340</v>
+        <v>72129</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="8" t="n">
-        <v>41835.7104166667</v>
+        <v>42332.5659722222</v>
       </c>
       <c r="B414" t="s">
-        <v>48</v>
+        <v>347</v>
       </c>
       <c r="C414" t="n">
-        <v>291</v>
+        <v>5463</v>
       </c>
       <c r="D414" t="n">
-        <v>2592</v>
+        <v>29904</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="8" t="n">
-        <v>42132.5055555556</v>
+        <v>42093.4770833333</v>
       </c>
       <c r="B415" t="s">
-        <v>318</v>
+        <v>100</v>
       </c>
       <c r="C415" t="n">
-        <v>4296</v>
+        <v>564</v>
       </c>
       <c r="D415" t="n">
-        <v>23430</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="8" t="n">
-        <v>42569.7381944444</v>
+        <v>41710.7159722222</v>
       </c>
       <c r="B416" t="s">
-        <v>3</v>
+        <v>394</v>
       </c>
       <c r="C416" t="n">
-        <v>9</v>
+        <v>10470</v>
       </c>
       <c r="D416" t="n">
-        <v>2241</v>
+        <v>156858</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="8" t="n">
-        <v>42323.4305555556</v>
+        <v>42259.4361111111</v>
       </c>
       <c r="B417" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="C417" t="n">
-        <v>14850</v>
+        <v>708</v>
       </c>
       <c r="D417" t="n">
-        <v>52380</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="8" t="n">
-        <v>41669.4416666667</v>
+        <v>42204.4333333333</v>
       </c>
       <c r="B418" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="C418" t="n">
-        <v>1074</v>
+        <v>2340</v>
       </c>
       <c r="D418" t="n">
-        <v>4002</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="8" t="n">
-        <v>41624.9208333333</v>
+        <v>41850.4027777778</v>
       </c>
       <c r="B419" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="C419" t="n">
-        <v>210</v>
+        <v>4071</v>
       </c>
       <c r="D419" t="n">
-        <v>774</v>
+        <v>34056</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="8" t="n">
-        <v>42218.6381944444</v>
+        <v>41584.5743055556</v>
       </c>
       <c r="B420" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="C420" t="n">
-        <v>39972</v>
+        <v>13911</v>
       </c>
       <c r="D420" t="n">
-        <v>1884150</v>
+        <v>98808</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="8" t="n">
-        <v>42245.5423611111</v>
+        <v>41556.7083333333</v>
       </c>
       <c r="B421" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="C421" t="n">
-        <v>8415</v>
+        <v>14493</v>
       </c>
       <c r="D421" t="n">
-        <v>39081</v>
+        <v>201855</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="8" t="n">
-        <v>41632.6125</v>
+        <v>41842.3805555556</v>
       </c>
       <c r="B422" t="s">
-        <v>409</v>
+        <v>47</v>
       </c>
       <c r="C422" t="n">
-        <v>13584</v>
+        <v>288</v>
       </c>
       <c r="D422" t="n">
-        <v>268599</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="8" t="n">
-        <v>41850.5638888889</v>
+        <v>42084.0055555556</v>
       </c>
       <c r="B423" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C423" t="n">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="D423" t="n">
-        <v>438</v>
+        <v>117</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="8" t="n">
-        <v>42072.6826388889</v>
+        <v>42248.6076388889</v>
       </c>
       <c r="B424" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="C424" t="n">
-        <v>804</v>
+        <v>2055</v>
       </c>
       <c r="D424" t="n">
-        <v>4479</v>
+        <v>9342</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="8" t="n">
-        <v>41715.43125</v>
+        <v>42226.4020833333</v>
       </c>
       <c r="B425" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C425" t="n">
-        <v>5358</v>
+        <v>5415</v>
       </c>
       <c r="D425" t="n">
-        <v>67992</v>
+        <v>34425</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="8" t="n">
-        <v>42286.8131944445</v>
+        <v>41941.5631944444</v>
       </c>
       <c r="B426" t="s">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="C426" t="n">
-        <v>8628</v>
+        <v>453</v>
       </c>
       <c r="D426" t="n">
-        <v>14910</v>
+        <v>62061</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="8" t="n">
-        <v>42544.5881944444</v>
+        <v>42090.8888888889</v>
       </c>
       <c r="B427" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C427" t="n">
-        <v>570</v>
+        <v>681</v>
       </c>
       <c r="D427" t="n">
-        <v>3534</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="8" t="n">
-        <v>41935.6951388889</v>
+        <v>41738.5833333333</v>
       </c>
       <c r="B428" t="s">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="C428" t="n">
-        <v>828</v>
+        <v>7335</v>
       </c>
       <c r="D428" t="n">
-        <v>5838</v>
+        <v>54891</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="8" t="n">
-        <v>42024.5736111111</v>
+        <v>41722.4444444445</v>
       </c>
       <c r="B429" t="s">
-        <v>280</v>
+        <v>441</v>
       </c>
       <c r="C429" t="n">
-        <v>2856</v>
+        <v>19824</v>
       </c>
       <c r="D429" t="n">
-        <v>15390</v>
+        <v>288078</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="8" t="n">
-        <v>41556.7090277778</v>
+        <v>42009.4527777778</v>
       </c>
       <c r="B430" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="C430" t="n">
-        <v>8163</v>
+        <v>4413</v>
       </c>
       <c r="D430" t="n">
-        <v>96183</v>
+        <v>99480</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="8" t="n">
-        <v>42247.4173611111</v>
+        <v>42171.4854166667</v>
       </c>
       <c r="B431" t="s">
-        <v>134</v>
+        <v>399</v>
       </c>
       <c r="C431" t="n">
-        <v>810</v>
+        <v>11895</v>
       </c>
       <c r="D431" t="n">
-        <v>594</v>
+        <v>16743</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="8" t="n">
-        <v>41757.39375</v>
+        <v>42331.4625</v>
       </c>
       <c r="B432" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="C432" t="n">
-        <v>2100</v>
+        <v>2916</v>
       </c>
       <c r="D432" t="n">
-        <v>19485</v>
+        <v>28734</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="8" t="n">
-        <v>41603.4111111111</v>
+        <v>42336.8381944444</v>
       </c>
       <c r="B433" t="s">
-        <v>469</v>
+        <v>200</v>
       </c>
       <c r="C433" t="n">
-        <v>36756</v>
+        <v>1392</v>
       </c>
       <c r="D433" t="n">
-        <v>1125729</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="8" t="n">
-        <v>42204.4333333333</v>
+        <v>42224.3534722222</v>
       </c>
       <c r="B434" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="C434" t="n">
-        <v>2340</v>
+        <v>1266</v>
       </c>
       <c r="D434" t="n">
-        <v>6804</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="8" t="n">
-        <v>41578.6375</v>
+        <v>42253.4055555556</v>
       </c>
       <c r="B435" t="s">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="C435" t="n">
-        <v>3828</v>
+        <v>1527</v>
       </c>
       <c r="D435" t="n">
-        <v>37095</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="8" t="n">
-        <v>42554.4645833333</v>
+        <v>42186.6479166667</v>
       </c>
       <c r="B436" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="C436" t="n">
-        <v>624</v>
+        <v>9078</v>
       </c>
       <c r="D436" t="n">
-        <v>3771</v>
+        <v>36645</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="8" t="n">
-        <v>42211.5145833333</v>
+        <v>42286.98125</v>
       </c>
       <c r="B437" t="s">
-        <v>466</v>
+        <v>222</v>
       </c>
       <c r="C437" t="n">
-        <v>33093</v>
+        <v>1767</v>
       </c>
       <c r="D437" t="n">
-        <v>45141</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="8" t="n">
-        <v>41669.4381944444</v>
+        <v>42563.7298611111</v>
       </c>
       <c r="B438" t="s">
-        <v>379</v>
+        <v>51</v>
       </c>
       <c r="C438" t="n">
-        <v>8433</v>
+        <v>297</v>
       </c>
       <c r="D438" t="n">
-        <v>49935</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="8" t="n">
-        <v>42330.8291666667</v>
+        <v>41767.6604166667</v>
       </c>
       <c r="B439" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="C439" t="n">
-        <v>3618</v>
+        <v>195</v>
       </c>
       <c r="D439" t="n">
-        <v>4707</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="8" t="n">
-        <v>42290.7361111111</v>
+        <v>41675.8284722222</v>
       </c>
       <c r="B440" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C440" t="n">
-        <v>2700</v>
+        <v>3084</v>
       </c>
       <c r="D440" t="n">
-        <v>5445</v>
+        <v>50178</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="8" t="n">
-        <v>42077.5590277778</v>
+        <v>42451.5166666667</v>
       </c>
       <c r="B441" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="C441" t="n">
-        <v>801</v>
+        <v>3588</v>
       </c>
       <c r="D441" t="n">
-        <v>2301</v>
+        <v>23109</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="8" t="n">
-        <v>42245.6888888889</v>
+        <v>42380.41875</v>
       </c>
       <c r="B442" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="C442" t="n">
-        <v>744</v>
+        <v>3204</v>
       </c>
       <c r="D442" t="n">
-        <v>3003</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="8" t="n">
-        <v>42444.4652777778</v>
+        <v>41911.4944444444</v>
       </c>
       <c r="B443" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="C443" t="n">
-        <v>2622</v>
+        <v>5421</v>
       </c>
       <c r="D443" t="n">
-        <v>28905</v>
+        <v>53001</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="8" t="n">
-        <v>42168.7458333333</v>
+        <v>42389.9055555556</v>
       </c>
       <c r="B444" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C444" t="n">
-        <v>1707</v>
+        <v>1509</v>
       </c>
       <c r="D444" t="n">
-        <v>8235</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="8" t="n">
-        <v>42428.6652777778</v>
+        <v>42226.5458333333</v>
       </c>
       <c r="B445" t="s">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="C445" t="n">
-        <v>363</v>
+        <v>5304</v>
       </c>
       <c r="D445" t="n">
-        <v>1200</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="8" t="n">
-        <v>42501.6034722222</v>
+        <v>42114.4069444445</v>
       </c>
       <c r="B446" t="s">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="C446" t="n">
-        <v>1947</v>
+        <v>7227</v>
       </c>
       <c r="D446" t="n">
-        <v>17544</v>
+        <v>64599</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="8" t="n">
-        <v>42373.8881944444</v>
+        <v>41677.6166666667</v>
       </c>
       <c r="B447" t="s">
-        <v>249</v>
+        <v>425</v>
       </c>
       <c r="C447" t="n">
-        <v>2310</v>
+        <v>15555</v>
       </c>
       <c r="D447" t="n">
-        <v>14142</v>
+        <v>72330</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="8" t="n">
-        <v>41767.5729166667</v>
+        <v>42420.6159722222</v>
       </c>
       <c r="B448" t="s">
-        <v>349</v>
+        <v>53</v>
       </c>
       <c r="C448" t="n">
-        <v>5796</v>
+        <v>312</v>
       </c>
       <c r="D448" t="n">
-        <v>27876</v>
+        <v>34350</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="8" t="n">
-        <v>41574.5583333333</v>
+        <v>42193.6673611111</v>
       </c>
       <c r="B449" t="s">
-        <v>472</v>
+        <v>199</v>
       </c>
       <c r="C449" t="n">
-        <v>43068</v>
+        <v>1383</v>
       </c>
       <c r="D449" t="n">
-        <v>317172</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="8" t="n">
-        <v>42443.4152777778</v>
+        <v>42031.7340277778</v>
       </c>
       <c r="B450" t="s">
-        <v>107</v>
+        <v>373</v>
       </c>
       <c r="C450" t="n">
-        <v>609</v>
+        <v>8076</v>
       </c>
       <c r="D450" t="n">
-        <v>2325</v>
+        <v>31119</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="8" t="n">
-        <v>41677.6166666667</v>
+        <v>41556.7076388889</v>
       </c>
       <c r="B451" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C451" t="n">
-        <v>15555</v>
+        <v>16869</v>
       </c>
       <c r="D451" t="n">
-        <v>72330</v>
+        <v>296940</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="8" t="n">
-        <v>41823.5618055556</v>
+        <v>42228.5256944444</v>
       </c>
       <c r="B452" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="C452" t="n">
-        <v>330</v>
+        <v>813</v>
       </c>
       <c r="D452" t="n">
-        <v>72129</v>
+        <v>993</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="8" t="n">
-        <v>42226.5458333333</v>
+        <v>42219.5763888889</v>
       </c>
       <c r="B453" t="s">
-        <v>340</v>
+        <v>467</v>
       </c>
       <c r="C453" t="n">
-        <v>5304</v>
+        <v>33348</v>
       </c>
       <c r="D453" t="n">
-        <v>44817</v>
+        <v>76566</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="8" t="n">
-        <v>42556.6291666667</v>
+        <v>42235.4118055556</v>
       </c>
       <c r="B454" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C454" t="n">
-        <v>330</v>
+        <v>693</v>
       </c>
       <c r="D454" t="n">
-        <v>3213</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="8" t="n">
-        <v>42339.6729166667</v>
+        <v>42080.6756944444</v>
       </c>
       <c r="B455" t="s">
-        <v>303</v>
+        <v>60</v>
       </c>
       <c r="C455" t="n">
-        <v>3723</v>
+        <v>336</v>
       </c>
       <c r="D455" t="n">
-        <v>19632</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="8" t="n">
-        <v>41681.6277777778</v>
+        <v>41407.4576388889</v>
       </c>
       <c r="B456" t="s">
-        <v>360</v>
+        <v>481</v>
       </c>
       <c r="C456" t="n">
-        <v>6891</v>
+        <v>93153</v>
       </c>
       <c r="D456" t="n">
-        <v>93945</v>
+        <v>2109564</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="8" t="n">
-        <v>41857.6597222222</v>
+        <v>42364.4236111111</v>
       </c>
       <c r="B457" t="s">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="C457" t="n">
-        <v>855</v>
+        <v>3189</v>
       </c>
       <c r="D457" t="n">
-        <v>170739</v>
+        <v>10461</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="8" t="n">
-        <v>42329.9541666667</v>
+        <v>42266.4416666667</v>
       </c>
       <c r="B458" t="s">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="C458" t="n">
-        <v>4218</v>
+        <v>729</v>
       </c>
       <c r="D458" t="n">
-        <v>20301</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="8" t="n">
-        <v>42435.6986111111</v>
+        <v>42549.4527777778</v>
       </c>
       <c r="B459" t="s">
-        <v>380</v>
+        <v>184</v>
       </c>
       <c r="C459" t="n">
-        <v>8442</v>
+        <v>1233</v>
       </c>
       <c r="D459" t="n">
-        <v>69975</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="8" t="n">
-        <v>42535.7458333333</v>
+        <v>42332.6791666667</v>
       </c>
       <c r="B460" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C460" t="n">
-        <v>471</v>
+        <v>1053</v>
       </c>
       <c r="D460" t="n">
-        <v>1503</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="8" t="n">
-        <v>42260.3826388889</v>
+        <v>42571.4798611111</v>
       </c>
       <c r="B461" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="C461" t="n">
-        <v>1527</v>
+        <v>99</v>
       </c>
       <c r="D461" t="n">
-        <v>4056</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="8" t="n">
-        <v>41660.5</v>
+        <v>41941.5638888889</v>
       </c>
       <c r="B462" t="s">
-        <v>333</v>
+        <v>85</v>
       </c>
       <c r="C462" t="n">
-        <v>5109</v>
+        <v>474</v>
       </c>
       <c r="D462" t="n">
-        <v>38595</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="8" t="n">
-        <v>41847.4743055556</v>
+        <v>42542.5694444445</v>
       </c>
       <c r="B463" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="C463" t="n">
-        <v>8280</v>
+        <v>3264</v>
       </c>
       <c r="D463" t="n">
-        <v>21159</v>
+        <v>11340</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="8" t="n">
-        <v>42309.7451388889</v>
+        <v>41603.4111111111</v>
       </c>
       <c r="B464" t="s">
-        <v>182</v>
+        <v>469</v>
       </c>
       <c r="C464" t="n">
-        <v>1218</v>
+        <v>36756</v>
       </c>
       <c r="D464" t="n">
-        <v>4092</v>
+        <v>1125729</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="8" t="n">
-        <v>42226.4625</v>
+        <v>41757.39375</v>
       </c>
       <c r="B465" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="C465" t="n">
-        <v>4191</v>
+        <v>2100</v>
       </c>
       <c r="D465" t="n">
-        <v>5430</v>
+        <v>19485</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="8" t="n">
-        <v>42226.4020833333</v>
+        <v>42286.8131944445</v>
       </c>
       <c r="B466" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="C466" t="n">
-        <v>5415</v>
+        <v>8628</v>
       </c>
       <c r="D466" t="n">
-        <v>34425</v>
+        <v>14910</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="8" t="n">
-        <v>41850.55625</v>
+        <v>42205.4590277778</v>
       </c>
       <c r="B467" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="C467" t="n">
-        <v>231</v>
+        <v>4782</v>
       </c>
       <c r="D467" t="n">
-        <v>306</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="8" t="n">
-        <v>42368.5840277778</v>
+        <v>42597.43125</v>
       </c>
       <c r="B468" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="C468" t="n">
-        <v>1197</v>
+        <v>114</v>
       </c>
       <c r="D468" t="n">
-        <v>30288</v>
+        <v>16743</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="8" t="n">
-        <v>42251.6701388889</v>
+        <v>41632.6895833333</v>
       </c>
       <c r="B469" t="s">
-        <v>217</v>
+        <v>423</v>
       </c>
       <c r="C469" t="n">
-        <v>1704</v>
+        <v>15402</v>
       </c>
       <c r="D469" t="n">
-        <v>5127</v>
+        <v>170535</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="8" t="n">
-        <v>41760.8791666667</v>
+        <v>41613.5631944445</v>
       </c>
       <c r="B470" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="C470" t="n">
-        <v>12705</v>
+        <v>26919</v>
       </c>
       <c r="D470" t="n">
-        <v>52071</v>
+        <v>149715</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="8" t="n">
-        <v>42311.6923611111</v>
+        <v>42537.5638888889</v>
       </c>
       <c r="B471" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="C471" t="n">
-        <v>1833</v>
+        <v>558</v>
       </c>
       <c r="D471" t="n">
-        <v>3618</v>
+        <v>11958</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="8" t="n">
-        <v>41681.6840277778</v>
+        <v>41632.6055555556</v>
       </c>
       <c r="B472" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C472" t="n">
-        <v>22332</v>
+        <v>20616</v>
       </c>
       <c r="D472" t="n">
-        <v>41361</v>
+        <v>268002</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="8" t="n">
-        <v>42061.4152777778</v>
+        <v>42323.3965277778</v>
       </c>
       <c r="B473" t="s">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="C473" t="n">
-        <v>453</v>
+        <v>5364</v>
       </c>
       <c r="D473" t="n">
-        <v>2880</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="8" t="n">
-        <v>42238.8472222222</v>
+        <v>42226.4694444444</v>
       </c>
       <c r="B474" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="C474" t="n">
-        <v>3438</v>
+        <v>2007</v>
       </c>
       <c r="D474" t="n">
-        <v>6516</v>
+        <v>9162</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="8" t="n">
-        <v>41556.6826388889</v>
+        <v>41585.7986111111</v>
       </c>
       <c r="B475" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C475" t="n">
-        <v>22245</v>
+        <v>25389</v>
       </c>
       <c r="D475" t="n">
-        <v>384315</v>
+        <v>467016</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="8" t="n">
-        <v>42554.7263888889</v>
+        <v>42029.4708333333</v>
       </c>
       <c r="B476" t="s">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="C476" t="n">
-        <v>5283</v>
+        <v>13023</v>
       </c>
       <c r="D476" t="n">
-        <v>28722</v>
+        <v>149556</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="8" t="n">
-        <v>42453.3180555556</v>
+        <v>42406.4125</v>
       </c>
       <c r="B477" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="C477" t="n">
-        <v>1635</v>
+        <v>939</v>
       </c>
       <c r="D477" t="n">
-        <v>7251</v>
+        <v>11322</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="8" t="n">
-        <v>41610.4541666667</v>
+        <v>41850.5652777778</v>
       </c>
       <c r="B478" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="C478" t="n">
-        <v>825</v>
+        <v>369</v>
       </c>
       <c r="D478" t="n">
-        <v>5859</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="8" t="n">
-        <v>42077.3944444444</v>
+        <v>42251.6701388889</v>
       </c>
       <c r="B479" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="C479" t="n">
-        <v>171</v>
+        <v>1704</v>
       </c>
       <c r="D479" t="n">
-        <v>684</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="8" t="n">
-        <v>42583.7020833333</v>
+        <v>41834.7027777778</v>
       </c>
       <c r="B480" t="s">
-        <v>153</v>
+        <v>430</v>
       </c>
       <c r="C480" t="n">
-        <v>933</v>
+        <v>16515</v>
       </c>
       <c r="D480" t="n">
-        <v>10341</v>
+        <v>92244</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="8" t="n">
-        <v>41477.59375</v>
+        <v>42295.6763888889</v>
       </c>
       <c r="B481" t="s">
-        <v>449</v>
+        <v>221</v>
       </c>
       <c r="C481" t="n">
-        <v>22596</v>
+        <v>1761</v>
       </c>
       <c r="D481" t="n">
-        <v>322269</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="8" t="n">
-        <v>41674.4548611111</v>
+        <v>42246.5756944444</v>
       </c>
       <c r="B482" t="s">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="C482" t="n">
-        <v>3705</v>
+        <v>912</v>
       </c>
       <c r="D482" t="n">
-        <v>15717</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="8" t="n">
-        <v>42569.4048611111</v>
+        <v>41652.625</v>
       </c>
       <c r="B483" t="s">
-        <v>193</v>
+        <v>464</v>
       </c>
       <c r="C483" t="n">
-        <v>1341</v>
+        <v>31476</v>
       </c>
       <c r="D483" t="n">
-        <v>10467</v>
+        <v>978141</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="8" t="n">
-        <v>41765.0118055556</v>
+        <v>41578.6375</v>
       </c>
       <c r="B484" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C484" t="n">
-        <v>4827</v>
+        <v>3828</v>
       </c>
       <c r="D484" t="n">
-        <v>28917</v>
+        <v>37095</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="8" t="n">
-        <v>42406.4125</v>
+        <v>42323.4305555556</v>
       </c>
       <c r="B485" t="s">
-        <v>155</v>
+        <v>420</v>
       </c>
       <c r="C485" t="n">
-        <v>939</v>
+        <v>14850</v>
       </c>
       <c r="D485" t="n">
-        <v>11322</v>
+        <v>52380</v>
       </c>
     </row>
   </sheetData>
